--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Undead" sheetId="1" r:id="rId1"/>
+    <sheet name="Goblin" sheetId="2" r:id="rId2"/>
+    <sheet name="VillianCanson" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -67,6 +69,30 @@
   <si>
     <t>The Skeleton Soldier is a common undead, its armor and weapons are usually rusted.</t>
   </si>
+  <si>
+    <t>Goblins are a type of demihuman with short lifespans. They have a baselevel of 1</t>
+  </si>
+  <si>
+    <t>Goblin Scout</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Goblin Shaman</t>
+  </si>
+  <si>
+    <t>If they aren't add: 33 def, 30 attack</t>
+  </si>
+  <si>
+    <t>Goblin Scouts use crude iron daggers, studded leather armor, and studded leather helmets</t>
+  </si>
+  <si>
+    <t>Iron daggers should be weaker than iron sword -&gt; 25 attack 5 agility, 10 def, 8 mdf</t>
+  </si>
+  <si>
+    <t>First Encounter. Has tech 2 gear. 40 MAT from staff, 3/10 from engraved robe, 3/2 from studded leather helmet</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -97,18 +123,440 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -150,8 +598,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2861DD08-92F9-4821-84C5-84F68B225D94}" name="Table1" displayName="Table1" ref="A4:J6" totalsRowShown="0">
-  <autoFilter ref="A4:J6" xr:uid="{634C2810-B5E1-4DB3-A486-F7F8D8DC6C73}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2861DD08-92F9-4821-84C5-84F68B225D94}" name="Table1" displayName="Table1" ref="A4:J5" totalsRowShown="0">
+  <autoFilter ref="A4:J5" xr:uid="{634C2810-B5E1-4DB3-A486-F7F8D8DC6C73}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{117C7306-80A7-4222-9DFB-71039A554839}" name="Name"/>
     <tableColumn id="2" xr3:uid="{18C02B4B-873F-49A2-AD1E-C8DCBB95D8A6}" name="HP"/>
@@ -162,7 +610,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="52">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -175,29 +623,220 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="51">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="50">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="49">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="48">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="47">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="46">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="45">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="44">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7268DD6D-84F4-43D7-A05F-EB56AE11DFF7}" name="Table131611" displayName="Table131611" ref="K8:S13" totalsRowShown="0">
+  <autoFilter ref="K8:S13" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="22">
+      <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="26">
+      <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="21">
+      <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="20">
+      <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="25">
+      <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="24">
+      <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="19">
+      <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="23">
+      <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DE335D90-A9BD-40A2-B9C7-73CA6E6CAB11}" name="Table15" displayName="Table15" ref="A4:J7" totalsRowShown="0">
+  <autoFilter ref="A4:J7" xr:uid="{CE759384-ADAA-40BA-B9E0-40CE462A16EC}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{DAE2EC63-1D40-4ED3-8C7B-1C8C0375CA6B}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{0BF5F099-BE0D-4349-90FC-65863CB0E17C}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{CCC1BCC5-CFE4-4B8A-8323-673868BD95EF}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{FE1FBFE1-8412-412B-A359-6E322B02EF8B}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{8DA4C046-05AD-4DAC-A5E6-0889B4BA4F65}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{90827F4E-7CAE-4259-B6F9-E364498748A0}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="43">
+      <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{11E951F1-5D13-41C6-A7E5-8F4298DA5463}" name="Table13167" displayName="Table13167" ref="A11:I16" totalsRowShown="0">
+  <autoFilter ref="A11:I16" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="42">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="41">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="39">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="40">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="38">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="37">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="36">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="35">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60D4A7A8-82BF-4B58-A912-589523D22F05}" name="Table131679" displayName="Table131679" ref="K11:S17" totalsRowShown="0">
+  <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="27">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="34">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="31">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="30">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="33">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="29">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="28">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="32">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BACB03CE-1DAD-4E5F-8D00-25D6D07FC945}" name="Table131620" displayName="Table131620" ref="A3:I9" totalsRowShown="0">
+  <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="18">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="17">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="16">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="15">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="11">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="12">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="14">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="13">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="10">
+  <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="8">
+      <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="7">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="6">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="5">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="4">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="3">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="2">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="1">
+      <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -501,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7AABB-3532-4A29-877B-ED130C7A9042}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,12 +1152,12 @@
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -550,7 +1189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -583,16 +1222,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1">
-        <f>SUM(Table1[[#This Row],[HP]:[LUK]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -620,8 +1261,35 @@
       <c r="I8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -657,8 +1325,43 @@
         <f>Table1316[[#This Row],[Level]]*1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>Table131611[[#This Row],[Level]]*56.25+200</f>
+        <v>256.25</v>
+      </c>
+      <c r="M9">
+        <f>Table131611[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <f>Table131611[[#This Row],[Level]]*1.25+ 15+30</f>
+        <v>46.25</v>
+      </c>
+      <c r="O9">
+        <f>Table131611[[#This Row],[Level]]*1.25 + 15+33</f>
+        <v>49.25</v>
+      </c>
+      <c r="P9">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f>Table131611[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -694,8 +1397,43 @@
         <f>Table1316[[#This Row],[Level]]*1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f>Table131611[[#This Row],[Level]]*56.25+200</f>
+        <v>762.5</v>
+      </c>
+      <c r="M10">
+        <f>Table131611[[#This Row],[Level]]*10</f>
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <f>Table131611[[#This Row],[Level]]*1.25+ 15+30</f>
+        <v>57.5</v>
+      </c>
+      <c r="O10">
+        <f>Table131611[[#This Row],[Level]]*1.25 + 15+33</f>
+        <v>60.5</v>
+      </c>
+      <c r="P10">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <f>Table131611[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>25</v>
       </c>
@@ -731,8 +1469,43 @@
         <f>Table1316[[#This Row],[Level]]*1</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <f>Table131611[[#This Row],[Level]]*56.25+200</f>
+        <v>1606.25</v>
+      </c>
+      <c r="M11">
+        <f>Table131611[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="N11">
+        <f>Table131611[[#This Row],[Level]]*1.25+ 15+30</f>
+        <v>76.25</v>
+      </c>
+      <c r="O11">
+        <f>Table131611[[#This Row],[Level]]*1.25 + 15+33</f>
+        <v>79.25</v>
+      </c>
+      <c r="P11">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+      <c r="R11">
+        <f>Table131611[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="S11">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
@@ -768,8 +1541,43 @@
         <f>Table1316[[#This Row],[Level]]*1</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>35</v>
+      </c>
+      <c r="L12">
+        <f>Table131611[[#This Row],[Level]]*56.25+200</f>
+        <v>2168.75</v>
+      </c>
+      <c r="M12">
+        <f>Table131611[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="N12">
+        <f>Table131611[[#This Row],[Level]]*1.25+ 15+30</f>
+        <v>88.75</v>
+      </c>
+      <c r="O12">
+        <f>Table131611[[#This Row],[Level]]*1.25 + 15+33</f>
+        <v>91.75</v>
+      </c>
+      <c r="P12">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+      <c r="Q12">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+      <c r="R12">
+        <f>Table131611[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="S12">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99</v>
       </c>
@@ -804,6 +1612,1007 @@
       <c r="I13">
         <f>Table1316[[#This Row],[Level]]*1</f>
         <v>99</v>
+      </c>
+      <c r="K13">
+        <v>99</v>
+      </c>
+      <c r="L13">
+        <f>Table131611[[#This Row],[Level]]*56.25+200</f>
+        <v>5768.75</v>
+      </c>
+      <c r="M13">
+        <f>Table131611[[#This Row],[Level]]*10</f>
+        <v>990</v>
+      </c>
+      <c r="N13">
+        <f>Table131611[[#This Row],[Level]]*1.25+ 15+30</f>
+        <v>168.75</v>
+      </c>
+      <c r="O13">
+        <f>Table131611[[#This Row],[Level]]*1.25 + 15+33</f>
+        <v>171.75</v>
+      </c>
+      <c r="P13">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>99</v>
+      </c>
+      <c r="Q13">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>99</v>
+      </c>
+      <c r="R13">
+        <f>Table131611[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="S13">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4195E475-9F10-4DD8-82F0-E47D9A595A6E}">
+  <dimension ref="A2:S17"/>
+  <sheetViews>
+    <sheetView topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>Table13167[[#This Row],[Level]]*56.25-100</f>
+        <v>-43.75</v>
+      </c>
+      <c r="C12">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="E12">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="F12">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="H12">
+        <f>Table13167[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="I12">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>156.25</v>
+      </c>
+      <c r="M12">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>41.375</v>
+      </c>
+      <c r="O12">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>26.25</v>
+      </c>
+      <c r="P12">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="Q12">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>24.25</v>
+      </c>
+      <c r="R12">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>21.5</v>
+      </c>
+      <c r="S12">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f>Table13167[[#This Row],[Level]]*56.25-100</f>
+        <v>462.5</v>
+      </c>
+      <c r="C13">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>28.75</v>
+      </c>
+      <c r="E13">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="F13">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="H13">
+        <f>Table13167[[#This Row],[Level]]*1.5 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>26.25</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>662.5</v>
+      </c>
+      <c r="M13">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>53.75</v>
+      </c>
+      <c r="O13">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>37.5</v>
+      </c>
+      <c r="P13">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>35.5</v>
+      </c>
+      <c r="R13">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>35</v>
+      </c>
+      <c r="S13">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <f>Table13167[[#This Row],[Level]]*56.25-100</f>
+        <v>1306.25</v>
+      </c>
+      <c r="C14">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D14">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="E14">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="F14">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="H14">
+        <f>Table13167[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="I14">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>1506.25</v>
+      </c>
+      <c r="M14">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="N14">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>74.375</v>
+      </c>
+      <c r="O14">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>56.25</v>
+      </c>
+      <c r="P14">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="Q14">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>54.25</v>
+      </c>
+      <c r="R14">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>57.5</v>
+      </c>
+      <c r="S14">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <f>Table13167[[#This Row],[Level]]*56.25-100</f>
+        <v>1868.75</v>
+      </c>
+      <c r="C15">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="D15">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="E15">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="F15">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="H15">
+        <f>Table13167[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="I15">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+      <c r="K15">
+        <v>35</v>
+      </c>
+      <c r="L15">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>2068.75</v>
+      </c>
+      <c r="M15">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="N15">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>88.125</v>
+      </c>
+      <c r="O15">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>68.75</v>
+      </c>
+      <c r="P15">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="Q15">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>66.75</v>
+      </c>
+      <c r="R15">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>72.5</v>
+      </c>
+      <c r="S15">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <f>Table13167[[#This Row],[Level]]*56.25-100</f>
+        <v>5468.75</v>
+      </c>
+      <c r="C16">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>990</v>
+      </c>
+      <c r="D16">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>151.125</v>
+      </c>
+      <c r="E16">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="F16">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="G16">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="H16">
+        <f>Table13167[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="I16">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>126.375</v>
+      </c>
+      <c r="K16">
+        <v>99</v>
+      </c>
+      <c r="L16">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>5668.75</v>
+      </c>
+      <c r="M16">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>990</v>
+      </c>
+      <c r="N16">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>176.125</v>
+      </c>
+      <c r="O16">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>148.75</v>
+      </c>
+      <c r="P16">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="Q16">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>146.75</v>
+      </c>
+      <c r="R16">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>168.5</v>
+      </c>
+      <c r="S16">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>126.375</v>
+      </c>
+    </row>
+    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>268.75</v>
+      </c>
+      <c r="M17" s="1">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>30</v>
+      </c>
+      <c r="N17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>44.125</v>
+      </c>
+      <c r="O17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>28.75</v>
+      </c>
+      <c r="P17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>18</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>26.75</v>
+      </c>
+      <c r="R17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>24.5</v>
+      </c>
+      <c r="S17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>18.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED846686-A238-4174-849F-9F6770BD1F9B}">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="G4">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="H4">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I4">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3">
+        <f>Table19[Level]*50 + 100</f>
+        <v>1100</v>
+      </c>
+      <c r="N4" s="3">
+        <f>Table19[[#This Row],[Level]]*15+100</f>
+        <v>400</v>
+      </c>
+      <c r="O4" s="3">
+        <f>Table19[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="P4" s="3">
+        <f>Table19[[#This Row],[Level]]*1 + 15 + 6</f>
+        <v>41</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>85</v>
+      </c>
+      <c r="R4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 12</f>
+        <v>57</v>
+      </c>
+      <c r="S4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="T4" s="4">
+        <f>Table19[Level] + 15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>850</v>
+      </c>
+      <c r="C5">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>325</v>
+      </c>
+      <c r="D5">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="G5">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="H5">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="I5">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1350</v>
+      </c>
+      <c r="C6">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>475</v>
+      </c>
+      <c r="D6">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="G6">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="H6">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I6">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1850</v>
+      </c>
+      <c r="C7">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>625</v>
+      </c>
+      <c r="D7">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="G7">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="H7">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I7">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>5050</v>
+      </c>
+      <c r="C8">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>1585</v>
+      </c>
+      <c r="D8">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>114</v>
+      </c>
+      <c r="E8">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="G8">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="H8">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I8">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1100</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>400</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
-    <sheet name="Undead" sheetId="1" r:id="rId1"/>
-    <sheet name="Goblin" sheetId="2" r:id="rId2"/>
+    <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
     <sheet name="VillianCanson" sheetId="4" r:id="rId3"/>
+    <sheet name="Goblin" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -92,6 +93,15 @@
   </si>
   <si>
     <t>First Encounter. Has tech 2 gear. 40 MAT from staff, 3/10 from engraved robe, 3/2 from studded leather helmet</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>They usually swarm in huge numbers though, and their touch corrupts defence</t>
+  </si>
+  <si>
+    <t>Zombies are the type of undead made from decomposing corpses. Only uses weapons, can't use armor. Often made from peasants, using shovels</t>
   </si>
 </sst>
 </file>
@@ -168,24 +178,33 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+  <dxfs count="62">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -459,6 +478,24 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -610,8 +647,42 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="52">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="61">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60D4A7A8-82BF-4B58-A912-589523D22F05}" name="Table131679" displayName="Table131679" ref="K11:S17" totalsRowShown="0">
+  <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="35">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="34">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="33">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="32">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="31">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="30">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="29">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="28">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -623,28 +694,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="51">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="60">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="59">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="49">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="58">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="48">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="57">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="47">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="56">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="46">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="55">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="45">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="54">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="44">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="53">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -657,28 +728,28 @@
   <autoFilter ref="K8:S13" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="52">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="51">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="50">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="49">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="25">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="48">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="47">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="46">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="23">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="45">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -687,6 +758,129 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{671A73B1-117F-4F40-B5B7-178F8355834B}" name="Table16" displayName="Table16" ref="A5:J6" totalsRowShown="0">
+  <autoFilter ref="A5:J6" xr:uid="{6C0AACD2-FA3F-4094-92F8-D2B9E23D5ABC}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{58197158-FD57-4F30-A650-67B2263D3800}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{F44FE952-D7BA-4DB1-836A-DD3B50D3F9E3}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{579A554D-FD3C-4BB1-9D51-8697075641A3}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{13D9B90B-E0BA-4850-A6F0-8F28FD71DDCB}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{0217E9E2-E13B-40B7-9079-429225374577}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{72ED865C-9977-41E9-BA4A-7DFB0D0A6048}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="8">
+      <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0489A86C-0040-4142-8D05-11877F6AC5E6}" name="Table131610" displayName="Table131610" ref="A8:I13" totalsRowShown="0">
+  <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="3">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="7">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="2">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="1">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="6">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="5">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="0">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="4">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BACB03CE-1DAD-4E5F-8D00-25D6D07FC945}" name="Table131620" displayName="Table131620" ref="A3:I9" totalsRowShown="0">
+  <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="27">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="26">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="25">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="24">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="23">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="22">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="21">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="20">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="16">
+      <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="15">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="14">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="13">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="12">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="11">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="10">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="9">
+      <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DE335D90-A9BD-40A2-B9C7-73CA6E6CAB11}" name="Table15" displayName="Table15" ref="A4:J7" totalsRowShown="0">
   <autoFilter ref="A4:J7" xr:uid="{CE759384-ADAA-40BA-B9E0-40CE462A16EC}"/>
   <tableColumns count="10">
@@ -699,7 +893,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="43">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="44">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -707,136 +901,34 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{11E951F1-5D13-41C6-A7E5-8F4298DA5463}" name="Table13167" displayName="Table13167" ref="A11:I16" totalsRowShown="0">
   <autoFilter ref="A11:I16" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="42">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="43">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="41">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="42">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="39">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="41">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="40">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="38">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="39">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="37">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="38">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="36">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="37">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="35">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="36">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60D4A7A8-82BF-4B58-A912-589523D22F05}" name="Table131679" displayName="Table131679" ref="K11:S17" totalsRowShown="0">
-  <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="27">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="34">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="31">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="30">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="33">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="29">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="28">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="32">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BACB03CE-1DAD-4E5F-8D00-25D6D07FC945}" name="Table131620" displayName="Table131620" ref="A3:I9" totalsRowShown="0">
-  <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="18">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="17">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="16">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="15">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="11">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="12">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="14">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="13">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="10">
-  <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="8">
-      <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="7">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="6">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="5">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="4">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="3">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="2">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="1">
-      <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1143,7 +1235,7 @@
   <dimension ref="A2:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J5"/>
+      <selection activeCell="A8" sqref="A8:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,6 +1752,660 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB1284-A899-416A-A581-E0E1F5719020}">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>SUM(Table16[[#This Row],[HP]:[LUK]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>Table131610[[#This Row],[Level]]*63-100</f>
+        <v>-37</v>
+      </c>
+      <c r="C9">
+        <f>Table131610[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f>Table131610[[#This Row],[Level]]*1.375+ 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="E9">
+        <f>Table131610[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>Table131610[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>Table131610[[#This Row],[Level]]*63-100</f>
+        <v>530</v>
+      </c>
+      <c r="C10">
+        <f>Table131610[[#This Row],[Level]]*10</f>
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f>Table131610[[#This Row],[Level]]*1.375+ 15</f>
+        <v>28.75</v>
+      </c>
+      <c r="E10">
+        <f>Table131610[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <f>Table131610[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <f>Table131610[[#This Row],[Level]]*63-100</f>
+        <v>1475</v>
+      </c>
+      <c r="C11">
+        <f>Table131610[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <f>Table131610[[#This Row],[Level]]*1.375+ 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="E11">
+        <f>Table131610[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <f>Table131610[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <f>Table131610[[#This Row],[Level]]*63-100</f>
+        <v>2105</v>
+      </c>
+      <c r="C12">
+        <f>Table131610[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="D12">
+        <f>Table131610[[#This Row],[Level]]*1.375+ 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="E12">
+        <f>Table131610[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <f>Table131610[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="B13">
+        <f>Table131610[[#This Row],[Level]]*63-100</f>
+        <v>6137</v>
+      </c>
+      <c r="C13">
+        <f>Table131610[[#This Row],[Level]]*10</f>
+        <v>990</v>
+      </c>
+      <c r="D13">
+        <f>Table131610[[#This Row],[Level]]*1.375+ 15</f>
+        <v>151.125</v>
+      </c>
+      <c r="E13">
+        <f>Table131610[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="F13">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>99</v>
+      </c>
+      <c r="G13">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <f>Table131610[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="I13">
+        <f>Table131610[[#This Row],[Level]]*1</f>
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED846686-A238-4174-849F-9F6770BD1F9B}">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="G4">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="H4">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I4">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3">
+        <f>Table19[Level]*50 + 100</f>
+        <v>1100</v>
+      </c>
+      <c r="N4" s="3">
+        <f>Table19[[#This Row],[Level]]*15+100</f>
+        <v>400</v>
+      </c>
+      <c r="O4" s="3">
+        <f>Table19[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="P4" s="3">
+        <f>Table19[[#This Row],[Level]]*1 + 15 + 6</f>
+        <v>41</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>85</v>
+      </c>
+      <c r="R4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 12</f>
+        <v>57</v>
+      </c>
+      <c r="S4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="T4" s="4">
+        <f>Table19[Level] + 15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>850</v>
+      </c>
+      <c r="C5">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>325</v>
+      </c>
+      <c r="D5">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="G5">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="H5">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="I5">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1350</v>
+      </c>
+      <c r="C6">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>475</v>
+      </c>
+      <c r="D6">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="G6">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="H6">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I6">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1850</v>
+      </c>
+      <c r="C7">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>625</v>
+      </c>
+      <c r="D7">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="G7">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="H7">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I7">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>5050</v>
+      </c>
+      <c r="C8">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>1585</v>
+      </c>
+      <c r="D8">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>114</v>
+      </c>
+      <c r="E8">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="G8">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="H8">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I8">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1100</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>400</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4195E475-9F10-4DD8-82F0-E47D9A595A6E}">
   <dimension ref="A2:S17"/>
   <sheetViews>
@@ -2276,350 +3022,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED846686-A238-4174-849F-9F6770BD1F9B}">
-  <dimension ref="A1:T9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>150</v>
-      </c>
-      <c r="C4">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>115</v>
-      </c>
-      <c r="D4">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>16.5</v>
-      </c>
-      <c r="G4">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>16.5</v>
-      </c>
-      <c r="H4">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>16.25</v>
-      </c>
-      <c r="I4">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
-      </c>
-      <c r="L4" s="2">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3">
-        <f>Table19[Level]*50 + 100</f>
-        <v>1100</v>
-      </c>
-      <c r="N4" s="3">
-        <f>Table19[[#This Row],[Level]]*15+100</f>
-        <v>400</v>
-      </c>
-      <c r="O4" s="3">
-        <f>Table19[[#This Row],[Level]]*1+ 15</f>
-        <v>35</v>
-      </c>
-      <c r="P4" s="3">
-        <f>Table19[[#This Row],[Level]]*1 + 15 + 6</f>
-        <v>41</v>
-      </c>
-      <c r="Q4" s="3">
-        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 40</f>
-        <v>85</v>
-      </c>
-      <c r="R4" s="3">
-        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 12</f>
-        <v>57</v>
-      </c>
-      <c r="S4" s="3">
-        <f>Table19[[#This Row],[Level]]*1.25 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="T4" s="4">
-        <f>Table19[Level] + 15</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>850</v>
-      </c>
-      <c r="C5">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>325</v>
-      </c>
-      <c r="D5">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>37.5</v>
-      </c>
-      <c r="G5">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>37.5</v>
-      </c>
-      <c r="H5">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>33.75</v>
-      </c>
-      <c r="I5">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>1350</v>
-      </c>
-      <c r="C6">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>475</v>
-      </c>
-      <c r="D6">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
-      </c>
-      <c r="G6">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
-      </c>
-      <c r="H6">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>46.25</v>
-      </c>
-      <c r="I6">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>1850</v>
-      </c>
-      <c r="C7">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>625</v>
-      </c>
-      <c r="D7">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>67.5</v>
-      </c>
-      <c r="G7">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>67.5</v>
-      </c>
-      <c r="H7">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>58.75</v>
-      </c>
-      <c r="I7">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>99</v>
-      </c>
-      <c r="B8">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>5050</v>
-      </c>
-      <c r="C8">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>1585</v>
-      </c>
-      <c r="D8">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>114</v>
-      </c>
-      <c r="E8">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>114</v>
-      </c>
-      <c r="F8">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>163.5</v>
-      </c>
-      <c r="G8">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>163.5</v>
-      </c>
-      <c r="H8">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>138.75</v>
-      </c>
-      <c r="I8">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>1100</v>
-      </c>
-      <c r="C9" s="1">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>400</v>
-      </c>
-      <c r="D9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>35</v>
-      </c>
-      <c r="E9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>45</v>
-      </c>
-      <c r="G9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>45</v>
-      </c>
-      <c r="H9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="I9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="4" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="VillianCanson" sheetId="4" r:id="rId3"/>
-    <sheet name="Goblin" sheetId="2" r:id="rId4"/>
+    <sheet name="Zombie" sheetId="5" r:id="rId2"/>
+    <sheet name="SpiritPuppet" sheetId="6" r:id="rId3"/>
+    <sheet name="Acolyte" sheetId="7" r:id="rId4"/>
+    <sheet name="Death Knight" sheetId="8" r:id="rId5"/>
+    <sheet name="VillianCanson" sheetId="4" r:id="rId6"/>
+    <sheet name="Goblin" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -102,6 +105,36 @@
   </si>
   <si>
     <t>Zombies are the type of undead made from decomposing corpses. Only uses weapons, can't use armor. Often made from peasants, using shovels</t>
+  </si>
+  <si>
+    <t>These puppets originally were used by Aseran priests as representations of the harvest God</t>
+  </si>
+  <si>
+    <t>Ever since the Empire conquered Asera, the religion was banned and these puppets became rare</t>
+  </si>
+  <si>
+    <t>Somehow, Canson's acolytes have infused these with mana to create constructs that advent the Hell Gods</t>
+  </si>
+  <si>
+    <t>Spirit Puppet</t>
+  </si>
+  <si>
+    <t>Acolytes is a term that refers to an apprentice. It has connotations with necromancy due to lesser hellgod priests appearing with necromancers</t>
+  </si>
+  <si>
+    <t>This acolyte is actually a mage</t>
+  </si>
+  <si>
+    <t>First Encounter. Has tech 2 gear armor and tech 1 staff 28 MAT from staff, 3/10 from engraved robe, 3/2 from studded leather helmet</t>
+  </si>
+  <si>
+    <t>Death Knight</t>
+  </si>
+  <si>
+    <t>Death Knights are top tier undead. Equipped with heavy armor and weapons as well as a powerful base</t>
+  </si>
+  <si>
+    <t>Sidequest: Tech 2 Gear. Iron Spear: 30, Body: 11/11, Helm: 6/2, Heavy Shield: 9/3</t>
   </si>
 </sst>
 </file>
@@ -178,19 +211,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -613,6 +634,385 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -647,7 +1047,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="61">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="98">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -656,32 +1056,198 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6BEAD6DA-F1CC-4DB1-9830-FAC45EABEE4E}" name="Table16821" displayName="Table16821" ref="A4:J5" totalsRowShown="0">
+  <autoFilter ref="A4:J5" xr:uid="{0874E50B-9ED5-4CBB-94CE-FE34DD543476}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{D24DE64F-AD99-44F1-A563-00A2EC86C8A5}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{FA1ADA16-085A-4D07-AC3D-BD752AD74C02}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{7603371D-40BD-4E83-877D-566EDA75BB06}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{CAE8D85C-6716-4520-ABE5-F9AEF2B25E8E}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{245407F3-8672-4D23-8668-D1E8EF177882}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{CF958570-2481-49F8-81D3-7C212DEE19E7}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="12">
+      <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="11">
+      <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BACB03CE-1DAD-4E5F-8D00-25D6D07FC945}" name="Table131620" displayName="Table131620" ref="A3:I9" totalsRowShown="0">
+  <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="73">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="72">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="71">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="70">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="69">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="68">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="67">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="66">
+      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="65" tableBorderDxfId="64">
+  <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="62">
+      <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="61">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="60">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="59">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="58">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="57">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="56">
+      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="55">
+      <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DE335D90-A9BD-40A2-B9C7-73CA6E6CAB11}" name="Table15" displayName="Table15" ref="A4:J7" totalsRowShown="0">
+  <autoFilter ref="A4:J7" xr:uid="{CE759384-ADAA-40BA-B9E0-40CE462A16EC}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{DAE2EC63-1D40-4ED3-8C7B-1C8C0375CA6B}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{0BF5F099-BE0D-4349-90FC-65863CB0E17C}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{CCC1BCC5-CFE4-4B8A-8323-673868BD95EF}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{FE1FBFE1-8412-412B-A359-6E322B02EF8B}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{8DA4C046-05AD-4DAC-A5E6-0889B4BA4F65}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{90827F4E-7CAE-4259-B6F9-E364498748A0}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="54">
+      <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{11E951F1-5D13-41C6-A7E5-8F4298DA5463}" name="Table13167" displayName="Table13167" ref="A11:I16" totalsRowShown="0">
+  <autoFilter ref="A11:I16" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="53">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="52">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="51">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="50">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="49">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="48">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="47">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="46">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60D4A7A8-82BF-4B58-A912-589523D22F05}" name="Table131679" displayName="Table131679" ref="K11:S17" totalsRowShown="0">
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="35">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="45">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="34">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="44">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="33">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="43">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="32">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="42">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="31">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="41">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="40">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="29">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="39">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="38">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -694,28 +1260,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="97">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="59">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="96">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="58">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="95">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="57">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="94">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="93">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="55">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="92">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="54">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="91">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="53">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="90">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -728,28 +1294,28 @@
   <autoFilter ref="K8:S13" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="52">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="89">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="51">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="88">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="50">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="87">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="49">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="86">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="48">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="85">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="47">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="84">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="46">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="83">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="45">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="82">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -770,7 +1336,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="81">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -783,28 +1349,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="35">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="80">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="79">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="78">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="77">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="76">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="75">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="74">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -813,33 +1379,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BACB03CE-1DAD-4E5F-8D00-25D6D07FC945}" name="Table131620" displayName="Table131620" ref="A3:I9" totalsRowShown="0">
-  <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="27">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="26">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="25">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="24">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="23">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="22">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="21">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="20">
-      <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0A2DAD7E-8DB8-432C-AD24-4A1116190AFC}" name="Table168" displayName="Table168" ref="A6:J7" totalsRowShown="0">
+  <autoFilter ref="A6:J7" xr:uid="{3F070465-048B-4A60-A5D6-289DD81841E3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{46422AF1-99B7-4965-8F6A-D256072E575C}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{0A71C80C-CA2E-4E72-9D93-350B3DA84447}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{DF6C3EB9-3A52-40CE-AC4E-B7F04A1EBB64}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{F31DDD26-7F37-4DBC-8236-79185692625B}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{34BB612C-EF90-4001-865D-C0BBE9DDE35C}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{3C2ED426-96C6-4371-9F06-FA42D5AE2877}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="37">
+      <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -847,33 +1400,33 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E50ECAD0-74A3-4ED4-B8F9-3CED6CCBE3D4}" name="Table13161013" displayName="Table13161013" ref="A9:I14" totalsRowShown="0">
+  <autoFilter ref="A9:I14" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="16">
-      <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="15">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="14">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="13">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="12">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="11">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="10">
-      <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="9">
-      <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="34">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="33">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="32">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="36">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="31">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="30">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="29">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="28">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -881,20 +1434,33 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DE335D90-A9BD-40A2-B9C7-73CA6E6CAB11}" name="Table15" displayName="Table15" ref="A4:J7" totalsRowShown="0">
-  <autoFilter ref="A4:J7" xr:uid="{CE759384-ADAA-40BA-B9E0-40CE462A16EC}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DAE2EC63-1D40-4ED3-8C7B-1C8C0375CA6B}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{0BF5F099-BE0D-4349-90FC-65863CB0E17C}" name="HP"/>
-    <tableColumn id="3" xr3:uid="{CCC1BCC5-CFE4-4B8A-8323-673868BD95EF}" name="MP"/>
-    <tableColumn id="4" xr3:uid="{FE1FBFE1-8412-412B-A359-6E322B02EF8B}" name="ATK"/>
-    <tableColumn id="5" xr3:uid="{8DA4C046-05AD-4DAC-A5E6-0889B4BA4F65}" name="DEF"/>
-    <tableColumn id="6" xr3:uid="{90827F4E-7CAE-4259-B6F9-E364498748A0}" name="MAT"/>
-    <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
-    <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
-    <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="44">
-      <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{537551B7-B0FC-43E4-9401-043CCFC4A3B0}" name="Table13162015" displayName="Table13162015" ref="A4:I10" totalsRowShown="0">
+  <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="27">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="26">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="25">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="24">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="23">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="22">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="21">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="20">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -902,33 +1468,33 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{11E951F1-5D13-41C6-A7E5-8F4298DA5463}" name="Table13167" displayName="Table13167" ref="A11:I16" totalsRowShown="0">
-  <autoFilter ref="A11:I16" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F3CEF94F-0A77-45F7-9EF0-B6E7B4DA3B1F}" name="Table131618" displayName="Table131618" ref="A7:I12" totalsRowShown="0">
+  <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="43">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="42">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="41">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="40">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="39">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="38">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="37">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="36">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="19">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="18">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="4">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="3">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="17">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="2">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="1">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="0">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1235,7 +1801,7 @@
   <dimension ref="A2:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB1284-A899-416A-A581-E0E1F5719020}">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,340 +2626,307 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED846686-A238-4174-849F-9F6770BD1F9B}">
-  <dimension ref="A1:T9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9807F697-48C3-4A93-87DF-719DC89F6DFD}">
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="I1">
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f>SUM(Table168[[#This Row],[HP]:[LUK]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>150</v>
-      </c>
-      <c r="C4">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>115</v>
-      </c>
-      <c r="D4">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+      <c r="B10">
+        <f>Table13161013[[#This Row],[Level]]*56.25-100</f>
+        <v>-43.75</v>
+      </c>
+      <c r="C10">
+        <f>Table13161013[[#This Row],[Level]]*10+20</f>
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <f>Table13161013[[#This Row],[Level]]*1+ 15</f>
         <v>16</v>
       </c>
-      <c r="E4">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+      <c r="E10">
+        <f>Table13161013[[#This Row],[Level]]*1 + 15</f>
         <v>16</v>
       </c>
-      <c r="F4">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+      <c r="F10">
+        <f>Table13161013[[#This Row],[Level]]*1.375+15</f>
+        <v>16.375</v>
+      </c>
+      <c r="G10">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
         <v>16.5</v>
       </c>
-      <c r="G4">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+      <c r="H10">
+        <f>Table13161013[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+      <c r="I10">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
         <v>16.5</v>
       </c>
-      <c r="H4">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>16.25</v>
-      </c>
-      <c r="I4">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
-      </c>
-      <c r="L4" s="2">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3">
-        <f>Table19[Level]*50 + 100</f>
-        <v>1100</v>
-      </c>
-      <c r="N4" s="3">
-        <f>Table19[[#This Row],[Level]]*15+100</f>
-        <v>400</v>
-      </c>
-      <c r="O4" s="3">
-        <f>Table19[[#This Row],[Level]]*1+ 15</f>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>Table13161013[[#This Row],[Level]]*56.25-100</f>
+        <v>462.5</v>
+      </c>
+      <c r="C11">
+        <f>Table13161013[[#This Row],[Level]]*10+20</f>
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <f>Table13161013[[#This Row],[Level]]*1+ 15</f>
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <f>Table13161013[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <f>Table13161013[[#This Row],[Level]]*1.375+15</f>
+        <v>28.75</v>
+      </c>
+      <c r="G11">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <f>Table13161013[[#This Row],[Level]]*1.125 + 15</f>
+        <v>26.25</v>
+      </c>
+      <c r="I11">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <f>Table13161013[[#This Row],[Level]]*56.25-100</f>
+        <v>1306.25</v>
+      </c>
+      <c r="C12">
+        <f>Table13161013[[#This Row],[Level]]*10+20</f>
+        <v>270</v>
+      </c>
+      <c r="D12">
+        <f>Table13161013[[#This Row],[Level]]*1+ 15</f>
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <f>Table13161013[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <f>Table13161013[[#This Row],[Level]]*1.375+15</f>
+        <v>49.375</v>
+      </c>
+      <c r="G12">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
+        <v>52.5</v>
+      </c>
+      <c r="H12">
+        <f>Table13161013[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+      <c r="I12">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>35</v>
       </c>
-      <c r="P4" s="3">
-        <f>Table19[[#This Row],[Level]]*1 + 15 + 6</f>
-        <v>41</v>
-      </c>
-      <c r="Q4" s="3">
-        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 40</f>
-        <v>85</v>
-      </c>
-      <c r="R4" s="3">
-        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 12</f>
-        <v>57</v>
-      </c>
-      <c r="S4" s="3">
-        <f>Table19[[#This Row],[Level]]*1.25 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="T4" s="4">
-        <f>Table19[Level] + 15</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>850</v>
-      </c>
-      <c r="C5">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>325</v>
-      </c>
-      <c r="D5">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>37.5</v>
-      </c>
-      <c r="G5">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>37.5</v>
-      </c>
-      <c r="H5">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>33.75</v>
-      </c>
-      <c r="I5">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>1350</v>
-      </c>
-      <c r="C6">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>475</v>
-      </c>
-      <c r="D6">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
-      </c>
-      <c r="G6">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
-      </c>
-      <c r="H6">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>46.25</v>
-      </c>
-      <c r="I6">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>1850</v>
-      </c>
-      <c r="C7">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>625</v>
-      </c>
-      <c r="D7">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+      <c r="B13">
+        <f>Table13161013[[#This Row],[Level]]*56.25-100</f>
+        <v>1868.75</v>
+      </c>
+      <c r="C13">
+        <f>Table13161013[[#This Row],[Level]]*10+20</f>
+        <v>370</v>
+      </c>
+      <c r="D13">
+        <f>Table13161013[[#This Row],[Level]]*1+ 15</f>
         <v>50</v>
       </c>
-      <c r="E7">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+      <c r="E13">
+        <f>Table13161013[[#This Row],[Level]]*1 + 15</f>
         <v>50</v>
       </c>
-      <c r="F7">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+      <c r="F13">
+        <f>Table13161013[[#This Row],[Level]]*1.375+15</f>
+        <v>63.125</v>
+      </c>
+      <c r="G13">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
         <v>67.5</v>
       </c>
-      <c r="G7">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+      <c r="H13">
+        <f>Table13161013[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+      <c r="I13">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
         <v>67.5</v>
       </c>
-      <c r="H7">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>58.75</v>
-      </c>
-      <c r="I7">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>99</v>
       </c>
-      <c r="B8">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>5050</v>
-      </c>
-      <c r="C8">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>1585</v>
-      </c>
-      <c r="D8">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+      <c r="B14">
+        <f>Table13161013[[#This Row],[Level]]*56.25-100</f>
+        <v>5468.75</v>
+      </c>
+      <c r="C14">
+        <f>Table13161013[[#This Row],[Level]]*10+20</f>
+        <v>1010</v>
+      </c>
+      <c r="D14">
+        <f>Table13161013[[#This Row],[Level]]*1+ 15</f>
         <v>114</v>
       </c>
-      <c r="E8">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+      <c r="E14">
+        <f>Table13161013[[#This Row],[Level]]*1 + 15</f>
         <v>114</v>
       </c>
-      <c r="F8">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+      <c r="F14">
+        <f>Table13161013[[#This Row],[Level]]*1.375+15</f>
+        <v>151.125</v>
+      </c>
+      <c r="G14">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
         <v>163.5</v>
       </c>
-      <c r="G8">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+      <c r="H14">
+        <f>Table13161013[[#This Row],[Level]]*1.125 + 15</f>
+        <v>126.375</v>
+      </c>
+      <c r="I14">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
         <v>163.5</v>
-      </c>
-      <c r="H8">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>138.75</v>
-      </c>
-      <c r="I8">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>1100</v>
-      </c>
-      <c r="C9" s="1">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>400</v>
-      </c>
-      <c r="D9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>35</v>
-      </c>
-      <c r="E9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>45</v>
-      </c>
-      <c r="G9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>45</v>
-      </c>
-      <c r="H9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="I9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2406,6 +2939,1005 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA7AE8E-3CBD-43D4-8334-3506A3BDF6FA}">
+  <dimension ref="A2:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>Table13162015[[#This Row],[Level]]*50 + 100</f>
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <f>Table13162015[[#This Row],[Level]]*15+100</f>
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <f>Table13162015[[#This Row],[Level]]*1+ 15</f>
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="G5">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="H5">
+        <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I5">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <f>Table13162015[[#This Row],[Level]]*50 + 100</f>
+        <v>850</v>
+      </c>
+      <c r="C6">
+        <f>Table13162015[[#This Row],[Level]]*15+100</f>
+        <v>325</v>
+      </c>
+      <c r="D6">
+        <f>Table13162015[[#This Row],[Level]]*1+ 15</f>
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="G6">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="H6">
+        <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="I6">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <f>Table13162015[[#This Row],[Level]]*50 + 100</f>
+        <v>1350</v>
+      </c>
+      <c r="C7">
+        <f>Table13162015[[#This Row],[Level]]*15+100</f>
+        <v>475</v>
+      </c>
+      <c r="D7">
+        <f>Table13162015[[#This Row],[Level]]*1+ 15</f>
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="G7">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="H7">
+        <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I7">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <f>Table13162015[[#This Row],[Level]]*50 + 100</f>
+        <v>1850</v>
+      </c>
+      <c r="C8">
+        <f>Table13162015[[#This Row],[Level]]*15+100</f>
+        <v>625</v>
+      </c>
+      <c r="D8">
+        <f>Table13162015[[#This Row],[Level]]*1+ 15</f>
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="G8">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="H8">
+        <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I8">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <f>Table13162015[[#This Row],[Level]]*50 + 100</f>
+        <v>5050</v>
+      </c>
+      <c r="C9">
+        <f>Table13162015[[#This Row],[Level]]*15+100</f>
+        <v>1585</v>
+      </c>
+      <c r="D9">
+        <f>Table13162015[[#This Row],[Level]]*1+ 15</f>
+        <v>114</v>
+      </c>
+      <c r="E9">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="F9">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="G9">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="H9">
+        <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I9">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <f>Table13162015[[#This Row],[Level]]*50 + 100</f>
+        <v>1100</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Table13162015[[#This Row],[Level]]*15+100</f>
+        <v>400</v>
+      </c>
+      <c r="D10" s="1">
+        <f>Table13162015[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="E10" s="1">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="F10" s="1">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="G10" s="1">
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I10" s="1">
+        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CE9C02-0686-4D94-800E-4766BA124417}">
+  <dimension ref="A2:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Table16821[[#This Row],[HP]:[LUK]])</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
+        <v>575</v>
+      </c>
+      <c r="C8">
+        <f>Table131618[[#This Row],[Level]]*10+20</f>
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="E8">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="F8">
+        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="H8">
+        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="I8">
+        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
+        <v>1625</v>
+      </c>
+      <c r="C9">
+        <f>Table131618[[#This Row],[Level]]*10+20</f>
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="E9">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="F9">
+        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="H9">
+        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
+        <v>35.625</v>
+      </c>
+      <c r="I9">
+        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
+        <v>2375</v>
+      </c>
+      <c r="C10">
+        <f>Table131618[[#This Row],[Level]]*10+20</f>
+        <v>270</v>
+      </c>
+      <c r="D10">
+        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="E10">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="F10">
+        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="H10">
+        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="I10">
+        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
+        <v>3125</v>
+      </c>
+      <c r="C11">
+        <f>Table131618[[#This Row],[Level]]*10+20</f>
+        <v>370</v>
+      </c>
+      <c r="D11">
+        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="E11">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="F11">
+        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="H11">
+        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="I11">
+        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <f>Table131618[[#This Row],[Level]]*10+20</f>
+        <v>220</v>
+      </c>
+      <c r="D12">
+        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
+        <v>42.5</v>
+      </c>
+      <c r="I12">
+        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <f>Table1922[Level]*75 + 500</f>
+        <v>2000</v>
+      </c>
+      <c r="C16" s="3">
+        <f>Table1922[[#This Row],[Level]]*10 + 20</f>
+        <v>220</v>
+      </c>
+      <c r="D16" s="3">
+        <v>75</v>
+      </c>
+      <c r="E16" s="3">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3">
+        <v>35</v>
+      </c>
+      <c r="G16" s="3">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3">
+        <v>42.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>37.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED846686-A238-4174-849F-9F6770BD1F9B}">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="G4">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="H4">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I4">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3">
+        <f>Table19[Level]*50 + 100</f>
+        <v>1100</v>
+      </c>
+      <c r="N4" s="3">
+        <f>Table19[[#This Row],[Level]]*15+100</f>
+        <v>400</v>
+      </c>
+      <c r="O4" s="3">
+        <f>Table19[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="P4" s="3">
+        <f>Table19[[#This Row],[Level]]*1 + 15 + 6</f>
+        <v>41</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>85</v>
+      </c>
+      <c r="R4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 12</f>
+        <v>57</v>
+      </c>
+      <c r="S4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="T4" s="4">
+        <f>Table19[Level] + 15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>850</v>
+      </c>
+      <c r="C5">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>325</v>
+      </c>
+      <c r="D5">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="G5">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="H5">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="I5">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1350</v>
+      </c>
+      <c r="C6">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>475</v>
+      </c>
+      <c r="D6">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="G6">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="H6">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I6">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1850</v>
+      </c>
+      <c r="C7">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>625</v>
+      </c>
+      <c r="D7">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="G7">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="H7">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I7">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>5050</v>
+      </c>
+      <c r="C8">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>1585</v>
+      </c>
+      <c r="D8">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>114</v>
+      </c>
+      <c r="E8">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="G8">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="H8">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I8">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1100</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>400</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4195E475-9F10-4DD8-82F0-E47D9A595A6E}">
   <dimension ref="A2:S17"/>
   <sheetViews>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="4" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="6" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="40">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -136,6 +136,21 @@
   <si>
     <t>Sidequest: Tech 2 Gear. Iron Spear: 30, Body: 11/11, Helm: 6/2, Heavy Shield: 9/3</t>
   </si>
+  <si>
+    <t>Goblin Grunt</t>
+  </si>
+  <si>
+    <t>Goblin Grunts use crude iron daggers, crude shield, crude mail, and crude helmets</t>
+  </si>
+  <si>
+    <t>25atk/5agi, 17def/16mdf</t>
+  </si>
+  <si>
+    <t>Goblin Shaman use their divine powers to heal and curse enemies</t>
+  </si>
+  <si>
+    <t>They use a 2-handed faith light balanced armor: 40 Faith, 14/13</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +226,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="115">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -541,99 +640,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1021,6 +1027,63 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1047,7 +1110,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="98">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="114">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1068,7 +1131,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="63">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1077,22 +1140,22 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="59">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="58">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1103,28 +1166,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="73">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="51">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="72">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="50">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="71">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="49">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="70">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="48">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="69">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="47">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="68">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="46">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="67">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="45">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="66">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="44">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1133,32 +1196,32 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="65" tableBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="40">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="61">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="39">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="60">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="38">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="59">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="37">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="58">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="36">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="57">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="35">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="56">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="34">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="55">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="33">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1167,8 +1230,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DE335D90-A9BD-40A2-B9C7-73CA6E6CAB11}" name="Table15" displayName="Table15" ref="A4:J7" totalsRowShown="0">
-  <autoFilter ref="A4:J7" xr:uid="{CE759384-ADAA-40BA-B9E0-40CE462A16EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DE335D90-A9BD-40A2-B9C7-73CA6E6CAB11}" name="Table15" displayName="Table15" ref="A4:J8" totalsRowShown="0">
+  <autoFilter ref="A4:J8" xr:uid="{CE759384-ADAA-40BA-B9E0-40CE462A16EC}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DAE2EC63-1D40-4ED3-8C7B-1C8C0375CA6B}" name="Name"/>
     <tableColumn id="2" xr3:uid="{0BF5F099-BE0D-4349-90FC-65863CB0E17C}" name="HP"/>
@@ -1179,7 +1242,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="54">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="32">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1188,32 +1251,32 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{11E951F1-5D13-41C6-A7E5-8F4298DA5463}" name="Table13167" displayName="Table13167" ref="A11:I16" totalsRowShown="0">
-  <autoFilter ref="A11:I16" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{11E951F1-5D13-41C6-A7E5-8F4298DA5463}" name="Table13167" displayName="Table13167" ref="A15:I20" totalsRowShown="0">
+  <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="53">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="52">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="31">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="30">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="51">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="29">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="50">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="28">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="27">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="26">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="25">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="49">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="48">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="47">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="46">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="24">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1226,29 +1289,97 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="45">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="23">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="44">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="22">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="43">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="21">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="42">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="20">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="41">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="19">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="40">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="18">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="39">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="17">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="38">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="16">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{57801F89-51BE-4BC1-9BA3-39DF9D564857}" name="Table1316717" displayName="Table1316717" ref="A26:I31" totalsRowShown="0">
+  <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="15">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="14">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="7">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="6">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="13">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="12">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="11">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="10">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6BE19079-7252-4251-9EA9-046E7A11042F}" name="Table13167173" displayName="Table13167173" ref="A36:I41" totalsRowShown="0">
+  <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="3">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="8">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="5">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="0">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="4">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="1">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="9">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="2">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1260,28 +1391,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="97">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="113">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="96">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="112">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="95">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="111">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="94">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="110">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="93">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="109">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="92">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="108">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="91">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="107">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="90">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="106">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1294,28 +1425,28 @@
   <autoFilter ref="K8:S13" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="89">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="105">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="88">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="104">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="87">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="103">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="86">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="102">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="85">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="101">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="84">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="100">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="83">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="99">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="82">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="98">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1336,7 +1467,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="81">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="97">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1349,28 +1480,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="35">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="96">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="80">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="95">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="79">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="94">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="78">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="93">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="77">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="92">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="76">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="91">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="75">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="90">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="74">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="89">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1391,7 +1522,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="37">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="88">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1404,28 +1535,28 @@
   <autoFilter ref="A9:I14" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="87">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="33">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="86">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="85">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="36">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="84">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="31">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="83">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="82">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="29">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="81">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="80">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1438,28 +1569,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="79">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="78">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="77">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="76">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="75">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="74">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="73">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="20">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="72">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1472,28 +1603,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="71">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="70">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="69">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="68">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="67">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="66">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="65">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="64">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2630,7 +2761,7 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CE9C02-0686-4D94-800E-4766BA124417}">
   <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,7 +3727,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:T4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,10 +4070,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4195E475-9F10-4DD8-82F0-E47D9A595A6E}">
-  <dimension ref="A2:S17"/>
+  <dimension ref="A2:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,69 +4189,65 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
       <c r="G7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1">
         <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
@@ -4150,41 +4277,6 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <f>Table13167[[#This Row],[Level]]*56.25-100</f>
-        <v>-43.75</v>
-      </c>
-      <c r="C12">
-        <f>Table13167[[#This Row],[Level]]*10</f>
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
-        <v>16.375</v>
-      </c>
-      <c r="E12">
-        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
-        <v>16.25</v>
-      </c>
-      <c r="F12">
-        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
-        <v>16.25</v>
-      </c>
-      <c r="H12">
-        <f>Table13167[[#This Row],[Level]]*1.5 + 15</f>
-        <v>16.5</v>
-      </c>
-      <c r="I12">
-        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
-        <v>16.125</v>
-      </c>
       <c r="K12">
         <v>1</v>
       </c>
@@ -4222,40 +4314,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <f>Table13167[[#This Row],[Level]]*56.25-100</f>
-        <v>462.5</v>
-      </c>
-      <c r="C13">
-        <f>Table13167[[#This Row],[Level]]*10</f>
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
-        <v>28.75</v>
-      </c>
-      <c r="E13">
-        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
-        <v>27.5</v>
-      </c>
-      <c r="F13">
-        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
-        <v>27.5</v>
-      </c>
-      <c r="H13">
-        <f>Table13167[[#This Row],[Level]]*1.5 + 15</f>
-        <v>30</v>
-      </c>
-      <c r="I13">
-        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
-        <v>26.25</v>
+      <c r="A13" t="s">
+        <v>19</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -4294,40 +4354,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <f>Table13167[[#This Row],[Level]]*56.25-100</f>
-        <v>1306.25</v>
-      </c>
-      <c r="C14">
-        <f>Table13167[[#This Row],[Level]]*10</f>
-        <v>250</v>
-      </c>
-      <c r="D14">
-        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
-        <v>49.375</v>
-      </c>
-      <c r="E14">
-        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
-        <v>46.25</v>
-      </c>
-      <c r="F14">
-        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="G14">
-        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
-        <v>46.25</v>
-      </c>
-      <c r="H14">
-        <f>Table13167[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
-      </c>
-      <c r="I14">
-        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
-        <v>43.125</v>
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
       <c r="K14">
         <v>25</v>
@@ -4366,40 +4394,32 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>35</v>
-      </c>
-      <c r="B15">
-        <f>Table13167[[#This Row],[Level]]*56.25-100</f>
-        <v>1868.75</v>
-      </c>
-      <c r="C15">
-        <f>Table13167[[#This Row],[Level]]*10</f>
-        <v>350</v>
-      </c>
-      <c r="D15">
-        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
-        <v>63.125</v>
-      </c>
-      <c r="E15">
-        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
-        <v>58.75</v>
-      </c>
-      <c r="F15">
-        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
-        <v>58.75</v>
-      </c>
-      <c r="H15">
-        <f>Table13167[[#This Row],[Level]]*1.5 + 15</f>
-        <v>67.5</v>
-      </c>
-      <c r="I15">
-        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
-        <v>54.375</v>
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
       </c>
       <c r="K15">
         <v>35</v>
@@ -4439,39 +4459,39 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <f>Table13167[[#This Row],[Level]]*56.25-100</f>
-        <v>5468.75</v>
+        <f>Table13167[[#This Row],[Level]]*63-100</f>
+        <v>-37</v>
       </c>
       <c r="C16">
         <f>Table13167[[#This Row],[Level]]*10</f>
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
-        <v>151.125</v>
+        <v>16.375</v>
       </c>
       <c r="E16">
-        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
-        <v>138.75</v>
+        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
+        <v>16.375</v>
       </c>
       <c r="F16">
         <f>Table13167[[#This Row],[Level]]*1 + 15</f>
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
-        <v>138.75</v>
+        <v>16.25</v>
       </c>
       <c r="H16">
-        <f>Table13167[[#This Row],[Level]]*1.5 + 15</f>
-        <v>163.5</v>
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
       </c>
       <c r="I16">
         <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
-        <v>126.375</v>
+        <v>16.125</v>
       </c>
       <c r="K16">
         <v>99</v>
@@ -4509,7 +4529,42 @@
         <v>126.375</v>
       </c>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>Table13167[[#This Row],[Level]]*63</f>
+        <v>630</v>
+      </c>
+      <c r="C17">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>28.75</v>
+      </c>
+      <c r="E17">
+        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
+        <v>28.75</v>
+      </c>
+      <c r="F17">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="H17">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I17">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>26.25</v>
+      </c>
       <c r="K17">
         <v>3</v>
       </c>
@@ -4546,12 +4601,573 @@
         <v>18.375</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <f>Table13167[[#This Row],[Level]]*63-100</f>
+        <v>1475</v>
+      </c>
+      <c r="C18">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D18">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="E18">
+        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="F18">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="H18">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I18">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <f>Table13167[[#This Row],[Level]]*63-100</f>
+        <v>2105</v>
+      </c>
+      <c r="C19">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="D19">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="E19">
+        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="F19">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="H19">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I19">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <f>Table13167[[#This Row],[Level]]*63-100</f>
+        <v>6137</v>
+      </c>
+      <c r="C20">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>990</v>
+      </c>
+      <c r="D20">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>151.125</v>
+      </c>
+      <c r="E20">
+        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
+        <v>151.125</v>
+      </c>
+      <c r="F20">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="G20">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="H20">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I20">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>126.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f>Table1316717[[#This Row],[Level]]*63+100</f>
+        <v>163</v>
+      </c>
+      <c r="C27">
+        <f>Table1316717[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="E27">
+        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="F27">
+        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="H27">
+        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I27">
+        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <f>Table1316717[[#This Row],[Level]]*63+100</f>
+        <v>730</v>
+      </c>
+      <c r="C28">
+        <f>Table1316717[[#This Row],[Level]]*10</f>
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
+        <v>28.75</v>
+      </c>
+      <c r="E28">
+        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
+        <v>28.75</v>
+      </c>
+      <c r="F28">
+        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="H28">
+        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I28">
+        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <f>Table1316717[[#This Row],[Level]]*63+100</f>
+        <v>1675</v>
+      </c>
+      <c r="C29">
+        <f>Table1316717[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D29">
+        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="E29">
+        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="F29">
+        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="H29">
+        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I29">
+        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <f>Table1316717[[#This Row],[Level]]*63+100</f>
+        <v>2305</v>
+      </c>
+      <c r="C30">
+        <f>Table1316717[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="D30">
+        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="E30">
+        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="F30">
+        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="H30">
+        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I30">
+        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>99</v>
+      </c>
+      <c r="B31">
+        <f>Table1316717[[#This Row],[Level]]*63+100</f>
+        <v>6337</v>
+      </c>
+      <c r="C31">
+        <f>Table1316717[[#This Row],[Level]]*10</f>
+        <v>990</v>
+      </c>
+      <c r="D31">
+        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
+        <v>151.125</v>
+      </c>
+      <c r="E31">
+        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
+        <v>151.125</v>
+      </c>
+      <c r="F31">
+        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="G31">
+        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="H31">
+        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I31">
+        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
+        <v>126.375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
+        <v>256.5</v>
+      </c>
+      <c r="C37">
+        <f>Table13167173[[#This Row],[Level]]*12.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D37">
+        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+      <c r="G37">
+        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
+        <v>29.5</v>
+      </c>
+      <c r="H37">
+        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I37">
+        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
+        <v>56.375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
+        <v>765</v>
+      </c>
+      <c r="C38">
+        <f>Table13167173[[#This Row],[Level]]*12.5+100</f>
+        <v>225</v>
+      </c>
+      <c r="D38">
+        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
+        <v>39</v>
+      </c>
+      <c r="F38">
+        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
+        <v>26.25</v>
+      </c>
+      <c r="G38">
+        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I38">
+        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
+        <v>1612.5</v>
+      </c>
+      <c r="C39">
+        <f>Table13167173[[#This Row],[Level]]*12.5</f>
+        <v>312.5</v>
+      </c>
+      <c r="D39">
+        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
+        <v>54</v>
+      </c>
+      <c r="F39">
+        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+      <c r="G39">
+        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
+        <v>65.5</v>
+      </c>
+      <c r="H39">
+        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I39">
+        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
+        <v>89.375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
+        <v>2177.5</v>
+      </c>
+      <c r="C40">
+        <f>Table13167173[[#This Row],[Level]]*12.5</f>
+        <v>437.5</v>
+      </c>
+      <c r="D40">
+        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
+        <v>64</v>
+      </c>
+      <c r="F40">
+        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+      <c r="G40">
+        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
+        <v>80.5</v>
+      </c>
+      <c r="H40">
+        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I40">
+        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
+        <v>103.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
+        <v>1330</v>
+      </c>
+      <c r="C41">
+        <f>Table13167173[[#This Row],[Level]]*12.5</f>
+        <v>250</v>
+      </c>
+      <c r="D41">
+        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
+        <v>49</v>
+      </c>
+      <c r="F41">
+        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="G41">
+        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
+        <v>58</v>
+      </c>
+      <c r="H41">
+        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
+        <v>82.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="6" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
-    <sheet name="Zombie" sheetId="5" r:id="rId2"/>
-    <sheet name="SpiritPuppet" sheetId="6" r:id="rId3"/>
-    <sheet name="Acolyte" sheetId="7" r:id="rId4"/>
-    <sheet name="Death Knight" sheetId="8" r:id="rId5"/>
-    <sheet name="VillianCanson" sheetId="4" r:id="rId6"/>
-    <sheet name="Goblin" sheetId="2" r:id="rId7"/>
+    <sheet name="Skeleton Swordsman" sheetId="9" r:id="rId2"/>
+    <sheet name="Skeleton Mage" sheetId="10" r:id="rId3"/>
+    <sheet name="Zombie" sheetId="5" r:id="rId4"/>
+    <sheet name="SpiritPuppet" sheetId="6" r:id="rId5"/>
+    <sheet name="Acolyte" sheetId="7" r:id="rId6"/>
+    <sheet name="Death Knight" sheetId="8" r:id="rId7"/>
+    <sheet name="VillianCanson" sheetId="4" r:id="rId8"/>
+    <sheet name="Goblin" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="44">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -151,6 +153,18 @@
   <si>
     <t>They use a 2-handed faith light balanced armor: 40 Faith, 14/13</t>
   </si>
+  <si>
+    <t>Skeleton Swordsmans are a more advanced type of undead than skeleton soldiers</t>
+  </si>
+  <si>
+    <t>2handed sword: 40, Heavy iron plate -&gt; (no shield) 21/7</t>
+  </si>
+  <si>
+    <t>Skeleton mages are a high tier undead that are capable of gathering mana, an extreme rarity amongst golems. Important for logistics of an undead army</t>
+  </si>
+  <si>
+    <t>2handed staff: 40, Heavy iron plate -&gt; (no shield) 4/14</t>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +240,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="133">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1084,6 +1128,30 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1110,7 +1178,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="114">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="132">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1119,6 +1187,129 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0A2DAD7E-8DB8-432C-AD24-4A1116190AFC}" name="Table168" displayName="Table168" ref="A6:J7" totalsRowShown="0">
+  <autoFilter ref="A6:J7" xr:uid="{3F070465-048B-4A60-A5D6-289DD81841E3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{46422AF1-99B7-4965-8F6A-D256072E575C}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{0A71C80C-CA2E-4E72-9D93-350B3DA84447}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{DF6C3EB9-3A52-40CE-AC4E-B7F04A1EBB64}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{F31DDD26-7F37-4DBC-8236-79185692625B}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{34BB612C-EF90-4001-865D-C0BBE9DDE35C}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{3C2ED426-96C6-4371-9F06-FA42D5AE2877}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="98">
+      <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E50ECAD0-74A3-4ED4-B8F9-3CED6CCBE3D4}" name="Table13161013" displayName="Table13161013" ref="A9:I15" totalsRowShown="0">
+  <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="97">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="96">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="95">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="94">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="93">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="92">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="91">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="90">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{537551B7-B0FC-43E4-9401-043CCFC4A3B0}" name="Table13162015" displayName="Table13162015" ref="A4:I10" totalsRowShown="0">
+  <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="89">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="88">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="87">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="86">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="85">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="84">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="83">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="82">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F3CEF94F-0A77-45F7-9EF0-B6E7B4DA3B1F}" name="Table131618" displayName="Table131618" ref="A7:I12" totalsRowShown="0">
+  <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="81">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="80">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="79">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="78">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="77">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="76">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="75">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="74">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6BEAD6DA-F1CC-4DB1-9830-FAC45EABEE4E}" name="Table16821" displayName="Table16821" ref="A4:J5" totalsRowShown="0">
   <autoFilter ref="A4:J5" xr:uid="{0874E50B-9ED5-4CBB-94CE-FE34DD543476}"/>
   <tableColumns count="10">
@@ -1131,7 +1322,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="63">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="73">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1139,55 +1330,55 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="62" tableBorderDxfId="61">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="72" tableBorderDxfId="71">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="69">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="68">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="63"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BACB03CE-1DAD-4E5F-8D00-25D6D07FC945}" name="Table131620" displayName="Table131620" ref="A3:I9" totalsRowShown="0">
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="51">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="61">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="60">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="49">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="59">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="48">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="58">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="47">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="57">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="46">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="56">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="45">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="55">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="44">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="54">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1195,33 +1386,33 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="43" tableBorderDxfId="42">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="50">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="49">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="48">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="47">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="46">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="35">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="45">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="44">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="43">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1229,7 +1420,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DE335D90-A9BD-40A2-B9C7-73CA6E6CAB11}" name="Table15" displayName="Table15" ref="A4:J8" totalsRowShown="0">
   <autoFilter ref="A4:J8" xr:uid="{CE759384-ADAA-40BA-B9E0-40CE462A16EC}"/>
   <tableColumns count="10">
@@ -1242,7 +1433,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="32">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="42">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1250,136 +1441,34 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{11E951F1-5D13-41C6-A7E5-8F4298DA5463}" name="Table13167" displayName="Table13167" ref="A15:I20" totalsRowShown="0">
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="31">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="41">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="30">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="40">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="29">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="39">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="28">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="38">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="27">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="37">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="26">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="36">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="25">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="35">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="24">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="34">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60D4A7A8-82BF-4B58-A912-589523D22F05}" name="Table131679" displayName="Table131679" ref="K11:S17" totalsRowShown="0">
-  <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="23">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="22">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="21">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="20">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="19">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="18">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="17">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="16">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{57801F89-51BE-4BC1-9BA3-39DF9D564857}" name="Table1316717" displayName="Table1316717" ref="A26:I31" totalsRowShown="0">
-  <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="15">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="14">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="7">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="6">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="13">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="12">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="11">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="10">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6BE19079-7252-4251-9EA9-046E7A11042F}" name="Table13167173" displayName="Table13167173" ref="A36:I41" totalsRowShown="0">
-  <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="3">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="8">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="5">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="0">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="4">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="1">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="9">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="2">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1391,29 +1480,131 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="113">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="131">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="112">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="130">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="111">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="129">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="110">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="128">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="109">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="127">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="108">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="126">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="107">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="125">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="106">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="124">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60D4A7A8-82BF-4B58-A912-589523D22F05}" name="Table131679" displayName="Table131679" ref="K11:S17" totalsRowShown="0">
+  <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="33">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="32">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="31">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="30">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="29">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="28">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="27">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="26">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{57801F89-51BE-4BC1-9BA3-39DF9D564857}" name="Table1316717" displayName="Table1316717" ref="A26:I31" totalsRowShown="0">
+  <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="25">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="24">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="23">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="22">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="21">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="20">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="19">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="18">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6BE19079-7252-4251-9EA9-046E7A11042F}" name="Table13167173" displayName="Table13167173" ref="A36:I41" totalsRowShown="0">
+  <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="17">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="16">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="15">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="14">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="13">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="12">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="11">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="10">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1421,32 +1612,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7268DD6D-84F4-43D7-A05F-EB56AE11DFF7}" name="Table131611" displayName="Table131611" ref="K8:S13" totalsRowShown="0">
-  <autoFilter ref="K8:S13" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7268DD6D-84F4-43D7-A05F-EB56AE11DFF7}" name="Table131611" displayName="Table131611" ref="K8:S14" totalsRowShown="0">
+  <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="105">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="123">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="104">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="122">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="103">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="121">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="102">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="120">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="101">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="119">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="100">
-      <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="99">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="118">
+      <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="117">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="98">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="116">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1455,6 +1646,116 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FD9E665F-9A0B-404A-95E4-EDBB03CAF48D}" name="Table114" displayName="Table114" ref="A4:J5" totalsRowShown="0">
+  <autoFilter ref="A4:J5" xr:uid="{E9278F13-379F-448A-A51E-94066E7C03F7}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{5FC81D18-62EF-448A-9E55-8A9C52D43090}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{0E78CA4E-A74F-419A-9E47-7AE45C542639}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{95DB8F2F-7F57-4056-AD97-739982489212}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{EE075CA3-304F-4DCB-AB35-0B55B867F191}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{FD5AB016-A5A2-4D6F-B6CB-B99FE33534FF}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{C2B0F5C0-8020-4DE8-8CAF-E2EF237A54C7}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="115">
+      <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{244DE9F1-262D-4253-A743-41598B2E31D8}" name="Table13161123" displayName="Table13161123" ref="A8:I14" totalsRowShown="0">
+  <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="9">
+      <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="114">
+      <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="113">
+      <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="112">
+      <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="111">
+      <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="110">
+      <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="109">
+      <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="108">
+      <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C6DB90FA-47BB-4001-850B-2E17AF4D6004}" name="Table11412" displayName="Table11412" ref="A4:J5" totalsRowShown="0">
+  <autoFilter ref="A4:J5" xr:uid="{DFE1AD4A-B881-42F7-AAE6-39AE9A965177}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{E4B7B88D-C722-46AF-A0B0-1626D101562F}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{66DF6FD9-5382-4400-BDCD-999E4BAAD10E}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{51EB43B9-01BB-4061-9E8A-340E86516E96}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{C1B55568-DE47-4E09-8DF1-04C8D85529DC}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{B6CC6D9E-EACE-49C0-97AE-A601A0EC3165}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{2264D5A1-C893-4362-97B8-7E20FC5D2A58}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="8">
+      <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{004CE0C0-6517-463C-8F96-51BDA9C554B5}" name="Table1316112324" displayName="Table1316112324" ref="A8:I14" totalsRowShown="0">
+  <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="5">
+      <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="3">
+      <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="4">
+      <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="0">
+      <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="2">
+      <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="1">
+      <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="7">
+      <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="6">
+      <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{671A73B1-117F-4F40-B5B7-178F8355834B}" name="Table16" displayName="Table16" ref="A5:J6" totalsRowShown="0">
   <autoFilter ref="A5:J6" xr:uid="{6C0AACD2-FA3F-4094-92F8-D2B9E23D5ABC}"/>
   <tableColumns count="10">
@@ -1467,131 +1768,8 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="97">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="107">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0489A86C-0040-4142-8D05-11877F6AC5E6}" name="Table131610" displayName="Table131610" ref="A8:I13" totalsRowShown="0">
-  <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="96">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="95">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="94">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="93">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="92">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="91">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="90">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="89">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0A2DAD7E-8DB8-432C-AD24-4A1116190AFC}" name="Table168" displayName="Table168" ref="A6:J7" totalsRowShown="0">
-  <autoFilter ref="A6:J7" xr:uid="{3F070465-048B-4A60-A5D6-289DD81841E3}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{46422AF1-99B7-4965-8F6A-D256072E575C}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{0A71C80C-CA2E-4E72-9D93-350B3DA84447}" name="HP"/>
-    <tableColumn id="3" xr3:uid="{DF6C3EB9-3A52-40CE-AC4E-B7F04A1EBB64}" name="MP"/>
-    <tableColumn id="4" xr3:uid="{F31DDD26-7F37-4DBC-8236-79185692625B}" name="ATK"/>
-    <tableColumn id="5" xr3:uid="{34BB612C-EF90-4001-865D-C0BBE9DDE35C}" name="DEF"/>
-    <tableColumn id="6" xr3:uid="{3C2ED426-96C6-4371-9F06-FA42D5AE2877}" name="MAT"/>
-    <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
-    <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
-    <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="88">
-      <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E50ECAD0-74A3-4ED4-B8F9-3CED6CCBE3D4}" name="Table13161013" displayName="Table13161013" ref="A9:I14" totalsRowShown="0">
-  <autoFilter ref="A9:I14" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="87">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="86">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="85">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="84">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="83">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="82">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="81">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="80">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{537551B7-B0FC-43E4-9401-043CCFC4A3B0}" name="Table13162015" displayName="Table13162015" ref="A4:I10" totalsRowShown="0">
-  <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="79">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="78">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="77">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="76">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="75">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="74">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="73">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="72">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1599,33 +1777,33 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F3CEF94F-0A77-45F7-9EF0-B6E7B4DA3B1F}" name="Table131618" displayName="Table131618" ref="A7:I12" totalsRowShown="0">
-  <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0489A86C-0040-4142-8D05-11877F6AC5E6}" name="Table131610" displayName="Table131610" ref="A8:I13" totalsRowShown="0">
+  <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="71">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="70">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="69">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="68">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="67">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="66">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="65">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="64">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="106">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="105">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="104">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="103">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="102">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="101">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="100">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="99">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1929,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7AABB-3532-4A29-877B-ED130C7A9042}">
-  <dimension ref="A2:S13"/>
+  <dimension ref="A2:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,8 +2316,8 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <f>Table131611[[#This Row],[Level]]*1</f>
-        <v>1</v>
+        <f>Table131611[[#This Row],[Level]]*1+15</f>
+        <v>16</v>
       </c>
       <c r="R9">
         <f>Table131611[[#This Row],[Level]]*1 + 15</f>
@@ -2210,8 +2388,8 @@
         <v>10</v>
       </c>
       <c r="Q10">
-        <f>Table131611[[#This Row],[Level]]*1</f>
-        <v>10</v>
+        <f>Table131611[[#This Row],[Level]]*1+15</f>
+        <v>25</v>
       </c>
       <c r="R10">
         <f>Table131611[[#This Row],[Level]]*1 + 15</f>
@@ -2282,8 +2460,8 @@
         <v>25</v>
       </c>
       <c r="Q11">
-        <f>Table131611[[#This Row],[Level]]*1</f>
-        <v>25</v>
+        <f>Table131611[[#This Row],[Level]]*1+15</f>
+        <v>40</v>
       </c>
       <c r="R11">
         <f>Table131611[[#This Row],[Level]]*1 + 15</f>
@@ -2354,8 +2532,8 @@
         <v>35</v>
       </c>
       <c r="Q12">
-        <f>Table131611[[#This Row],[Level]]*1</f>
-        <v>35</v>
+        <f>Table131611[[#This Row],[Level]]*1+15</f>
+        <v>50</v>
       </c>
       <c r="R12">
         <f>Table131611[[#This Row],[Level]]*1 + 15</f>
@@ -2426,8 +2604,8 @@
         <v>99</v>
       </c>
       <c r="Q13">
-        <f>Table131611[[#This Row],[Level]]*1</f>
-        <v>99</v>
+        <f>Table131611[[#This Row],[Level]]*1+15</f>
+        <v>114</v>
       </c>
       <c r="R13">
         <f>Table131611[[#This Row],[Level]]*1 + 15</f>
@@ -2436,6 +2614,43 @@
       <c r="S13">
         <f>Table131611[[#This Row],[Level]]*1</f>
         <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1">
+        <f>Table131611[[#This Row],[Level]]*56.25+200</f>
+        <v>1043.75</v>
+      </c>
+      <c r="M14" s="1">
+        <f>Table131611[[#This Row],[Level]]*10</f>
+        <v>150</v>
+      </c>
+      <c r="N14" s="1">
+        <f>Table131611[[#This Row],[Level]]*1.25+ 15+30</f>
+        <v>63.75</v>
+      </c>
+      <c r="O14" s="1">
+        <f>Table131611[[#This Row],[Level]]*1.25 + 15+33</f>
+        <v>66.75</v>
+      </c>
+      <c r="P14" s="1">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>15</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>Table131611[[#This Row],[Level]]*1+15</f>
+        <v>30</v>
+      </c>
+      <c r="R14" s="1">
+        <f>Table131611[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="S14" s="1">
+        <f>Table131611[[#This Row],[Level]]*1</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2449,6 +2664,696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DFDAFD-5CD5-4F03-8B08-1FCB08CB3DEC}">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Table114[[#This Row],[HP]:[LUK]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>Table13161123[[#This Row],[Level]]*63+300</f>
+        <v>363</v>
+      </c>
+      <c r="C9">
+        <f>Table13161123[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f>Table13161123[[#This Row],[Level]]*1.5+ 15+40</f>
+        <v>56.5</v>
+      </c>
+      <c r="E9">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15+21</f>
+        <v>37.25</v>
+      </c>
+      <c r="F9">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>Table13161123[[#This Row],[Level]]*1.25+15 + 7</f>
+        <v>23.25</v>
+      </c>
+      <c r="H9">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I9">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>Table13161123[[#This Row],[Level]]*63+300</f>
+        <v>930</v>
+      </c>
+      <c r="C10">
+        <f>Table13161123[[#This Row],[Level]]*10</f>
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f>Table13161123[[#This Row],[Level]]*1.5+ 15+40</f>
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15+21</f>
+        <v>48.5</v>
+      </c>
+      <c r="F10">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>Table13161123[[#This Row],[Level]]*1.25+15 + 7</f>
+        <v>34.5</v>
+      </c>
+      <c r="H10">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I10">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <f>Table13161123[[#This Row],[Level]]*63+300</f>
+        <v>1875</v>
+      </c>
+      <c r="C11">
+        <f>Table13161123[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <f>Table13161123[[#This Row],[Level]]*1.5+ 15+40</f>
+        <v>92.5</v>
+      </c>
+      <c r="E11">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15+21</f>
+        <v>67.25</v>
+      </c>
+      <c r="F11">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <f>Table13161123[[#This Row],[Level]]*1.25+15 + 7</f>
+        <v>53.25</v>
+      </c>
+      <c r="H11">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I11">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <f>Table13161123[[#This Row],[Level]]*63+300</f>
+        <v>2505</v>
+      </c>
+      <c r="C12">
+        <f>Table13161123[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="D12">
+        <f>Table13161123[[#This Row],[Level]]*1.5+ 15+40</f>
+        <v>107.5</v>
+      </c>
+      <c r="E12">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15+21</f>
+        <v>79.75</v>
+      </c>
+      <c r="F12">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <f>Table13161123[[#This Row],[Level]]*1.25+15 + 7</f>
+        <v>65.75</v>
+      </c>
+      <c r="H12">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I12">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="B13">
+        <f>Table13161123[[#This Row],[Level]]*63+300</f>
+        <v>6537</v>
+      </c>
+      <c r="C13">
+        <f>Table13161123[[#This Row],[Level]]*10</f>
+        <v>990</v>
+      </c>
+      <c r="D13">
+        <f>Table13161123[[#This Row],[Level]]*1.5+ 15+40</f>
+        <v>203.5</v>
+      </c>
+      <c r="E13">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15+21</f>
+        <v>159.75</v>
+      </c>
+      <c r="F13">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>99</v>
+      </c>
+      <c r="G13">
+        <f>Table13161123[[#This Row],[Level]]*1.25+15 + 7</f>
+        <v>145.75</v>
+      </c>
+      <c r="H13">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I13">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <f>Table13161123[[#This Row],[Level]]*63+300</f>
+        <v>1245</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Table13161123[[#This Row],[Level]]*10</f>
+        <v>150</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Table13161123[[#This Row],[Level]]*1.5+ 15+40</f>
+        <v>77.5</v>
+      </c>
+      <c r="E14" s="1">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15+21</f>
+        <v>54.75</v>
+      </c>
+      <c r="F14" s="1">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Table13161123[[#This Row],[Level]]*1.25+15 + 7</f>
+        <v>40.75</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Table13161123[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="I14" s="1">
+        <f>Table13161123[[#This Row],[Level]]*1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63963E77-5E81-4490-B187-3082B2132C5A}">
+  <dimension ref="A3:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Table11412[[#This Row],[HP]:[LUK]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>Table1316112324[[#This Row],[Level]]*50 + 100</f>
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <f>Table1316112324[[#This Row],[Level]]*13.75 + 80</f>
+        <v>93.75</v>
+      </c>
+      <c r="D9">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</f>
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <f>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>56.5</v>
+      </c>
+      <c r="G9">
+        <f>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</f>
+        <v>30.375</v>
+      </c>
+      <c r="H9">
+        <f>Table1316112324[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I9">
+        <f>Table1316112324[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>Table1316112324[[#This Row],[Level]]*50 + 100</f>
+        <v>600</v>
+      </c>
+      <c r="C10">
+        <f>Table1316112324[[#This Row],[Level]]*13.75 + 80</f>
+        <v>217.5</v>
+      </c>
+      <c r="D10">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</f>
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <f>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <f>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</f>
+        <v>42.75</v>
+      </c>
+      <c r="H10">
+        <f>Table1316112324[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I10">
+        <f>Table1316112324[[#This Row],[Level]]*1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <f>Table1316112324[[#This Row],[Level]]*50 + 100</f>
+        <v>1350</v>
+      </c>
+      <c r="C11">
+        <f>Table1316112324[[#This Row],[Level]]*13.75 + 80</f>
+        <v>423.75</v>
+      </c>
+      <c r="D11">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</f>
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <f>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>92.5</v>
+      </c>
+      <c r="G11">
+        <f>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</f>
+        <v>63.375</v>
+      </c>
+      <c r="H11">
+        <f>Table1316112324[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I11">
+        <f>Table1316112324[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <f>Table1316112324[[#This Row],[Level]]*50 + 100</f>
+        <v>1850</v>
+      </c>
+      <c r="C12">
+        <f>Table1316112324[[#This Row],[Level]]*13.75 + 80</f>
+        <v>561.25</v>
+      </c>
+      <c r="D12">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</f>
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <f>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>107.5</v>
+      </c>
+      <c r="G12">
+        <f>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</f>
+        <v>77.125</v>
+      </c>
+      <c r="H12">
+        <f>Table1316112324[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I12">
+        <f>Table1316112324[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="B13">
+        <f>Table1316112324[[#This Row],[Level]]*50 + 100</f>
+        <v>5050</v>
+      </c>
+      <c r="C13">
+        <f>Table1316112324[[#This Row],[Level]]*13.75 + 80</f>
+        <v>1441.25</v>
+      </c>
+      <c r="D13">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="E13">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</f>
+        <v>118</v>
+      </c>
+      <c r="F13">
+        <f>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>203.5</v>
+      </c>
+      <c r="G13">
+        <f>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</f>
+        <v>165.125</v>
+      </c>
+      <c r="H13">
+        <f>Table1316112324[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I13">
+        <f>Table1316112324[[#This Row],[Level]]*1</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <f>Table1316112324[[#This Row],[Level]]*50 + 100</f>
+        <v>850</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Table1316112324[[#This Row],[Level]]*13.75 + 80</f>
+        <v>286.25</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="E14" s="1">
+        <f>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</f>
+        <v>34</v>
+      </c>
+      <c r="F14" s="1">
+        <f>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>77.5</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</f>
+        <v>49.625</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Table1316112324[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="I14" s="1">
+        <f>Table1316112324[[#This Row],[Level]]*1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB1284-A899-416A-A581-E0E1F5719020}">
   <dimension ref="A2:J13"/>
   <sheetViews>
@@ -2756,12 +3661,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9807F697-48C3-4A93-87DF-719DC89F6DFD}">
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,6 +3963,43 @@
       <c r="I14">
         <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
         <v>163.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <f>Table13161013[[#This Row],[Level]]*56.25-100</f>
+        <v>743.75</v>
+      </c>
+      <c r="C15" s="1">
+        <f>Table13161013[[#This Row],[Level]]*10+20</f>
+        <v>170</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Table13161013[[#This Row],[Level]]*1+ 15</f>
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <f>Table13161013[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="F15" s="1">
+        <f>Table13161013[[#This Row],[Level]]*1.375+15</f>
+        <v>35.625</v>
+      </c>
+      <c r="G15" s="1">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
+        <v>37.5</v>
+      </c>
+      <c r="H15" s="1">
+        <f>Table13161013[[#This Row],[Level]]*1.125 + 15</f>
+        <v>31.875</v>
+      </c>
+      <c r="I15" s="1">
+        <f>Table13161013[[#This Row],[Level]]*1.5+15</f>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
@@ -3069,7 +4011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA7AE8E-3CBD-43D4-8334-3506A3BDF6FA}">
   <dimension ref="A2:I13"/>
   <sheetViews>
@@ -3353,12 +4295,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CE9C02-0686-4D94-800E-4766BA124417}">
   <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3722,7 +4664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED846686-A238-4174-849F-9F6770BD1F9B}">
   <dimension ref="A1:T9"/>
   <sheetViews>
@@ -4068,12 +5010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4195E475-9F10-4DD8-82F0-E47D9A595A6E}">
   <dimension ref="A2:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,18 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="7" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
     <sheet name="Skeleton Swordsman" sheetId="9" r:id="rId2"/>
     <sheet name="Skeleton Mage" sheetId="10" r:id="rId3"/>
-    <sheet name="Zombie" sheetId="5" r:id="rId4"/>
-    <sheet name="SpiritPuppet" sheetId="6" r:id="rId5"/>
-    <sheet name="Acolyte" sheetId="7" r:id="rId6"/>
-    <sheet name="Death Knight" sheetId="8" r:id="rId7"/>
-    <sheet name="VillianCanson" sheetId="4" r:id="rId8"/>
-    <sheet name="Goblin" sheetId="2" r:id="rId9"/>
+    <sheet name="Skeleton Priest" sheetId="11" r:id="rId4"/>
+    <sheet name="Zombie" sheetId="5" r:id="rId5"/>
+    <sheet name="SpiritPuppet" sheetId="6" r:id="rId6"/>
+    <sheet name="Bounded Lesser Wind Spirit" sheetId="13" r:id="rId7"/>
+    <sheet name="Bounded Wind Spirit" sheetId="14" r:id="rId8"/>
+    <sheet name="Acolyte" sheetId="7" r:id="rId9"/>
+    <sheet name="Death Knight" sheetId="8" r:id="rId10"/>
+    <sheet name="VillianCanson" sheetId="4" r:id="rId11"/>
+    <sheet name="Goblin" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="53">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -163,7 +166,34 @@
     <t>Skeleton mages are a high tier undead that are capable of gathering mana, an extreme rarity amongst golems. Important for logistics of an undead army</t>
   </si>
   <si>
-    <t>2handed staff: 40, Heavy iron plate -&gt; (no shield) 4/14</t>
+    <t>Skeleton Priest</t>
+  </si>
+  <si>
+    <t>2handed staff: 40, engraved robes -&gt; (no shield) 4/14</t>
+  </si>
+  <si>
+    <t>2handed hammer: 40, iron mail -&gt; (no shield) 19/5</t>
+  </si>
+  <si>
+    <t>Bounded spirit. A corrupted version of a summoned spirit.</t>
+  </si>
+  <si>
+    <t>Weak to fire and light</t>
+  </si>
+  <si>
+    <t>Bounded Spirit</t>
+  </si>
+  <si>
+    <t>20ATK/20LUK 12/11 def</t>
+  </si>
+  <si>
+    <t>A  wind spirit</t>
+  </si>
+  <si>
+    <t>Weak to fire (natural) and light (corruption)</t>
+  </si>
+  <si>
+    <t>Bounded Wind Spirit</t>
   </si>
 </sst>
 </file>
@@ -240,10 +270,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="133">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="160">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1152,6 +1179,90 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1178,7 +1289,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="132">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="159">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1187,6 +1298,61 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{671A73B1-117F-4F40-B5B7-178F8355834B}" name="Table16" displayName="Table16" ref="A5:J6" totalsRowShown="0">
+  <autoFilter ref="A5:J6" xr:uid="{6C0AACD2-FA3F-4094-92F8-D2B9E23D5ABC}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{58197158-FD57-4F30-A650-67B2263D3800}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{F44FE952-D7BA-4DB1-836A-DD3B50D3F9E3}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{579A554D-FD3C-4BB1-9D51-8697075641A3}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{13D9B90B-E0BA-4850-A6F0-8F28FD71DDCB}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{0217E9E2-E13B-40B7-9079-429225374577}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{72ED865C-9977-41E9-BA4A-7DFB0D0A6048}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="115">
+      <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0489A86C-0040-4142-8D05-11877F6AC5E6}" name="Table131610" displayName="Table131610" ref="A8:I13" totalsRowShown="0">
+  <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="114">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="113">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="112">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="111">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="110">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="109">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="108">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="107">
+      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0A2DAD7E-8DB8-432C-AD24-4A1116190AFC}" name="Table168" displayName="Table168" ref="A6:J7" totalsRowShown="0">
   <autoFilter ref="A6:J7" xr:uid="{3F070465-048B-4A60-A5D6-289DD81841E3}"/>
   <tableColumns count="10">
@@ -1199,76 +1365,8 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="98">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="106">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E50ECAD0-74A3-4ED4-B8F9-3CED6CCBE3D4}" name="Table13161013" displayName="Table13161013" ref="A9:I15" totalsRowShown="0">
-  <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="97">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="96">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="95">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="94">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="93">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="92">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="91">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="90">
-      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{537551B7-B0FC-43E4-9401-043CCFC4A3B0}" name="Table13162015" displayName="Table13162015" ref="A4:I10" totalsRowShown="0">
-  <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="89">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="88">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="87">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="86">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="85">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="84">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="83">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="82">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1276,33 +1374,33 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F3CEF94F-0A77-45F7-9EF0-B6E7B4DA3B1F}" name="Table131618" displayName="Table131618" ref="A7:I12" totalsRowShown="0">
-  <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E50ECAD0-74A3-4ED4-B8F9-3CED6CCBE3D4}" name="Table13161013" displayName="Table13161013" ref="A9:I15" totalsRowShown="0">
+  <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="81">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="80">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="79">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="78">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="77">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="76">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="75">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="74">
-      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="105">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="104">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="103">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="102">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="101">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="100">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="99">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="98">
+      <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1310,6 +1408,218 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{5BE20D8E-2365-4FB0-876D-0A68389AD467}" name="Table16826" displayName="Table16826" ref="A4:J5" totalsRowShown="0">
+  <autoFilter ref="A4:J5" xr:uid="{F08EE89F-6614-49AE-B6BC-FA6BCB068F0F}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{8367FABB-741F-4BB2-87DB-41BC5AC70FBD}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{2B9E4BEA-0C10-4177-9141-0B71CF7FE35E}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{F2F12A8B-A29B-42B1-A8E4-38304BAEDB88}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{20554458-B2FF-4B90-B78C-F0422DC26430}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{5C0D12C0-B1FF-46EB-A183-52161051F3DE}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{84149386-6F2A-4964-80D2-7E403FC213A3}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="97">
+      <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{D84F3977-BD60-45B7-A8E0-43278D2A35F6}" name="Table1316101328" displayName="Table1316101328" ref="A8:I14" totalsRowShown="0">
+  <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="96">
+      <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="95">
+      <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="94">
+      <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="93">
+      <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="92">
+      <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="91">
+      <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="90">
+      <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="89">
+      <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{731AA9B2-A6D9-4F07-91DC-487E972F8B3A}" name="Table1682630" displayName="Table1682630" ref="A4:J5" totalsRowShown="0">
+  <autoFilter ref="A4:J5" xr:uid="{E4EB65B5-9C38-49EF-9DA3-E1D26B98560B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{93E59A2D-05DC-46A5-8717-462BA7AA04CF}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{252E1B9F-55D2-4063-9232-348AE5BDBE45}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{E859BE70-0FEB-40AF-A389-BF0EF5F86A0B}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{EBB68D4F-AC26-4FBC-A620-D13E10596067}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{013A2773-8934-4B69-8FB9-94B879FEFCEE}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{8AC61086-853E-48E6-B66B-41292C87AEA2}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="8">
+      <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{AFF2D852-F236-4D7D-8C04-D0C2FFFF0EA8}" name="Table131610132831" displayName="Table131610132831" ref="A8:I14" totalsRowShown="0">
+  <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="2">
+      <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="7">
+      <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="1">
+      <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="6">
+      <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="5">
+      <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="4">
+      <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="0">
+      <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="3">
+      <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{537551B7-B0FC-43E4-9401-043CCFC4A3B0}" name="Table13162015" displayName="Table13162015" ref="A4:I10" totalsRowShown="0">
+  <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="88">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="87">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="86">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="85">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="84">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="83">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="82">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="81">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F3CEF94F-0A77-45F7-9EF0-B6E7B4DA3B1F}" name="Table131618" displayName="Table131618" ref="A7:I12" totalsRowShown="0">
+  <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="80">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="79">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="78">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="77">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="76">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="75">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="74">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="73">
+      <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2433AB34-7466-42C0-850C-3337B9BEB6B5}" name="Table1316" displayName="Table1316" ref="A8:I13" totalsRowShown="0">
+  <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="158">
+      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="157">
+      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="156">
+      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="155">
+      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="154">
+      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="153">
+      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="152">
+      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="151">
+      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6BEAD6DA-F1CC-4DB1-9830-FAC45EABEE4E}" name="Table16821" displayName="Table16821" ref="A4:J5" totalsRowShown="0">
   <autoFilter ref="A4:J5" xr:uid="{0874E50B-9ED5-4CBB-94CE-FE34DD543476}"/>
   <tableColumns count="10">
@@ -1322,7 +1632,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="73">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="72">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1330,55 +1640,55 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="72" tableBorderDxfId="71">
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="71" tableBorderDxfId="70">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="68">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="68">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="67">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BACB03CE-1DAD-4E5F-8D00-25D6D07FC945}" name="Table131620" displayName="Table131620" ref="A3:I9" totalsRowShown="0">
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="60">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="59">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="58">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="57">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="57">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="56">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="56">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="55">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="55">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="54">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="54">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="53">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1386,33 +1696,33 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="53" tableBorderDxfId="52">
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="49">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="49">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="48">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="48">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="47">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="46">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="46">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="45">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="45">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="44">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="44">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="43">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="43">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="42">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1420,7 +1730,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DE335D90-A9BD-40A2-B9C7-73CA6E6CAB11}" name="Table15" displayName="Table15" ref="A4:J8" totalsRowShown="0">
   <autoFilter ref="A4:J8" xr:uid="{CE759384-ADAA-40BA-B9E0-40CE462A16EC}"/>
   <tableColumns count="10">
@@ -1433,7 +1743,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="42">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="41">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1441,33 +1751,33 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{11E951F1-5D13-41C6-A7E5-8F4298DA5463}" name="Table13167" displayName="Table13167" ref="A15:I20" totalsRowShown="0">
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="41">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="40">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="39">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="39">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="38">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="38">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="37">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="37">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="36">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="35">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="35">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="34">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="34">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="33">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1475,135 +1785,101 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2433AB34-7466-42C0-850C-3337B9BEB6B5}" name="Table1316" displayName="Table1316" ref="A8:I13" totalsRowShown="0">
-  <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60D4A7A8-82BF-4B58-A912-589523D22F05}" name="Table131679" displayName="Table131679" ref="K11:S17" totalsRowShown="0">
+  <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="131">
-      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="130">
-      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="129">
-      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="128">
-      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="127">
-      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="126">
-      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="125">
-      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="124">
-      <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="32">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="31">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="30">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="29">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="28">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="27">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="26">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="25">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60D4A7A8-82BF-4B58-A912-589523D22F05}" name="Table131679" displayName="Table131679" ref="K11:S17" totalsRowShown="0">
-  <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{57801F89-51BE-4BC1-9BA3-39DF9D564857}" name="Table1316717" displayName="Table1316717" ref="A26:I31" totalsRowShown="0">
+  <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="33">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="32">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="31">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="30">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="29">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="28">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="27">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="26">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="24">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="23">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="22">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="21">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="20">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="19">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="18">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="17">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{57801F89-51BE-4BC1-9BA3-39DF9D564857}" name="Table1316717" displayName="Table1316717" ref="A26:I31" totalsRowShown="0">
-  <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="25">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="24">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="23">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="22">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="21">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="20">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="19">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="18">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6BE19079-7252-4251-9EA9-046E7A11042F}" name="Table13167173" displayName="Table13167173" ref="A36:I41" totalsRowShown="0">
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="16">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="15">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="14">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="13">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="12">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="11">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="10">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="9">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1616,28 +1892,28 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="123">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="150">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="122">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="149">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="121">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="148">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="120">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="147">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="119">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="146">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="118">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="145">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="117">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="144">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="116">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="143">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1658,7 +1934,7 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="115">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="142">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1671,28 +1947,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="141">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="114">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="140">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="113">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="139">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="112">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="138">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="111">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="137">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="110">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="136">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="109">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="135">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="108">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="134">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1713,7 +1989,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="133">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1726,28 +2002,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="132">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="131">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="130">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="129">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="128">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="127">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="126">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="125">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1756,20 +2032,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{671A73B1-117F-4F40-B5B7-178F8355834B}" name="Table16" displayName="Table16" ref="A5:J6" totalsRowShown="0">
-  <autoFilter ref="A5:J6" xr:uid="{6C0AACD2-FA3F-4094-92F8-D2B9E23D5ABC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{7EBF5F99-EB8E-4DAA-93AD-7B86915BB72D}" name="Table1141219" displayName="Table1141219" ref="A3:J4" totalsRowShown="0">
+  <autoFilter ref="A3:J4" xr:uid="{783DED92-507B-4C4B-A718-3C354B059EAD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{58197158-FD57-4F30-A650-67B2263D3800}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{F44FE952-D7BA-4DB1-836A-DD3B50D3F9E3}" name="HP"/>
-    <tableColumn id="3" xr3:uid="{579A554D-FD3C-4BB1-9D51-8697075641A3}" name="MP"/>
-    <tableColumn id="4" xr3:uid="{13D9B90B-E0BA-4850-A6F0-8F28FD71DDCB}" name="ATK"/>
-    <tableColumn id="5" xr3:uid="{0217E9E2-E13B-40B7-9079-429225374577}" name="DEF"/>
-    <tableColumn id="6" xr3:uid="{72ED865C-9977-41E9-BA4A-7DFB0D0A6048}" name="MAT"/>
-    <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
-    <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
-    <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="107">
-      <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{0B7BA6E1-58E1-4B4D-BF79-E503BA2B346E}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{027B9311-5519-42B6-BF00-23016BA8C4BE}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{6D1F6EE3-7339-4798-BBE7-A5C5389E4192}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{CBFDDC5F-49CD-49BA-838A-6432DC330DAA}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{7B4300A8-BC1C-4721-BEFC-A5BB90A6D01A}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{41F675DE-92A3-4EE0-97A6-467C7E4D0591}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="124">
+      <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1777,33 +2053,33 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0489A86C-0040-4142-8D05-11877F6AC5E6}" name="Table131610" displayName="Table131610" ref="A8:I13" totalsRowShown="0">
-  <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{E6981CAF-67FE-4C6C-8978-BAFE0986F524}" name="Table131611232425" displayName="Table131611232425" ref="A7:I13" totalsRowShown="0">
+  <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="106">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="105">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="104">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="103">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="102">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="101">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="100">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="99">
-      <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="123">
+      <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="122">
+      <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="121">
+      <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="120">
+      <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="119">
+      <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="118">
+      <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="117">
+      <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="116">
+      <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2663,6 +2939,1825 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CE9C02-0686-4D94-800E-4766BA124417}">
+  <dimension ref="A2:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Table16821[[#This Row],[HP]:[LUK]])</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
+        <v>575</v>
+      </c>
+      <c r="C8">
+        <f>Table131618[[#This Row],[Level]]*10+20</f>
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="E8">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="F8">
+        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="H8">
+        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="I8">
+        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
+        <v>1625</v>
+      </c>
+      <c r="C9">
+        <f>Table131618[[#This Row],[Level]]*10+20</f>
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="E9">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="F9">
+        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="H9">
+        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
+        <v>35.625</v>
+      </c>
+      <c r="I9">
+        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
+        <v>2375</v>
+      </c>
+      <c r="C10">
+        <f>Table131618[[#This Row],[Level]]*10+20</f>
+        <v>270</v>
+      </c>
+      <c r="D10">
+        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="E10">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="F10">
+        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="H10">
+        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="I10">
+        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
+        <v>3125</v>
+      </c>
+      <c r="C11">
+        <f>Table131618[[#This Row],[Level]]*10+20</f>
+        <v>370</v>
+      </c>
+      <c r="D11">
+        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="E11">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="F11">
+        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="H11">
+        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="I11">
+        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <f>Table131618[[#This Row],[Level]]*10+20</f>
+        <v>220</v>
+      </c>
+      <c r="D12">
+        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
+        <v>42.5</v>
+      </c>
+      <c r="I12">
+        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <f>Table1922[Level]*75 + 500</f>
+        <v>2000</v>
+      </c>
+      <c r="C16" s="3">
+        <f>Table1922[[#This Row],[Level]]*10 + 20</f>
+        <v>220</v>
+      </c>
+      <c r="D16" s="3">
+        <v>75</v>
+      </c>
+      <c r="E16" s="3">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3">
+        <v>35</v>
+      </c>
+      <c r="G16" s="3">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3">
+        <v>42.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>37.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED846686-A238-4174-849F-9F6770BD1F9B}">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="G4">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="H4">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I4">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3">
+        <f>Table19[Level]*50 + 100</f>
+        <v>1100</v>
+      </c>
+      <c r="N4" s="3">
+        <f>Table19[[#This Row],[Level]]*15+100</f>
+        <v>400</v>
+      </c>
+      <c r="O4" s="3">
+        <f>Table19[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="P4" s="3">
+        <f>Table19[[#This Row],[Level]]*1 + 15 + 6</f>
+        <v>41</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>85</v>
+      </c>
+      <c r="R4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 12</f>
+        <v>57</v>
+      </c>
+      <c r="S4" s="3">
+        <f>Table19[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="T4" s="4">
+        <f>Table19[Level] + 15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>850</v>
+      </c>
+      <c r="C5">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>325</v>
+      </c>
+      <c r="D5">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="G5">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="H5">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="I5">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1350</v>
+      </c>
+      <c r="C6">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>475</v>
+      </c>
+      <c r="D6">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="G6">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="H6">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I6">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1850</v>
+      </c>
+      <c r="C7">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>625</v>
+      </c>
+      <c r="D7">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="G7">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="H7">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I7">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>5050</v>
+      </c>
+      <c r="C8">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>1585</v>
+      </c>
+      <c r="D8">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>114</v>
+      </c>
+      <c r="E8">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="G8">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>163.5</v>
+      </c>
+      <c r="H8">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I8">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
+        <v>1100</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Table131620[[#This Row],[Level]]*15+100</f>
+        <v>400</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I9" s="1">
+        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4195E475-9F10-4DD8-82F0-E47D9A595A6E}">
+  <dimension ref="A2:S41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>156.25</v>
+      </c>
+      <c r="M12">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>41.375</v>
+      </c>
+      <c r="O12">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>26.25</v>
+      </c>
+      <c r="P12">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="Q12">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>24.25</v>
+      </c>
+      <c r="R12">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>21.5</v>
+      </c>
+      <c r="S12">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>662.5</v>
+      </c>
+      <c r="M13">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>53.75</v>
+      </c>
+      <c r="O13">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>37.5</v>
+      </c>
+      <c r="P13">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>35.5</v>
+      </c>
+      <c r="R13">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>35</v>
+      </c>
+      <c r="S13">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>1506.25</v>
+      </c>
+      <c r="M14">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="N14">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>74.375</v>
+      </c>
+      <c r="O14">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>56.25</v>
+      </c>
+      <c r="P14">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="Q14">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>54.25</v>
+      </c>
+      <c r="R14">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>57.5</v>
+      </c>
+      <c r="S14">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>35</v>
+      </c>
+      <c r="L15">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>2068.75</v>
+      </c>
+      <c r="M15">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="N15">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>88.125</v>
+      </c>
+      <c r="O15">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>68.75</v>
+      </c>
+      <c r="P15">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="Q15">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>66.75</v>
+      </c>
+      <c r="R15">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>72.5</v>
+      </c>
+      <c r="S15">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f>Table13167[[#This Row],[Level]]*63-100</f>
+        <v>-37</v>
+      </c>
+      <c r="C16">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="E16">
+        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="F16">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="H16">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I16">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+      <c r="K16">
+        <v>99</v>
+      </c>
+      <c r="L16">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>5668.75</v>
+      </c>
+      <c r="M16">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>990</v>
+      </c>
+      <c r="N16">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>176.125</v>
+      </c>
+      <c r="O16">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>148.75</v>
+      </c>
+      <c r="P16">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="Q16">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>146.75</v>
+      </c>
+      <c r="R16">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>168.5</v>
+      </c>
+      <c r="S16">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>126.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>Table13167[[#This Row],[Level]]*63</f>
+        <v>630</v>
+      </c>
+      <c r="C17">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>28.75</v>
+      </c>
+      <c r="E17">
+        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
+        <v>28.75</v>
+      </c>
+      <c r="F17">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="H17">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I17">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>26.25</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
+        <v>268.75</v>
+      </c>
+      <c r="M17" s="1">
+        <f>Table131679[[#This Row],[Level]]*10</f>
+        <v>30</v>
+      </c>
+      <c r="N17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
+        <v>44.125</v>
+      </c>
+      <c r="O17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
+        <v>28.75</v>
+      </c>
+      <c r="P17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
+        <v>18</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
+        <v>26.75</v>
+      </c>
+      <c r="R17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
+        <v>24.5</v>
+      </c>
+      <c r="S17" s="1">
+        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
+        <v>18.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <f>Table13167[[#This Row],[Level]]*63-100</f>
+        <v>1475</v>
+      </c>
+      <c r="C18">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D18">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="E18">
+        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="F18">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="H18">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I18">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <f>Table13167[[#This Row],[Level]]*63-100</f>
+        <v>2105</v>
+      </c>
+      <c r="C19">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="D19">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="E19">
+        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="F19">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="H19">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I19">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <f>Table13167[[#This Row],[Level]]*63-100</f>
+        <v>6137</v>
+      </c>
+      <c r="C20">
+        <f>Table13167[[#This Row],[Level]]*10</f>
+        <v>990</v>
+      </c>
+      <c r="D20">
+        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
+        <v>151.125</v>
+      </c>
+      <c r="E20">
+        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
+        <v>151.125</v>
+      </c>
+      <c r="F20">
+        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="G20">
+        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="H20">
+        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I20">
+        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
+        <v>126.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f>Table1316717[[#This Row],[Level]]*63+100</f>
+        <v>163</v>
+      </c>
+      <c r="C27">
+        <f>Table1316717[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="E27">
+        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="F27">
+        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="H27">
+        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I27">
+        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <f>Table1316717[[#This Row],[Level]]*63+100</f>
+        <v>730</v>
+      </c>
+      <c r="C28">
+        <f>Table1316717[[#This Row],[Level]]*10</f>
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
+        <v>28.75</v>
+      </c>
+      <c r="E28">
+        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
+        <v>28.75</v>
+      </c>
+      <c r="F28">
+        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="H28">
+        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I28">
+        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <f>Table1316717[[#This Row],[Level]]*63+100</f>
+        <v>1675</v>
+      </c>
+      <c r="C29">
+        <f>Table1316717[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D29">
+        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="E29">
+        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="F29">
+        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="H29">
+        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I29">
+        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <f>Table1316717[[#This Row],[Level]]*63+100</f>
+        <v>2305</v>
+      </c>
+      <c r="C30">
+        <f>Table1316717[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="D30">
+        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="E30">
+        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="F30">
+        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="H30">
+        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I30">
+        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>99</v>
+      </c>
+      <c r="B31">
+        <f>Table1316717[[#This Row],[Level]]*63+100</f>
+        <v>6337</v>
+      </c>
+      <c r="C31">
+        <f>Table1316717[[#This Row],[Level]]*10</f>
+        <v>990</v>
+      </c>
+      <c r="D31">
+        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
+        <v>151.125</v>
+      </c>
+      <c r="E31">
+        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
+        <v>151.125</v>
+      </c>
+      <c r="F31">
+        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="G31">
+        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="H31">
+        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I31">
+        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
+        <v>126.375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
+        <v>256.5</v>
+      </c>
+      <c r="C37">
+        <f>Table13167173[[#This Row],[Level]]*12.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="D37">
+        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+      <c r="G37">
+        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
+        <v>29.5</v>
+      </c>
+      <c r="H37">
+        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I37">
+        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
+        <v>56.375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
+        <v>765</v>
+      </c>
+      <c r="C38">
+        <f>Table13167173[[#This Row],[Level]]*12.5+100</f>
+        <v>225</v>
+      </c>
+      <c r="D38">
+        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
+        <v>39</v>
+      </c>
+      <c r="F38">
+        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
+        <v>26.25</v>
+      </c>
+      <c r="G38">
+        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I38">
+        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
+        <v>1612.5</v>
+      </c>
+      <c r="C39">
+        <f>Table13167173[[#This Row],[Level]]*12.5</f>
+        <v>312.5</v>
+      </c>
+      <c r="D39">
+        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
+        <v>54</v>
+      </c>
+      <c r="F39">
+        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+      <c r="G39">
+        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
+        <v>65.5</v>
+      </c>
+      <c r="H39">
+        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I39">
+        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
+        <v>89.375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
+        <v>2177.5</v>
+      </c>
+      <c r="C40">
+        <f>Table13167173[[#This Row],[Level]]*12.5</f>
+        <v>437.5</v>
+      </c>
+      <c r="D40">
+        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
+        <v>64</v>
+      </c>
+      <c r="F40">
+        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+      <c r="G40">
+        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
+        <v>80.5</v>
+      </c>
+      <c r="H40">
+        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I40">
+        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
+        <v>103.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
+        <v>1330</v>
+      </c>
+      <c r="C41">
+        <f>Table13167173[[#This Row],[Level]]*12.5</f>
+        <v>250</v>
+      </c>
+      <c r="D41">
+        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
+        <v>49</v>
+      </c>
+      <c r="F41">
+        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="G41">
+        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
+        <v>58</v>
+      </c>
+      <c r="H41">
+        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
+        <v>82.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DFDAFD-5CD5-4F03-8B08-1FCB08CB3DEC}">
   <dimension ref="A2:J17"/>
@@ -3012,8 +5107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63963E77-5E81-4490-B187-3082B2132C5A}">
   <dimension ref="A3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,7 +5436,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3354,6 +5449,346 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D12E51-D3D0-4D99-802A-0D9D3581ACB3}">
+  <dimension ref="A3:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <f>SUM(Table1141219[[#This Row],[HP]:[LUK]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>Table131611232425[[#This Row],[Level]]*63 + 300</f>
+        <v>363</v>
+      </c>
+      <c r="C8">
+        <f>Table131611232425[[#This Row],[Level]]*10 + 20</f>
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <f>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>35.375</v>
+      </c>
+      <c r="F8">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <f>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</f>
+        <v>21.375</v>
+      </c>
+      <c r="H8">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <f>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f>Table131611232425[[#This Row],[Level]]*63 + 300</f>
+        <v>930</v>
+      </c>
+      <c r="C9">
+        <f>Table131611232425[[#This Row],[Level]]*10 + 20</f>
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <f>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>47.75</v>
+      </c>
+      <c r="F9">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <f>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</f>
+        <v>33.75</v>
+      </c>
+      <c r="H9">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <f>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <f>Table131611232425[[#This Row],[Level]]*63 + 300</f>
+        <v>1875</v>
+      </c>
+      <c r="C10">
+        <f>Table131611232425[[#This Row],[Level]]*10 + 20</f>
+        <v>270</v>
+      </c>
+      <c r="D10">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <f>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>68.375</v>
+      </c>
+      <c r="F10">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</f>
+        <v>54.375</v>
+      </c>
+      <c r="H10">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <f>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <f>Table131611232425[[#This Row],[Level]]*63 + 300</f>
+        <v>2505</v>
+      </c>
+      <c r="C11">
+        <f>Table131611232425[[#This Row],[Level]]*10 + 20</f>
+        <v>370</v>
+      </c>
+      <c r="D11">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <f>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>82.125</v>
+      </c>
+      <c r="F11">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <f>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</f>
+        <v>68.125</v>
+      </c>
+      <c r="H11">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <f>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>99</v>
+      </c>
+      <c r="B12">
+        <f>Table131611232425[[#This Row],[Level]]*63 + 300</f>
+        <v>6537</v>
+      </c>
+      <c r="C12">
+        <f>Table131611232425[[#This Row],[Level]]*10 + 20</f>
+        <v>1010</v>
+      </c>
+      <c r="D12">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <f>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>170.125</v>
+      </c>
+      <c r="F12">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="G12">
+        <f>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</f>
+        <v>156.125</v>
+      </c>
+      <c r="H12">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>114</v>
+      </c>
+      <c r="I12">
+        <f>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>203.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <f>Table131611232425[[#This Row],[Level]]*63 + 300</f>
+        <v>1245</v>
+      </c>
+      <c r="C13" s="1">
+        <f>Table131611232425[[#This Row],[Level]]*10 + 20</f>
+        <v>170</v>
+      </c>
+      <c r="D13" s="1">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <f>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>54.625</v>
+      </c>
+      <c r="F13" s="1">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <f>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</f>
+        <v>40.625</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Table131611232425[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="I13" s="1">
+        <f>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB1284-A899-416A-A581-E0E1F5719020}">
   <dimension ref="A2:J13"/>
   <sheetViews>
@@ -3661,12 +6096,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9807F697-48C3-4A93-87DF-719DC89F6DFD}">
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A9" sqref="A9:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4011,7 +6446,707 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2957AF43-AB89-4AA2-8337-7907EB2AAE66}">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Table16826[[#This Row],[HP]:[LUK]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>Table1316101328[[#This Row],[Level]]*50 + 100</f>
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <f>Table1316101328[[#This Row],[Level]]*10+20</f>
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <f>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</f>
+        <v>36.375</v>
+      </c>
+      <c r="E9">
+        <f>Table1316101328[[#This Row],[Level]]*1 + 15+12</f>
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <f>Table1316101328[[#This Row],[Level]]*1+15</f>
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+11</f>
+        <v>27.5</v>
+      </c>
+      <c r="H9">
+        <f>Table1316101328[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I9">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+20</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>Table1316101328[[#This Row],[Level]]*50 + 100</f>
+        <v>600</v>
+      </c>
+      <c r="C10">
+        <f>Table1316101328[[#This Row],[Level]]*10+20</f>
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <f>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</f>
+        <v>48.75</v>
+      </c>
+      <c r="E10">
+        <f>Table1316101328[[#This Row],[Level]]*1 + 15+12</f>
+        <v>37</v>
+      </c>
+      <c r="F10">
+        <f>Table1316101328[[#This Row],[Level]]*1+15</f>
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+11</f>
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <f>Table1316101328[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I10">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+20</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <f>Table1316101328[[#This Row],[Level]]*50 + 100</f>
+        <v>1350</v>
+      </c>
+      <c r="C11">
+        <f>Table1316101328[[#This Row],[Level]]*10+20</f>
+        <v>270</v>
+      </c>
+      <c r="D11">
+        <f>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</f>
+        <v>69.375</v>
+      </c>
+      <c r="E11">
+        <f>Table1316101328[[#This Row],[Level]]*1 + 15+12</f>
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <f>Table1316101328[[#This Row],[Level]]*1+15</f>
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+11</f>
+        <v>63.5</v>
+      </c>
+      <c r="H11">
+        <f>Table1316101328[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I11">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+20</f>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <f>Table1316101328[[#This Row],[Level]]*50 + 100</f>
+        <v>1850</v>
+      </c>
+      <c r="C12">
+        <f>Table1316101328[[#This Row],[Level]]*10+20</f>
+        <v>370</v>
+      </c>
+      <c r="D12">
+        <f>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</f>
+        <v>83.125</v>
+      </c>
+      <c r="E12">
+        <f>Table1316101328[[#This Row],[Level]]*1 + 15+12</f>
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <f>Table1316101328[[#This Row],[Level]]*1+15</f>
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+11</f>
+        <v>78.5</v>
+      </c>
+      <c r="H12">
+        <f>Table1316101328[[#This Row],[Level]]*1.25 + 15</f>
+        <v>58.75</v>
+      </c>
+      <c r="I12">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+20</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="B13">
+        <f>Table1316101328[[#This Row],[Level]]*50 + 100</f>
+        <v>5050</v>
+      </c>
+      <c r="C13">
+        <f>Table1316101328[[#This Row],[Level]]*10+20</f>
+        <v>1010</v>
+      </c>
+      <c r="D13">
+        <f>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</f>
+        <v>171.125</v>
+      </c>
+      <c r="E13">
+        <f>Table1316101328[[#This Row],[Level]]*1 + 15+12</f>
+        <v>126</v>
+      </c>
+      <c r="F13">
+        <f>Table1316101328[[#This Row],[Level]]*1+15</f>
+        <v>114</v>
+      </c>
+      <c r="G13">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+11</f>
+        <v>174.5</v>
+      </c>
+      <c r="H13">
+        <f>Table1316101328[[#This Row],[Level]]*1.25 + 15</f>
+        <v>138.75</v>
+      </c>
+      <c r="I13">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+20</f>
+        <v>183.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <f>Table1316101328[[#This Row],[Level]]*50 + 100</f>
+        <v>850</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Table1316101328[[#This Row],[Level]]*10+20</f>
+        <v>170</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</f>
+        <v>55.625</v>
+      </c>
+      <c r="E14" s="1">
+        <f>Table1316101328[[#This Row],[Level]]*1 + 15+12</f>
+        <v>42</v>
+      </c>
+      <c r="F14" s="1">
+        <f>Table1316101328[[#This Row],[Level]]*1+15</f>
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+11</f>
+        <v>48.5</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Table1316101328[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="I14" s="1">
+        <f>Table1316101328[[#This Row],[Level]]*1.5+15+20</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D32E0-5A99-4BFF-A02D-6B35D71614A2}">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Table1682630[[#This Row],[HP]:[LUK]])</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>Table131610132831[[#This Row],[Level]]*63+ 300</f>
+        <v>363</v>
+      </c>
+      <c r="C9">
+        <f>Table131610132831[[#This Row],[Level]]*10+20</f>
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</f>
+        <v>36.5</v>
+      </c>
+      <c r="E9">
+        <f>Table131610132831[[#This Row],[Level]]*1 + 15+12</f>
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <f>Table131610132831[[#This Row],[Level]]*1+15</f>
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+11</f>
+        <v>27.5</v>
+      </c>
+      <c r="H9">
+        <f>Table131610132831[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="I9">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+20</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>Table131610132831[[#This Row],[Level]]*63+ 300</f>
+        <v>930</v>
+      </c>
+      <c r="C10">
+        <f>Table131610132831[[#This Row],[Level]]*10+20</f>
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</f>
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <f>Table131610132831[[#This Row],[Level]]*1 + 15+12</f>
+        <v>37</v>
+      </c>
+      <c r="F10">
+        <f>Table131610132831[[#This Row],[Level]]*1+15</f>
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+11</f>
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <f>Table131610132831[[#This Row],[Level]]*1.5 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+20</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <f>Table131610132831[[#This Row],[Level]]*63+ 300</f>
+        <v>1875</v>
+      </c>
+      <c r="C11">
+        <f>Table131610132831[[#This Row],[Level]]*10+20</f>
+        <v>270</v>
+      </c>
+      <c r="D11">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</f>
+        <v>72.5</v>
+      </c>
+      <c r="E11">
+        <f>Table131610132831[[#This Row],[Level]]*1 + 15+12</f>
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <f>Table131610132831[[#This Row],[Level]]*1+15</f>
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+11</f>
+        <v>63.5</v>
+      </c>
+      <c r="H11">
+        <f>Table131610132831[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="I11">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+20</f>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <f>Table131610132831[[#This Row],[Level]]*63+ 300</f>
+        <v>2505</v>
+      </c>
+      <c r="C12">
+        <f>Table131610132831[[#This Row],[Level]]*10+20</f>
+        <v>370</v>
+      </c>
+      <c r="D12">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</f>
+        <v>87.5</v>
+      </c>
+      <c r="E12">
+        <f>Table131610132831[[#This Row],[Level]]*1 + 15+12</f>
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <f>Table131610132831[[#This Row],[Level]]*1+15</f>
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+11</f>
+        <v>78.5</v>
+      </c>
+      <c r="H12">
+        <f>Table131610132831[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="I12">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+20</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <f>Table131610132831[[#This Row],[Level]]*63+ 300</f>
+        <v>1560</v>
+      </c>
+      <c r="C13">
+        <f>Table131610132831[[#This Row],[Level]]*10+20</f>
+        <v>220</v>
+      </c>
+      <c r="D13">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</f>
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <f>Table131610132831[[#This Row],[Level]]*1 + 15+12</f>
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <f>Table131610132831[[#This Row],[Level]]*1+15</f>
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+11</f>
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <f>Table131610132831[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+20</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <f>Table131610132831[[#This Row],[Level]]*63+ 300</f>
+        <v>1245</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Table131610132831[[#This Row],[Level]]*10+20</f>
+        <v>170</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</f>
+        <v>57.5</v>
+      </c>
+      <c r="E14" s="1">
+        <f>Table131610132831[[#This Row],[Level]]*1 + 15+12</f>
+        <v>42</v>
+      </c>
+      <c r="F14" s="1">
+        <f>Table131610132831[[#This Row],[Level]]*1+15</f>
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+11</f>
+        <v>48.5</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Table131610132831[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="I14" s="1">
+        <f>Table131610132831[[#This Row],[Level]]*1.5+15+20</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA7AE8E-3CBD-43D4-8334-3506A3BDF6FA}">
   <dimension ref="A2:I13"/>
   <sheetViews>
@@ -4293,1823 +7428,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CE9C02-0686-4D94-800E-4766BA124417}">
-  <dimension ref="A2:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <f>SUM(Table16821[[#This Row],[HP]:[LUK]])</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
-        <v>575</v>
-      </c>
-      <c r="C8">
-        <f>Table131618[[#This Row],[Level]]*10+20</f>
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
-        <v>16.5</v>
-      </c>
-      <c r="E8">
-        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
-        <v>16.5</v>
-      </c>
-      <c r="F8">
-        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
-        <v>16.5</v>
-      </c>
-      <c r="H8">
-        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
-        <v>16.375</v>
-      </c>
-      <c r="I8">
-        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
-        <v>16.125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
-        <v>1625</v>
-      </c>
-      <c r="C9">
-        <f>Table131618[[#This Row],[Level]]*10+20</f>
-        <v>170</v>
-      </c>
-      <c r="D9">
-        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
-        <v>37.5</v>
-      </c>
-      <c r="E9">
-        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
-        <v>37.5</v>
-      </c>
-      <c r="F9">
-        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
-        <v>37.5</v>
-      </c>
-      <c r="H9">
-        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
-        <v>35.625</v>
-      </c>
-      <c r="I9">
-        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
-        <v>31.875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
-        <v>2375</v>
-      </c>
-      <c r="C10">
-        <f>Table131618[[#This Row],[Level]]*10+20</f>
-        <v>270</v>
-      </c>
-      <c r="D10">
-        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
-        <v>52.5</v>
-      </c>
-      <c r="E10">
-        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
-      </c>
-      <c r="F10">
-        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="G10">
-        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
-      </c>
-      <c r="H10">
-        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
-        <v>49.375</v>
-      </c>
-      <c r="I10">
-        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
-        <v>43.125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
-        <v>3125</v>
-      </c>
-      <c r="C11">
-        <f>Table131618[[#This Row],[Level]]*10+20</f>
-        <v>370</v>
-      </c>
-      <c r="D11">
-        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
-        <v>67.5</v>
-      </c>
-      <c r="E11">
-        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
-        <v>67.5</v>
-      </c>
-      <c r="F11">
-        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
-        <v>67.5</v>
-      </c>
-      <c r="H11">
-        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
-        <v>63.125</v>
-      </c>
-      <c r="I11">
-        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
-        <v>54.375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <f>Table131618[[#This Row],[Level]]*75 + 500</f>
-        <v>2000</v>
-      </c>
-      <c r="C12">
-        <f>Table131618[[#This Row],[Level]]*10+20</f>
-        <v>220</v>
-      </c>
-      <c r="D12">
-        <f>Table131618[[#This Row],[Level]]*1.5+ 15</f>
-        <v>45</v>
-      </c>
-      <c r="E12">
-        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
-        <v>45</v>
-      </c>
-      <c r="F12">
-        <f>Table131618[[#This Row],[Level]]*1 + 15</f>
-        <v>35</v>
-      </c>
-      <c r="G12">
-        <f>Table131618[[#This Row],[Level]]*1.5 + 15</f>
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <f>Table131618[[#This Row],[Level]]*1.375 + 15</f>
-        <v>42.5</v>
-      </c>
-      <c r="I12">
-        <f>Table131618[[#This Row],[Level]]*1.125 + 15</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3">
-        <f>Table1922[Level]*75 + 500</f>
-        <v>2000</v>
-      </c>
-      <c r="C16" s="3">
-        <f>Table1922[[#This Row],[Level]]*10 + 20</f>
-        <v>220</v>
-      </c>
-      <c r="D16" s="3">
-        <v>75</v>
-      </c>
-      <c r="E16" s="3">
-        <v>71</v>
-      </c>
-      <c r="F16" s="3">
-        <v>35</v>
-      </c>
-      <c r="G16" s="3">
-        <v>61</v>
-      </c>
-      <c r="H16" s="3">
-        <v>42.5</v>
-      </c>
-      <c r="I16" s="4">
-        <v>37.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED846686-A238-4174-849F-9F6770BD1F9B}">
-  <dimension ref="A1:T9"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>150</v>
-      </c>
-      <c r="C4">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>115</v>
-      </c>
-      <c r="D4">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>16.5</v>
-      </c>
-      <c r="G4">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>16.5</v>
-      </c>
-      <c r="H4">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>16.25</v>
-      </c>
-      <c r="I4">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
-      </c>
-      <c r="L4" s="2">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3">
-        <f>Table19[Level]*50 + 100</f>
-        <v>1100</v>
-      </c>
-      <c r="N4" s="3">
-        <f>Table19[[#This Row],[Level]]*15+100</f>
-        <v>400</v>
-      </c>
-      <c r="O4" s="3">
-        <f>Table19[[#This Row],[Level]]*1+ 15</f>
-        <v>35</v>
-      </c>
-      <c r="P4" s="3">
-        <f>Table19[[#This Row],[Level]]*1 + 15 + 6</f>
-        <v>41</v>
-      </c>
-      <c r="Q4" s="3">
-        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 40</f>
-        <v>85</v>
-      </c>
-      <c r="R4" s="3">
-        <f>Table19[[#This Row],[Level]]*1.5 + 15 + 12</f>
-        <v>57</v>
-      </c>
-      <c r="S4" s="3">
-        <f>Table19[[#This Row],[Level]]*1.25 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="T4" s="4">
-        <f>Table19[Level] + 15</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>850</v>
-      </c>
-      <c r="C5">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>325</v>
-      </c>
-      <c r="D5">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>37.5</v>
-      </c>
-      <c r="G5">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>37.5</v>
-      </c>
-      <c r="H5">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>33.75</v>
-      </c>
-      <c r="I5">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>1350</v>
-      </c>
-      <c r="C6">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>475</v>
-      </c>
-      <c r="D6">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
-      </c>
-      <c r="G6">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
-      </c>
-      <c r="H6">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>46.25</v>
-      </c>
-      <c r="I6">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>1850</v>
-      </c>
-      <c r="C7">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>625</v>
-      </c>
-      <c r="D7">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>67.5</v>
-      </c>
-      <c r="G7">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>67.5</v>
-      </c>
-      <c r="H7">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>58.75</v>
-      </c>
-      <c r="I7">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>99</v>
-      </c>
-      <c r="B8">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>5050</v>
-      </c>
-      <c r="C8">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>1585</v>
-      </c>
-      <c r="D8">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>114</v>
-      </c>
-      <c r="E8">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>114</v>
-      </c>
-      <c r="F8">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>163.5</v>
-      </c>
-      <c r="G8">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>163.5</v>
-      </c>
-      <c r="H8">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>138.75</v>
-      </c>
-      <c r="I8">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <f>Table131620[[#This Row],[Level]]*50 + 100</f>
-        <v>1100</v>
-      </c>
-      <c r="C9" s="1">
-        <f>Table131620[[#This Row],[Level]]*15+100</f>
-        <v>400</v>
-      </c>
-      <c r="D9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1+ 15</f>
-        <v>35</v>
-      </c>
-      <c r="E9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>45</v>
-      </c>
-      <c r="G9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1.5 + 15</f>
-        <v>45</v>
-      </c>
-      <c r="H9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1.25 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="I9" s="1">
-        <f>Table131620[[#This Row],[Level]]*1 + 15</f>
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4195E475-9F10-4DD8-82F0-E47D9A595A6E}">
-  <dimension ref="A2:S41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1">
-        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1">
-        <f>SUM(Table15[[#This Row],[HP]:[LUK]])</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
-        <v>156.25</v>
-      </c>
-      <c r="M12">
-        <f>Table131679[[#This Row],[Level]]*10</f>
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
-        <v>41.375</v>
-      </c>
-      <c r="O12">
-        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
-        <v>26.25</v>
-      </c>
-      <c r="P12">
-        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
-      </c>
-      <c r="Q12">
-        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
-        <v>24.25</v>
-      </c>
-      <c r="R12">
-        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
-        <v>21.5</v>
-      </c>
-      <c r="S12">
-        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
-        <v>16.125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="L13">
-        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
-        <v>662.5</v>
-      </c>
-      <c r="M13">
-        <f>Table131679[[#This Row],[Level]]*10</f>
-        <v>100</v>
-      </c>
-      <c r="N13">
-        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
-        <v>53.75</v>
-      </c>
-      <c r="O13">
-        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
-        <v>37.5</v>
-      </c>
-      <c r="P13">
-        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
-        <v>25</v>
-      </c>
-      <c r="Q13">
-        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
-        <v>35.5</v>
-      </c>
-      <c r="R13">
-        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
-        <v>35</v>
-      </c>
-      <c r="S13">
-        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
-        <v>26.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>25</v>
-      </c>
-      <c r="L14">
-        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
-        <v>1506.25</v>
-      </c>
-      <c r="M14">
-        <f>Table131679[[#This Row],[Level]]*10</f>
-        <v>250</v>
-      </c>
-      <c r="N14">
-        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
-        <v>74.375</v>
-      </c>
-      <c r="O14">
-        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
-        <v>56.25</v>
-      </c>
-      <c r="P14">
-        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="Q14">
-        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
-        <v>54.25</v>
-      </c>
-      <c r="R14">
-        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
-        <v>57.5</v>
-      </c>
-      <c r="S14">
-        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
-        <v>43.125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15">
-        <v>35</v>
-      </c>
-      <c r="L15">
-        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
-        <v>2068.75</v>
-      </c>
-      <c r="M15">
-        <f>Table131679[[#This Row],[Level]]*10</f>
-        <v>350</v>
-      </c>
-      <c r="N15">
-        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
-        <v>88.125</v>
-      </c>
-      <c r="O15">
-        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
-        <v>68.75</v>
-      </c>
-      <c r="P15">
-        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
-      </c>
-      <c r="Q15">
-        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
-        <v>66.75</v>
-      </c>
-      <c r="R15">
-        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
-        <v>72.5</v>
-      </c>
-      <c r="S15">
-        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
-        <v>54.375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <f>Table13167[[#This Row],[Level]]*63-100</f>
-        <v>-37</v>
-      </c>
-      <c r="C16">
-        <f>Table13167[[#This Row],[Level]]*10</f>
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
-        <v>16.375</v>
-      </c>
-      <c r="E16">
-        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
-        <v>16.375</v>
-      </c>
-      <c r="F16">
-        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
-      </c>
-      <c r="G16">
-        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
-        <v>16.25</v>
-      </c>
-      <c r="H16">
-        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
-        <v>16.25</v>
-      </c>
-      <c r="I16">
-        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
-        <v>16.125</v>
-      </c>
-      <c r="K16">
-        <v>99</v>
-      </c>
-      <c r="L16">
-        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
-        <v>5668.75</v>
-      </c>
-      <c r="M16">
-        <f>Table131679[[#This Row],[Level]]*10</f>
-        <v>990</v>
-      </c>
-      <c r="N16">
-        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
-        <v>176.125</v>
-      </c>
-      <c r="O16">
-        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
-        <v>148.75</v>
-      </c>
-      <c r="P16">
-        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
-        <v>114</v>
-      </c>
-      <c r="Q16">
-        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
-        <v>146.75</v>
-      </c>
-      <c r="R16">
-        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
-        <v>168.5</v>
-      </c>
-      <c r="S16">
-        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
-        <v>126.375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <f>Table13167[[#This Row],[Level]]*63</f>
-        <v>630</v>
-      </c>
-      <c r="C17">
-        <f>Table13167[[#This Row],[Level]]*10</f>
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
-        <v>28.75</v>
-      </c>
-      <c r="E17">
-        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
-        <v>28.75</v>
-      </c>
-      <c r="F17">
-        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
-        <v>27.5</v>
-      </c>
-      <c r="H17">
-        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
-        <v>27.5</v>
-      </c>
-      <c r="I17">
-        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
-        <v>26.25</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17" s="1">
-        <f>Table131679[[#This Row],[Level]]*56.25+100</f>
-        <v>268.75</v>
-      </c>
-      <c r="M17" s="1">
-        <f>Table131679[[#This Row],[Level]]*10</f>
-        <v>30</v>
-      </c>
-      <c r="N17" s="1">
-        <f>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</f>
-        <v>44.125</v>
-      </c>
-      <c r="O17" s="1">
-        <f>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</f>
-        <v>28.75</v>
-      </c>
-      <c r="P17" s="1">
-        <f>Table131679[[#This Row],[Level]]*1 + 15</f>
-        <v>18</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</f>
-        <v>26.75</v>
-      </c>
-      <c r="R17" s="1">
-        <f>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</f>
-        <v>24.5</v>
-      </c>
-      <c r="S17" s="1">
-        <f>Table131679[[#This Row],[Level]]*1.125 + 15</f>
-        <v>18.375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <f>Table13167[[#This Row],[Level]]*63-100</f>
-        <v>1475</v>
-      </c>
-      <c r="C18">
-        <f>Table13167[[#This Row],[Level]]*10</f>
-        <v>250</v>
-      </c>
-      <c r="D18">
-        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
-        <v>49.375</v>
-      </c>
-      <c r="E18">
-        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
-        <v>49.375</v>
-      </c>
-      <c r="F18">
-        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="G18">
-        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
-        <v>46.25</v>
-      </c>
-      <c r="H18">
-        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
-        <v>46.25</v>
-      </c>
-      <c r="I18">
-        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
-        <v>43.125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <f>Table13167[[#This Row],[Level]]*63-100</f>
-        <v>2105</v>
-      </c>
-      <c r="C19">
-        <f>Table13167[[#This Row],[Level]]*10</f>
-        <v>350</v>
-      </c>
-      <c r="D19">
-        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
-        <v>63.125</v>
-      </c>
-      <c r="E19">
-        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
-        <v>63.125</v>
-      </c>
-      <c r="F19">
-        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
-      </c>
-      <c r="G19">
-        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
-        <v>58.75</v>
-      </c>
-      <c r="H19">
-        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
-        <v>58.75</v>
-      </c>
-      <c r="I19">
-        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
-        <v>54.375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>99</v>
-      </c>
-      <c r="B20">
-        <f>Table13167[[#This Row],[Level]]*63-100</f>
-        <v>6137</v>
-      </c>
-      <c r="C20">
-        <f>Table13167[[#This Row],[Level]]*10</f>
-        <v>990</v>
-      </c>
-      <c r="D20">
-        <f>Table13167[[#This Row],[Level]]*1.375+ 15</f>
-        <v>151.125</v>
-      </c>
-      <c r="E20">
-        <f>Table13167[[#This Row],[Level]]*1.375 + 15</f>
-        <v>151.125</v>
-      </c>
-      <c r="F20">
-        <f>Table13167[[#This Row],[Level]]*1 + 15</f>
-        <v>114</v>
-      </c>
-      <c r="G20">
-        <f>Table13167[[#This Row],[Level]]*1.25+ 15</f>
-        <v>138.75</v>
-      </c>
-      <c r="H20">
-        <f>Table13167[[#This Row],[Level]]*1.25 + 15</f>
-        <v>138.75</v>
-      </c>
-      <c r="I20">
-        <f>Table13167[[#This Row],[Level]]*1.125 + 15</f>
-        <v>126.375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <f>Table1316717[[#This Row],[Level]]*63+100</f>
-        <v>163</v>
-      </c>
-      <c r="C27">
-        <f>Table1316717[[#This Row],[Level]]*10</f>
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
-        <v>16.375</v>
-      </c>
-      <c r="E27">
-        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
-        <v>16.375</v>
-      </c>
-      <c r="F27">
-        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
-      </c>
-      <c r="G27">
-        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
-        <v>16.25</v>
-      </c>
-      <c r="H27">
-        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
-        <v>16.25</v>
-      </c>
-      <c r="I27">
-        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
-        <v>16.125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <f>Table1316717[[#This Row],[Level]]*63+100</f>
-        <v>730</v>
-      </c>
-      <c r="C28">
-        <f>Table1316717[[#This Row],[Level]]*10</f>
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
-        <v>28.75</v>
-      </c>
-      <c r="E28">
-        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
-        <v>28.75</v>
-      </c>
-      <c r="F28">
-        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
-        <v>27.5</v>
-      </c>
-      <c r="H28">
-        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
-        <v>27.5</v>
-      </c>
-      <c r="I28">
-        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
-        <v>26.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29">
-        <f>Table1316717[[#This Row],[Level]]*63+100</f>
-        <v>1675</v>
-      </c>
-      <c r="C29">
-        <f>Table1316717[[#This Row],[Level]]*10</f>
-        <v>250</v>
-      </c>
-      <c r="D29">
-        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
-        <v>49.375</v>
-      </c>
-      <c r="E29">
-        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
-        <v>49.375</v>
-      </c>
-      <c r="F29">
-        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="G29">
-        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
-        <v>46.25</v>
-      </c>
-      <c r="H29">
-        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
-        <v>46.25</v>
-      </c>
-      <c r="I29">
-        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
-        <v>43.125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <f>Table1316717[[#This Row],[Level]]*63+100</f>
-        <v>2305</v>
-      </c>
-      <c r="C30">
-        <f>Table1316717[[#This Row],[Level]]*10</f>
-        <v>350</v>
-      </c>
-      <c r="D30">
-        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
-        <v>63.125</v>
-      </c>
-      <c r="E30">
-        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
-        <v>63.125</v>
-      </c>
-      <c r="F30">
-        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
-      </c>
-      <c r="G30">
-        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
-        <v>58.75</v>
-      </c>
-      <c r="H30">
-        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
-        <v>58.75</v>
-      </c>
-      <c r="I30">
-        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
-        <v>54.375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>99</v>
-      </c>
-      <c r="B31">
-        <f>Table1316717[[#This Row],[Level]]*63+100</f>
-        <v>6337</v>
-      </c>
-      <c r="C31">
-        <f>Table1316717[[#This Row],[Level]]*10</f>
-        <v>990</v>
-      </c>
-      <c r="D31">
-        <f>Table1316717[[#This Row],[Level]]*1.375+ 15</f>
-        <v>151.125</v>
-      </c>
-      <c r="E31">
-        <f>Table1316717[[#This Row],[Level]]*1.375 + 15</f>
-        <v>151.125</v>
-      </c>
-      <c r="F31">
-        <f>Table1316717[[#This Row],[Level]]*1 + 15</f>
-        <v>114</v>
-      </c>
-      <c r="G31">
-        <f>Table1316717[[#This Row],[Level]]*1.25+ 15</f>
-        <v>138.75</v>
-      </c>
-      <c r="H31">
-        <f>Table1316717[[#This Row],[Level]]*1.25 + 15</f>
-        <v>138.75</v>
-      </c>
-      <c r="I31">
-        <f>Table1316717[[#This Row],[Level]]*1.125 + 15</f>
-        <v>126.375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
-        <v>256.5</v>
-      </c>
-      <c r="C37">
-        <f>Table13167173[[#This Row],[Level]]*12.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="D37">
-        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
-        <v>16</v>
-      </c>
-      <c r="E37">
-        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
-        <v>30</v>
-      </c>
-      <c r="F37">
-        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
-        <v>16.125</v>
-      </c>
-      <c r="G37">
-        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
-        <v>29.5</v>
-      </c>
-      <c r="H37">
-        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
-        <v>16.25</v>
-      </c>
-      <c r="I37">
-        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
-        <v>56.375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>10</v>
-      </c>
-      <c r="B38">
-        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
-        <v>765</v>
-      </c>
-      <c r="C38">
-        <f>Table13167173[[#This Row],[Level]]*12.5+100</f>
-        <v>225</v>
-      </c>
-      <c r="D38">
-        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
-        <v>25</v>
-      </c>
-      <c r="E38">
-        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
-        <v>39</v>
-      </c>
-      <c r="F38">
-        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
-        <v>26.25</v>
-      </c>
-      <c r="G38">
-        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
-        <v>43</v>
-      </c>
-      <c r="H38">
-        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
-        <v>27.5</v>
-      </c>
-      <c r="I38">
-        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>25</v>
-      </c>
-      <c r="B39">
-        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
-        <v>1612.5</v>
-      </c>
-      <c r="C39">
-        <f>Table13167173[[#This Row],[Level]]*12.5</f>
-        <v>312.5</v>
-      </c>
-      <c r="D39">
-        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
-        <v>40</v>
-      </c>
-      <c r="E39">
-        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
-        <v>54</v>
-      </c>
-      <c r="F39">
-        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
-        <v>43.125</v>
-      </c>
-      <c r="G39">
-        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
-        <v>65.5</v>
-      </c>
-      <c r="H39">
-        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
-        <v>46.25</v>
-      </c>
-      <c r="I39">
-        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
-        <v>89.375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>35</v>
-      </c>
-      <c r="B40">
-        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
-        <v>2177.5</v>
-      </c>
-      <c r="C40">
-        <f>Table13167173[[#This Row],[Level]]*12.5</f>
-        <v>437.5</v>
-      </c>
-      <c r="D40">
-        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
-        <v>50</v>
-      </c>
-      <c r="E40">
-        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
-        <v>64</v>
-      </c>
-      <c r="F40">
-        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
-        <v>54.375</v>
-      </c>
-      <c r="G40">
-        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
-        <v>80.5</v>
-      </c>
-      <c r="H40">
-        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
-        <v>58.75</v>
-      </c>
-      <c r="I40">
-        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
-        <v>103.125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>20</v>
-      </c>
-      <c r="B41">
-        <f>Table13167173[[#This Row],[Level]]*56.5+200</f>
-        <v>1330</v>
-      </c>
-      <c r="C41">
-        <f>Table13167173[[#This Row],[Level]]*12.5</f>
-        <v>250</v>
-      </c>
-      <c r="D41">
-        <f>Table13167173[[#This Row],[Level]]*1+ 15</f>
-        <v>35</v>
-      </c>
-      <c r="E41">
-        <f>Table13167173[[#This Row],[Level]]*1 + 15+14</f>
-        <v>49</v>
-      </c>
-      <c r="F41">
-        <f>Table13167173[[#This Row],[Level]]*1.125 + 15</f>
-        <v>37.5</v>
-      </c>
-      <c r="G41">
-        <f>Table13167173[[#This Row],[Level]]*1.5+ 15+13</f>
-        <v>58</v>
-      </c>
-      <c r="H41">
-        <f>Table13167173[[#This Row],[Level]]*1.25 + 15</f>
-        <v>40</v>
-      </c>
-      <c r="I41">
-        <f>Table13167173[[#This Row],[Level]]*1.375 + 15+40</f>
-        <v>82.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="7" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="7" activeTab="8" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="54">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -195,6 +195,9 @@
   <si>
     <t>Bounded Wind Spirit</t>
   </si>
+  <si>
+    <t>In fort: 30MAT, 7/21</t>
+  </si>
 </sst>
 </file>
 
@@ -380,24 +383,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1263,6 +1248,24 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1475,7 +1478,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="88">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1488,28 +1491,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="87">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="86">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="85">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="84">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="83">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="82">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="81">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="80">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1522,28 +1525,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="88">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="79">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="87">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="78">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="86">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="77">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="85">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="84">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="83">
-      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="82">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="0">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="2">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="1">
+      <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="76">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="81">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="75">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1556,28 +1559,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="80">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="74">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="79">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="73">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="78">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="72">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="77">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="71">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="76">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="70">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="75">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="69">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="74">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="68">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="73">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="67">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1632,7 +1635,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="72">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="66">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1641,22 +1644,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="71" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="65" tableBorderDxfId="64">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="62">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="61">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1667,28 +1670,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="54">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="59">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="53">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="58">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="52">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="57">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="51">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="50">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="55">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="49">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="54">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="48">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="53">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="47">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1697,32 +1700,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="43">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="42">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="41">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="40">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="39">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="38">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="43">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="37">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="42">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="36">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1743,7 +1746,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="41">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="35">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1756,28 +1759,28 @@
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="40">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="34">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="33">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="32">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="31">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="30">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="35">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="29">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="28">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="27">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1790,28 +1793,28 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="26">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="25">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="24">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="23">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="22">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="21">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="20">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="19">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1824,28 +1827,28 @@
   <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="18">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="17">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="16">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="15">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="14">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="13">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="12">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="11">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1858,28 +1861,28 @@
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="10">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="9">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="8">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="7">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="6">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="5">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="4">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="3">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6800,8 +6803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D32E0-5A99-4BFF-A02D-6B35D71614A2}">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7148,10 +7151,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA7AE8E-3CBD-43D4-8334-3506A3BDF6FA}">
-  <dimension ref="A2:I13"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7212,16 +7215,16 @@
         <v>16</v>
       </c>
       <c r="E5">
-        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
-        <v>16</v>
+        <f>Table13162015[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>23</v>
       </c>
       <c r="F5">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>16.5</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</f>
+        <v>46.5</v>
       </c>
       <c r="G5">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>16.5</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</f>
+        <v>37.5</v>
       </c>
       <c r="H5">
         <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
@@ -7249,16 +7252,16 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
-        <v>30</v>
+        <f>Table13162015[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>37</v>
       </c>
       <c r="F6">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>37.5</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</f>
+        <v>67.5</v>
       </c>
       <c r="G6">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>37.5</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</f>
+        <v>58.5</v>
       </c>
       <c r="H6">
         <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
@@ -7286,16 +7289,16 @@
         <v>40</v>
       </c>
       <c r="E7">
-        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
-        <v>40</v>
+        <f>Table13162015[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>47</v>
       </c>
       <c r="F7">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</f>
+        <v>82.5</v>
       </c>
       <c r="G7">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>52.5</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</f>
+        <v>73.5</v>
       </c>
       <c r="H7">
         <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
@@ -7323,16 +7326,16 @@
         <v>50</v>
       </c>
       <c r="E8">
-        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
-        <v>50</v>
+        <f>Table13162015[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>57</v>
       </c>
       <c r="F8">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>67.5</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</f>
+        <v>97.5</v>
       </c>
       <c r="G8">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>67.5</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</f>
+        <v>88.5</v>
       </c>
       <c r="H8">
         <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
@@ -7360,16 +7363,16 @@
         <v>114</v>
       </c>
       <c r="E9">
-        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
-        <v>114</v>
+        <f>Table13162015[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>121</v>
       </c>
       <c r="F9">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>163.5</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</f>
+        <v>193.5</v>
       </c>
       <c r="G9">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>163.5</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</f>
+        <v>184.5</v>
       </c>
       <c r="H9">
         <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
@@ -7397,16 +7400,16 @@
         <v>35</v>
       </c>
       <c r="E10" s="1">
-        <f>Table13162015[[#This Row],[Level]]*1 + 15</f>
-        <v>35</v>
+        <f>Table13162015[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>42</v>
       </c>
       <c r="F10" s="1">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>45</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</f>
+        <v>75</v>
       </c>
       <c r="G10" s="1">
-        <f>Table13162015[[#This Row],[Level]]*1.5 + 15</f>
-        <v>45</v>
+        <f>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</f>
+        <v>66</v>
       </c>
       <c r="H10" s="1">
         <f>Table13162015[[#This Row],[Level]]*1.25 + 15</f>
@@ -7420,6 +7423,11 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="7" activeTab="8" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="7" activeTab="11" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="Acolyte" sheetId="7" r:id="rId9"/>
     <sheet name="Death Knight" sheetId="8" r:id="rId10"/>
     <sheet name="VillianCanson" sheetId="4" r:id="rId11"/>
-    <sheet name="Goblin" sheetId="2" r:id="rId12"/>
+    <sheet name="Death Lord" sheetId="15" r:id="rId12"/>
+    <sheet name="Goblin" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="55">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -198,6 +199,9 @@
   <si>
     <t>In fort: 30MAT, 7/21</t>
   </si>
+  <si>
+    <t>Death Lords are giant undead</t>
+  </si>
 </sst>
 </file>
 
@@ -273,112 +277,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="160">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="180">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -696,6 +595,105 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1009,6 +1007,328 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1292,7 +1612,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="159">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="179">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1313,7 +1633,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="115">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="135">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1326,28 +1646,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="114">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="134">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="113">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="133">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="112">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="132">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="111">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="131">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="110">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="130">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="109">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="129">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="108">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="128">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="107">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="127">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1368,7 +1688,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="106">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="126">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1381,28 +1701,28 @@
   <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="105">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="125">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="104">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="124">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="103">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="123">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="102">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="122">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="101">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="121">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="100">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="120">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="99">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="119">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="98">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="118">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1423,7 +1743,7 @@
     <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="97">
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="117">
       <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1436,28 +1756,28 @@
   <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="96">
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="116">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="95">
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="115">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="94">
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="114">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="93">
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="113">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="92">
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="112">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="91">
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="111">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="90">
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="110">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="89">
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="109">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1478,7 +1798,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="88">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="108">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1491,28 +1811,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="87">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="107">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="86">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="106">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="85">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="105">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="84">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="104">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="83">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="103">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="82">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="102">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="81">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="101">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="80">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="100">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1525,28 +1845,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="79">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="99">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="78">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="98">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="77">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="97">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="96">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="95">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="94">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="76">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="93">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="75">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="92">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1559,28 +1879,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="74">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="91">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="73">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="90">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="72">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="89">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="71">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="88">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="70">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="87">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="69">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="86">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="68">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="85">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="67">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="84">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1593,28 +1913,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="158">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="178">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="157">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="177">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="156">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="176">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="155">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="175">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="154">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="174">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="153">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="173">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="152">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="172">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="151">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="171">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1635,7 +1955,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="66">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="83">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1644,22 +1964,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="65" tableBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="82" tableBorderDxfId="81">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="79">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="61">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="78">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1670,28 +1990,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="54">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="71">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="53">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="70">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="52">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="69">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="51">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="68">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="50">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="67">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="49">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="66">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="48">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="65">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="47">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="64">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1700,32 +2020,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="60">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="42">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="59">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="41">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="58">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="40">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="57">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="39">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="56">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="38">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="55">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="37">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="54">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="36">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="53">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1734,6 +2054,87 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{41A82D08-9A09-4219-84C8-447F62C5E4A5}" name="Table13161833" displayName="Table13161833" ref="A7:I12" totalsRowShown="0">
+  <autoFilter ref="A7:I12" xr:uid="{553298A4-7E43-42CF-9EEB-1F9E7E6BAD27}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2AA35C8B-719C-4BA6-9CDF-2963E1C9F233}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="19">
+      <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="18">
+      <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="0">
+      <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="17">
+      <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="16">
+      <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="15">
+      <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="14">
+      <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="13">
+      <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{B310FA79-C251-4887-8BA0-13EFC898E0EE}" name="Table1682134" displayName="Table1682134" ref="A4:J5" totalsRowShown="0">
+  <autoFilter ref="A4:J5" xr:uid="{A196C7A4-18CB-4B62-A1B5-F180559CC24F}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{5856C6A7-86D8-4034-9C75-EF0B447521E9}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{0323D56B-1230-40A6-9F39-A1F15B999EB9}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{5047D0C1-3B69-43A4-8BB7-50413F800B48}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{35844843-6592-40C2-87B2-39C1F8EAC612}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{1408F78D-2392-49EF-BC8D-CA3D7292C8AF}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{4D9C5D96-8CD0-4851-8FE4-5E19474329C4}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{5A405725-30A7-487F-95BF-061F71CA9C61}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{644DEF70-6EBD-403E-904B-6C30E5FBEA48}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{BA93DA54-96B9-48D1-80BB-C266771E13F1}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1682134[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A15:I16" xr:uid="{D0DF3ED4-9A21-493B-88F4-CE5814AF31C9}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="8">
+      <calculatedColumnFormula>(Table192235[Level]*75 + 500)*2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="7">
+      <calculatedColumnFormula>Table192235[[#This Row],[Level]]*14 + 80</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="6">
+      <calculatedColumnFormula>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="4">
+      <calculatedColumnFormula>Table192235[Level]*1.5+15+50</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DE335D90-A9BD-40A2-B9C7-73CA6E6CAB11}" name="Table15" displayName="Table15" ref="A4:J8" totalsRowShown="0">
   <autoFilter ref="A4:J8" xr:uid="{CE759384-ADAA-40BA-B9E0-40CE462A16EC}"/>
   <tableColumns count="10">
@@ -1746,110 +2147,8 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="35">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="52">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{11E951F1-5D13-41C6-A7E5-8F4298DA5463}" name="Table13167" displayName="Table13167" ref="A15:I20" totalsRowShown="0">
-  <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="34">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="33">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="32">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="31">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="30">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="29">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="28">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="27">
-      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60D4A7A8-82BF-4B58-A912-589523D22F05}" name="Table131679" displayName="Table131679" ref="K11:S17" totalsRowShown="0">
-  <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="26">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="25">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="24">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="23">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="22">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="21">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="20">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="19">
-      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{57801F89-51BE-4BC1-9BA3-39DF9D564857}" name="Table1316717" displayName="Table1316717" ref="A26:I31" totalsRowShown="0">
-  <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="18">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="17">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="16">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="15">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="14">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="13">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="12">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="11">
-      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1857,33 +2156,67 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6BE19079-7252-4251-9EA9-046E7A11042F}" name="Table13167173" displayName="Table13167173" ref="A36:I41" totalsRowShown="0">
-  <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{11E951F1-5D13-41C6-A7E5-8F4298DA5463}" name="Table13167" displayName="Table13167" ref="A15:I20" totalsRowShown="0">
+  <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="10">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="9">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="8">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="7">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="6">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="5">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="4">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="3">
-      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="51">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="50">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="49">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="48">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="47">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="46">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="45">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="44">
+      <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{60D4A7A8-82BF-4B58-A912-589523D22F05}" name="Table131679" displayName="Table131679" ref="K11:S17" totalsRowShown="0">
+  <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="43">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="42">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="41">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="40">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="39">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="38">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="37">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="36">
+      <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1895,29 +2228,97 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="150">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="170">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="149">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="169">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="148">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="168">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="147">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="167">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="146">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="166">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="145">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="165">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="144">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="164">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="143">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="163">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{57801F89-51BE-4BC1-9BA3-39DF9D564857}" name="Table1316717" displayName="Table1316717" ref="A26:I31" totalsRowShown="0">
+  <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="35">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="34">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="33">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="32">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="31">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="30">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="29">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="28">
+      <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6BE19079-7252-4251-9EA9-046E7A11042F}" name="Table13167173" displayName="Table13167173" ref="A36:I41" totalsRowShown="0">
+  <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="27">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="26">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="25">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="24">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="23">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="22">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="21">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="20">
+      <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1937,7 +2338,7 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="142">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="162">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1950,28 +2351,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="141">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="161">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="160">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="139">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="159">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="138">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="158">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="137">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="157">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="136">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="156">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="135">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="155">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="134">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="154">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1992,7 +2393,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="133">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="153">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2005,28 +2406,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="132">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="152">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="131">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="151">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="130">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="150">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="129">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="149">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="128">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="148">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="127">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="147">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="126">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="146">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="125">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="145">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2047,7 +2448,7 @@
     <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="124">
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="144">
       <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2060,28 +2461,28 @@
   <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="123">
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="143">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="122">
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="142">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="121">
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="141">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="120">
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="140">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="119">
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="139">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="118">
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="138">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="117">
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="137">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="116">
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="136">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2947,7 +3348,7 @@
   <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A2" sqref="A2:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,7 +3717,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L3" sqref="L3:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,6 +4059,372 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5005335F-A4EA-4889-9D4A-6AE8EF295080}">
+  <dimension ref="A2:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Table1682134[[#This Row],[HP]:[LUK]])</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>Table13161833[[#This Row],[Level]]*75 + 500</f>
+        <v>575</v>
+      </c>
+      <c r="C8">
+        <f>Table13161833[[#This Row],[Level]]*10+20</f>
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f>Table13161833[[#This Row],[Level]]*1.5+ 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="E8">
+        <f>Table13161833[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="F8">
+        <f>Table13161833[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <f>Table13161833[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="H8">
+        <f>Table13161833[[#This Row],[Level]]*1.375 + 15</f>
+        <v>16.375</v>
+      </c>
+      <c r="I8">
+        <f>Table13161833[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f>Table13161833[[#This Row],[Level]]*75 + 500</f>
+        <v>1625</v>
+      </c>
+      <c r="C9">
+        <f>Table13161833[[#This Row],[Level]]*10+20</f>
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <f>Table13161833[[#This Row],[Level]]*1.5+ 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="E9">
+        <f>Table13161833[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="F9">
+        <f>Table13161833[[#This Row],[Level]]*1 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <f>Table13161833[[#This Row],[Level]]*1.5 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="H9">
+        <f>Table13161833[[#This Row],[Level]]*1.375 + 15</f>
+        <v>35.625</v>
+      </c>
+      <c r="I9">
+        <f>Table13161833[[#This Row],[Level]]*1.125 + 15</f>
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <f>Table13161833[[#This Row],[Level]]*75 + 500</f>
+        <v>2375</v>
+      </c>
+      <c r="C10">
+        <f>Table13161833[[#This Row],[Level]]*10+20</f>
+        <v>270</v>
+      </c>
+      <c r="D10">
+        <f>Table13161833[[#This Row],[Level]]*1.5+ 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="E10">
+        <f>Table13161833[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="F10">
+        <f>Table13161833[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f>Table13161833[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="H10">
+        <f>Table13161833[[#This Row],[Level]]*1.375 + 15</f>
+        <v>49.375</v>
+      </c>
+      <c r="I10">
+        <f>Table13161833[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <f>Table13161833[[#This Row],[Level]]*75 + 500</f>
+        <v>3125</v>
+      </c>
+      <c r="C11">
+        <f>Table13161833[[#This Row],[Level]]*10+20</f>
+        <v>370</v>
+      </c>
+      <c r="D11">
+        <f>Table13161833[[#This Row],[Level]]*1.5+ 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="E11">
+        <f>Table13161833[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="F11">
+        <f>Table13161833[[#This Row],[Level]]*1 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <f>Table13161833[[#This Row],[Level]]*1.5 + 15</f>
+        <v>67.5</v>
+      </c>
+      <c r="H11">
+        <f>Table13161833[[#This Row],[Level]]*1.375 + 15</f>
+        <v>63.125</v>
+      </c>
+      <c r="I11">
+        <f>Table13161833[[#This Row],[Level]]*1.125 + 15</f>
+        <v>54.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f>Table13161833[[#This Row],[Level]]*75 + 500</f>
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <f>Table13161833[[#This Row],[Level]]*10+20</f>
+        <v>220</v>
+      </c>
+      <c r="D12">
+        <f>Table13161833[[#This Row],[Level]]*1.5+ 15</f>
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <f>Table13161833[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <f>Table13161833[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <f>Table13161833[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <f>Table13161833[[#This Row],[Level]]*1.375 + 15</f>
+        <v>42.5</v>
+      </c>
+      <c r="I12">
+        <f>Table13161833[[#This Row],[Level]]*1.125 + 15</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <f>(Table192235[Level]*75 + 500)*2</f>
+        <v>4000</v>
+      </c>
+      <c r="C16" s="3">
+        <f>Table192235[[#This Row],[Level]]*14 + 80</f>
+        <v>360</v>
+      </c>
+      <c r="D16" s="3">
+        <f>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</f>
+        <v>95</v>
+      </c>
+      <c r="E16" s="3">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3">
+        <f>Table192235[Level]*1.5+15+50</f>
+        <v>95</v>
+      </c>
+      <c r="G16" s="3">
+        <v>75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>42.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>37.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4195E475-9F10-4DD8-82F0-E47D9A595A6E}">
   <dimension ref="A2:S41"/>
   <sheetViews>
@@ -7153,7 +7920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA7AE8E-3CBD-43D4-8334-3506A3BDF6FA}">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="7" activeTab="11" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="8" activeTab="13" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="VillianCanson" sheetId="4" r:id="rId11"/>
     <sheet name="Death Lord" sheetId="15" r:id="rId12"/>
     <sheet name="Goblin" sheetId="2" r:id="rId13"/>
+    <sheet name="Slimes" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="56">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -202,6 +203,9 @@
   <si>
     <t>Death Lords are giant undead</t>
   </si>
+  <si>
+    <t>Slime</t>
+  </si>
 </sst>
 </file>
 
@@ -277,7 +281,130 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="180">
+  <dxfs count="189">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -598,102 +725,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1612,7 +1643,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="179">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="188">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1633,7 +1664,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="135">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="144">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1646,28 +1677,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="134">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="143">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="133">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="142">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="132">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="141">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="131">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="140">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="130">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="139">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="129">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="138">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="128">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="137">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="127">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="136">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1688,7 +1719,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="126">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="135">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1701,28 +1732,28 @@
   <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="125">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="134">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="124">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="133">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="123">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="132">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="122">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="131">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="121">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="130">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="120">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="129">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="119">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="128">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="118">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="127">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1743,7 +1774,7 @@
     <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="117">
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="126">
       <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1756,28 +1787,28 @@
   <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="116">
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="125">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="115">
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="124">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="114">
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="123">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="113">
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="122">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="112">
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="121">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="111">
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="120">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="110">
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="119">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="109">
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="118">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1798,7 +1829,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="108">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="117">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1811,28 +1842,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="107">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="116">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="106">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="115">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="105">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="114">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="104">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="113">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="103">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="112">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="102">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="111">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="101">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="110">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="100">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="109">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1845,28 +1876,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="99">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="108">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="98">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="107">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="97">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="106">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="96">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="105">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="95">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="104">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="94">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="103">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="93">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="102">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="92">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="101">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1879,28 +1910,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="91">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="100">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="99">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="98">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="97">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="87">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="96">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="86">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="95">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="85">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="94">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="84">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="93">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1913,28 +1944,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="178">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="187">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="177">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="186">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="176">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="185">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="175">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="184">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="174">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="183">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="173">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="182">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="172">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="181">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="171">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="180">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1955,7 +1986,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="83">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="92">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1964,22 +1995,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="82" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="91" tableBorderDxfId="90">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="79">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="88">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="78">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="87">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="82"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1990,28 +2021,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="71">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="80">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="70">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="79">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="69">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="78">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="68">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="77">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="67">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="76">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="66">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="75">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="65">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="74">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="64">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="73">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2020,32 +2051,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="72" tableBorderDxfId="71">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="69">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="59">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="68">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="58">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="67">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="57">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="66">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="65">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="55">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="64">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="54">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="63">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="53">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="62">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2058,28 +2089,28 @@
   <autoFilter ref="A7:I12" xr:uid="{553298A4-7E43-42CF-9EEB-1F9E7E6BAD27}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AA35C8B-719C-4BA6-9CDF-2963E1C9F233}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="61">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="60">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="59">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="58">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="57">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="15">
+    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="56">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="55">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="54">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2100,7 +2131,7 @@
     <tableColumn id="7" xr3:uid="{5A405725-30A7-487F-95BF-061F71CA9C61}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{644DEF70-6EBD-403E-904B-6C30E5FBEA48}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{BA93DA54-96B9-48D1-80BB-C266771E13F1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="53">
       <calculatedColumnFormula>SUM(Table1682134[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2109,26 +2140,26 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="A15:I16" xr:uid="{D0DF3ED4-9A21-493B-88F4-CE5814AF31C9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="49">
       <calculatedColumnFormula>(Table192235[Level]*75 + 500)*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="48">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*14 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="47">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="45">
       <calculatedColumnFormula>Table192235[Level]*1.5+15+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2147,7 +2178,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="52">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="41">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2160,28 +2191,28 @@
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="51">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="40">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="39">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="49">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="38">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="48">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="37">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="47">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="36">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="46">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="35">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="45">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="34">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="44">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="33">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2194,28 +2225,28 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="43">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="32">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="42">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="31">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="41">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="30">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="40">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="29">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="39">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="28">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="38">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="27">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="37">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="26">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="36">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="25">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2228,28 +2259,28 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="170">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="179">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="169">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="178">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="168">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="177">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="167">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="176">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="166">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="175">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="165">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="174">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="164">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="173">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="163">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="172">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2262,28 +2293,28 @@
   <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="35">
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="24">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="34">
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="23">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="33">
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="22">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="32">
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="21">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="31">
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="20">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="19">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="29">
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="18">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="17">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2296,29 +2327,84 @@
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="16">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="15">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="14">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="13">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="12">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="11">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="10">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="20">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="9">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{E4471554-FCCF-4CBD-B1D2-34C3D61042AD}" name="Table168213429" displayName="Table168213429" ref="A3:J4" totalsRowShown="0">
+  <autoFilter ref="A3:J4" xr:uid="{B7276DA8-436B-4A87-A068-359A8A999C7E}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{5B20A54B-B88D-4A60-AC76-0D908355E6BA}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{68EBB8E2-05D1-4EDB-9CDA-3AD9FF254CCC}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{8A304FC7-0E71-4252-847F-360347B995ED}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{7083D6DB-67C9-429B-B586-FA259E20A040}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{32627FC9-83F7-4B6B-BCEF-A7C48D737A49}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{25B3F460-3592-4647-BCA0-54E890CB0695}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{09E4151E-54A0-41FF-BA5B-3B1C748DA23D}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{909575E0-EC13-4E35-A35F-2451A5741589}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{2CDCF32E-D8FC-48D9-A28D-8D9C5F3EB001}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="8">
+      <calculatedColumnFormula>SUM(Table168213429[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{E8776A97-35F2-43E5-8B1D-D6E628AF44FA}" name="Table1316183336" displayName="Table1316183336" ref="A7:I12" totalsRowShown="0">
+  <autoFilter ref="A7:I12" xr:uid="{4ED64482-035D-49B9-A477-A1D5AEB4A5A4}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{141B0E2E-D4F3-4884-86FD-AAD67C363749}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="4">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*88</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="7">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="3">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="2">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="6">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="1">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="0">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="5">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2338,7 +2424,7 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="162">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="171">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2351,28 +2437,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="161">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="170">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="160">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="169">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="159">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="168">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="158">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="167">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="157">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="166">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="156">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="165">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="155">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="164">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="154">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="163">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2393,7 +2479,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="153">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="162">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2406,28 +2492,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="152">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="161">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="151">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="160">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="150">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="159">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="149">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="158">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="148">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="157">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="147">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="156">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="146">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="155">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="145">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="154">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2448,7 +2534,7 @@
     <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="144">
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="153">
       <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2461,28 +2547,28 @@
   <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="143">
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="152">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="142">
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="151">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="141">
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="150">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="140">
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="149">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="139">
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="148">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="138">
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="147">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="137">
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="146">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="136">
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="145">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4062,8 +4148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5005335F-A4EA-4889-9D4A-6AE8EF295080}">
   <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5528,6 +5614,304 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6D1546-413F-4D33-8AC9-20828C70BDCB}">
+  <dimension ref="A3:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>SUM(Table168213429[[#This Row],[HP]:[LUK]])</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>Table1316183336[[#This Row],[Level]]*88</f>
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <f>Table1316183336[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="E8">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="F8">
+        <f>Table1316183336[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="H8">
+        <f>Table1316183336[[#This Row],[Level]]*1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="I8">
+        <f>Table1316183336[[#This Row],[Level]]*1.125</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f>Table1316183336[[#This Row],[Level]]*88</f>
+        <v>1320</v>
+      </c>
+      <c r="C9">
+        <f>Table1316183336[[#This Row],[Level]]*10</f>
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>67.5</v>
+      </c>
+      <c r="E9">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>67.5</v>
+      </c>
+      <c r="F9">
+        <f>Table1316183336[[#This Row],[Level]]*1</f>
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>67.5</v>
+      </c>
+      <c r="H9">
+        <f>Table1316183336[[#This Row],[Level]]*1.5</f>
+        <v>22.5</v>
+      </c>
+      <c r="I9">
+        <f>Table1316183336[[#This Row],[Level]]*1.125</f>
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <f>Table1316183336[[#This Row],[Level]]*88</f>
+        <v>2200</v>
+      </c>
+      <c r="C10">
+        <f>Table1316183336[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>112.5</v>
+      </c>
+      <c r="E10">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>112.5</v>
+      </c>
+      <c r="F10">
+        <f>Table1316183336[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>112.5</v>
+      </c>
+      <c r="H10">
+        <f>Table1316183336[[#This Row],[Level]]*1.5</f>
+        <v>37.5</v>
+      </c>
+      <c r="I10">
+        <f>Table1316183336[[#This Row],[Level]]*1.125</f>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <f>Table1316183336[[#This Row],[Level]]*88</f>
+        <v>3080</v>
+      </c>
+      <c r="C11">
+        <f>Table1316183336[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="D11">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>157.5</v>
+      </c>
+      <c r="E11">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>157.5</v>
+      </c>
+      <c r="F11">
+        <f>Table1316183336[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>157.5</v>
+      </c>
+      <c r="H11">
+        <f>Table1316183336[[#This Row],[Level]]*1.5</f>
+        <v>52.5</v>
+      </c>
+      <c r="I11">
+        <f>Table1316183336[[#This Row],[Level]]*1.125</f>
+        <v>39.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f>Table1316183336[[#This Row],[Level]]*88</f>
+        <v>1760</v>
+      </c>
+      <c r="C12">
+        <f>Table1316183336[[#This Row],[Level]]*10</f>
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>90</v>
+      </c>
+      <c r="E12">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <f>Table1316183336[[#This Row],[Level]]*1</f>
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
+        <v>90</v>
+      </c>
+      <c r="H12">
+        <f>Table1316183336[[#This Row],[Level]]*1.5</f>
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <f>Table1316183336[[#This Row],[Level]]*1.125</f>
+        <v>22.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DFDAFD-5CD5-4F03-8B08-1FCB08CB3DEC}">
   <dimension ref="A2:J17"/>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -2382,28 +2382,28 @@
   <autoFilter ref="A7:I12" xr:uid="{4ED64482-035D-49B9-A477-A1D5AEB4A5A4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{141B0E2E-D4F3-4884-86FD-AAD67C363749}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="4">
-      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*88</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="0">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*125</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="7">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="6">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="2">
-      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="6">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="5">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="1">
-      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="0">
+      <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="4">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="3">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5619,7 +5619,7 @@
   <dimension ref="A3:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5661,7 +5661,7 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5670,13 +5670,13 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="J4">
         <f>SUM(Table168213429[[#This Row],[HP]:[LUK]])</f>
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5723,8 +5723,8 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <f>Table1316183336[[#This Row],[Level]]*88</f>
-        <v>88</v>
+        <f>Table1316183336[[#This Row],[Level]]*125</f>
+        <v>125</v>
       </c>
       <c r="C8">
         <f>Table1316183336[[#This Row],[Level]]*10</f>
@@ -5735,16 +5735,16 @@
         <v>4.5</v>
       </c>
       <c r="E8">
-        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>4.5</v>
+        <f>Table1316183336[[#This Row],[Level]]*6</f>
+        <v>6</v>
       </c>
       <c r="F8">
         <f>Table1316183336[[#This Row],[Level]]*1</f>
         <v>1</v>
       </c>
       <c r="G8">
-        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>4.5</v>
+        <f>Table1316183336[[#This Row],[Level]]*6</f>
+        <v>6</v>
       </c>
       <c r="H8">
         <f>Table1316183336[[#This Row],[Level]]*1.5</f>
@@ -5760,8 +5760,8 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <f>Table1316183336[[#This Row],[Level]]*88</f>
-        <v>1320</v>
+        <f>Table1316183336[[#This Row],[Level]]*125</f>
+        <v>1875</v>
       </c>
       <c r="C9">
         <f>Table1316183336[[#This Row],[Level]]*10</f>
@@ -5772,16 +5772,16 @@
         <v>67.5</v>
       </c>
       <c r="E9">
-        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>67.5</v>
+        <f>Table1316183336[[#This Row],[Level]]*6</f>
+        <v>90</v>
       </c>
       <c r="F9">
         <f>Table1316183336[[#This Row],[Level]]*1</f>
         <v>15</v>
       </c>
       <c r="G9">
-        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>67.5</v>
+        <f>Table1316183336[[#This Row],[Level]]*6</f>
+        <v>90</v>
       </c>
       <c r="H9">
         <f>Table1316183336[[#This Row],[Level]]*1.5</f>
@@ -5797,8 +5797,8 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <f>Table1316183336[[#This Row],[Level]]*88</f>
-        <v>2200</v>
+        <f>Table1316183336[[#This Row],[Level]]*125</f>
+        <v>3125</v>
       </c>
       <c r="C10">
         <f>Table1316183336[[#This Row],[Level]]*10</f>
@@ -5809,16 +5809,16 @@
         <v>112.5</v>
       </c>
       <c r="E10">
-        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>112.5</v>
+        <f>Table1316183336[[#This Row],[Level]]*6</f>
+        <v>150</v>
       </c>
       <c r="F10">
         <f>Table1316183336[[#This Row],[Level]]*1</f>
         <v>25</v>
       </c>
       <c r="G10">
-        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>112.5</v>
+        <f>Table1316183336[[#This Row],[Level]]*6</f>
+        <v>150</v>
       </c>
       <c r="H10">
         <f>Table1316183336[[#This Row],[Level]]*1.5</f>
@@ -5834,8 +5834,8 @@
         <v>35</v>
       </c>
       <c r="B11">
-        <f>Table1316183336[[#This Row],[Level]]*88</f>
-        <v>3080</v>
+        <f>Table1316183336[[#This Row],[Level]]*125</f>
+        <v>4375</v>
       </c>
       <c r="C11">
         <f>Table1316183336[[#This Row],[Level]]*10</f>
@@ -5846,16 +5846,16 @@
         <v>157.5</v>
       </c>
       <c r="E11">
-        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>157.5</v>
+        <f>Table1316183336[[#This Row],[Level]]*6</f>
+        <v>210</v>
       </c>
       <c r="F11">
         <f>Table1316183336[[#This Row],[Level]]*1</f>
         <v>35</v>
       </c>
       <c r="G11">
-        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>157.5</v>
+        <f>Table1316183336[[#This Row],[Level]]*6</f>
+        <v>210</v>
       </c>
       <c r="H11">
         <f>Table1316183336[[#This Row],[Level]]*1.5</f>
@@ -5871,8 +5871,8 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <f>Table1316183336[[#This Row],[Level]]*88</f>
-        <v>1760</v>
+        <f>Table1316183336[[#This Row],[Level]]*125</f>
+        <v>2500</v>
       </c>
       <c r="C12">
         <f>Table1316183336[[#This Row],[Level]]*10</f>
@@ -5883,16 +5883,16 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>90</v>
+        <f>Table1316183336[[#This Row],[Level]]*6</f>
+        <v>120</v>
       </c>
       <c r="F12">
         <f>Table1316183336[[#This Row],[Level]]*1</f>
         <v>20</v>
       </c>
       <c r="G12">
-        <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>90</v>
+        <f>Table1316183336[[#This Row],[Level]]*6</f>
+        <v>120</v>
       </c>
       <c r="H12">
         <f>Table1316183336[[#This Row],[Level]]*1.5</f>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="8" activeTab="13" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="8" activeTab="14" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Death Lord" sheetId="15" r:id="rId12"/>
     <sheet name="Goblin" sheetId="2" r:id="rId13"/>
     <sheet name="Slimes" sheetId="16" r:id="rId14"/>
+    <sheet name="Corpse Eater" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="57">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -206,6 +207,9 @@
   <si>
     <t>Slime</t>
   </si>
+  <si>
+    <t>Corpse Eater</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +285,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="189">
+  <dxfs count="198">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1643,7 +1674,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="188">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="197">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1664,7 +1695,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="144">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="153">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1677,28 +1708,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="143">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="152">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="142">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="151">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="141">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="150">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="140">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="149">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="139">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="148">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="138">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="147">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="137">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="146">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="136">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="145">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1719,7 +1750,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="135">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="144">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1732,28 +1763,28 @@
   <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="134">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="143">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="133">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="142">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="132">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="141">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="131">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="140">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="130">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="139">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="129">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="138">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="128">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="137">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="127">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="136">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1774,7 +1805,7 @@
     <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="126">
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="135">
       <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1787,28 +1818,28 @@
   <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="125">
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="134">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="124">
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="133">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="123">
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="132">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="122">
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="131">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="121">
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="130">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="120">
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="129">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="119">
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="128">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="118">
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="127">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1829,7 +1860,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="117">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="126">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1842,28 +1873,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="116">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="125">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="115">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="124">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="114">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="123">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="113">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="122">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="112">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="121">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="111">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="120">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="110">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="119">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="109">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="118">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1876,28 +1907,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="108">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="117">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="107">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="116">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="106">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="115">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="105">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="114">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="104">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="113">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="103">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="112">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="102">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="111">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="101">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="110">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1910,28 +1941,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="100">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="109">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="99">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="108">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="98">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="107">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="97">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="106">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="96">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="105">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="95">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="104">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="94">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="103">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="93">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="102">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1944,28 +1975,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="187">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="196">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="186">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="195">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="185">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="194">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="184">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="193">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="183">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="192">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="182">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="191">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="181">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="190">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="180">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="189">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1986,7 +2017,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="92">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="101">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1995,22 +2026,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="91" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="100" tableBorderDxfId="99">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="88">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="97">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="87">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="96">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2021,28 +2052,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="80">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="89">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="79">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="88">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="78">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="87">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="77">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="86">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="76">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="85">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="75">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="84">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="74">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="83">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="73">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="82">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2051,32 +2082,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="72" tableBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="78">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="68">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="77">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="67">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="76">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="66">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="75">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="65">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="74">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="64">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="73">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="63">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="72">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="62">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="71">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2089,28 +2120,28 @@
   <autoFilter ref="A7:I12" xr:uid="{553298A4-7E43-42CF-9EEB-1F9E7E6BAD27}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AA35C8B-719C-4BA6-9CDF-2963E1C9F233}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="70">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="69">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="68">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="67">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="57">
+    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="66">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="56">
+    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="65">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="55">
+    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="64">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="54">
+    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="63">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2131,7 +2162,7 @@
     <tableColumn id="7" xr3:uid="{5A405725-30A7-487F-95BF-061F71CA9C61}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{644DEF70-6EBD-403E-904B-6C30E5FBEA48}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{BA93DA54-96B9-48D1-80BB-C266771E13F1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="62">
       <calculatedColumnFormula>SUM(Table1682134[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2140,26 +2171,26 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A15:I16" xr:uid="{D0DF3ED4-9A21-493B-88F4-CE5814AF31C9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="58">
       <calculatedColumnFormula>(Table192235[Level]*75 + 500)*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="57">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*14 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="56">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="45">
+    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="54">
       <calculatedColumnFormula>Table192235[Level]*1.5+15+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2178,7 +2209,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="41">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="50">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2191,28 +2222,28 @@
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="40">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="49">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="48">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="47">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="46">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="45">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="35">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="44">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="43">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="42">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2225,28 +2256,28 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="41">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="40">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="39">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="38">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="37">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="36">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="35">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="34">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2259,28 +2290,28 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="179">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="188">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="178">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="187">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="177">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="186">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="176">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="185">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="175">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="184">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="174">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="183">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="173">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="182">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="172">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="181">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2293,28 +2324,28 @@
   <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="33">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="32">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="31">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="30">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="29">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="28">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="27">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="26">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2327,28 +2358,28 @@
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="25">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="24">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="23">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="22">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="21">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="20">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="19">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="18">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2369,7 +2400,7 @@
     <tableColumn id="7" xr3:uid="{09E4151E-54A0-41FF-BA5B-3B1C748DA23D}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{909575E0-EC13-4E35-A35F-2451A5741589}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CDCF32E-D8FC-48D9-A28D-8D9C5F3EB001}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="17">
       <calculatedColumnFormula>SUM(Table168213429[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2382,29 +2413,84 @@
   <autoFilter ref="A7:I12" xr:uid="{4ED64482-035D-49B9-A477-A1D5AEB4A5A4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{141B0E2E-D4F3-4884-86FD-AAD67C363749}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="16">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*125</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="15">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="14">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="13">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="12">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="11">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="10">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="9">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.125</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{1BF38CE5-AE76-4D55-A7A1-A0031AB12082}" name="Table16821342932" displayName="Table16821342932" ref="A2:J3" totalsRowShown="0">
+  <autoFilter ref="A2:J3" xr:uid="{7DA0C592-B226-4929-8531-42F076DA52EC}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3A64E47E-25C8-4094-A361-6EFD40EA5158}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{0CA8146C-91BF-4F90-B048-1F984082990B}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{CE821208-5046-4677-97B3-53026C5E6EB5}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{BCDAC572-3A17-4261-A6F7-47414761764B}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{E65F8E36-7291-4370-8BAA-C711A8B38D65}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{23BEB1EA-9AE5-41A1-95A0-F6255A1D9952}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{07EA0638-8880-4944-AC9E-13E3F1B9F651}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{AA18E602-126F-4D69-9CC8-C097E8EB9C70}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{5563B0CB-2EA7-4851-8D1F-D77E0F90CBAD}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="8">
+      <calculatedColumnFormula>SUM(Table16821342932[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{FB5A8576-9AFA-4611-8031-671097B463A2}" name="Table131618333637" displayName="Table131618333637" ref="A5:I10" totalsRowShown="0">
+  <autoFilter ref="A5:I10" xr:uid="{2922C913-6AE8-4B89-BDA6-9F44D59987D8}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3D67222C-6501-4A5D-A9FC-528EE591A288}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="6">
+      <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="7">
+      <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="5">
+      <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*4.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="4">
+      <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="3">
+      <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="2">
+      <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="1">
+      <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="0">
+      <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2424,7 +2510,7 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="171">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="180">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2437,28 +2523,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="170">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="179">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="169">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="178">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="168">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="177">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="167">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="176">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="166">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="175">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="165">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="174">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="164">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="173">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="163">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="172">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2479,7 +2565,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="162">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="171">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2492,28 +2578,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="161">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="170">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="160">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="169">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="159">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="168">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="158">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="167">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="157">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="166">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="156">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="165">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="155">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="164">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="154">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="163">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2534,7 +2620,7 @@
     <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="153">
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="162">
       <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2547,28 +2633,28 @@
   <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="152">
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="161">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="151">
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="160">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="150">
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="159">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="149">
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="158">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="148">
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="157">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="147">
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="156">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="146">
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="155">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="145">
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="154">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5618,8 +5704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6D1546-413F-4D33-8AC9-20828C70BDCB}">
   <dimension ref="A3:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5901,6 +5987,304 @@
       <c r="I12">
         <f>Table1316183336[[#This Row],[Level]]*1.125</f>
         <v>22.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76FD8A7-49F8-4714-9911-92DFAEEE64EB}">
+  <dimension ref="A2:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <f>SUM(Table16821342932[[#This Row],[HP]:[LUK]])</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>Table131618333637[[#This Row],[Level]]*100</f>
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <f>Table131618333637[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>Table131618333637[[#This Row],[Level]]*4.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="E6">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f>Table131618333637[[#This Row],[Level]]*6</f>
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f>Table131618333637[[#This Row],[Level]]*1.5</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <f>Table131618333637[[#This Row],[Level]]*100</f>
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <f>Table131618333637[[#This Row],[Level]]*10</f>
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <f>Table131618333637[[#This Row],[Level]]*4.5</f>
+        <v>67.5</v>
+      </c>
+      <c r="E7">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <f>Table131618333637[[#This Row],[Level]]*6</f>
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <f>Table131618333637[[#This Row],[Level]]*1.5</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <f>Table131618333637[[#This Row],[Level]]*100</f>
+        <v>2500</v>
+      </c>
+      <c r="C8">
+        <f>Table131618333637[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D8">
+        <f>Table131618333637[[#This Row],[Level]]*4.5</f>
+        <v>112.5</v>
+      </c>
+      <c r="E8">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <f>Table131618333637[[#This Row],[Level]]*6</f>
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <f>Table131618333637[[#This Row],[Level]]*1.5</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <f>Table131618333637[[#This Row],[Level]]*100</f>
+        <v>3500</v>
+      </c>
+      <c r="C9">
+        <f>Table131618333637[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="D9">
+        <f>Table131618333637[[#This Row],[Level]]*4.5</f>
+        <v>157.5</v>
+      </c>
+      <c r="E9">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>105</v>
+      </c>
+      <c r="F9">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>105</v>
+      </c>
+      <c r="G9">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>105</v>
+      </c>
+      <c r="H9">
+        <f>Table131618333637[[#This Row],[Level]]*6</f>
+        <v>210</v>
+      </c>
+      <c r="I9">
+        <f>Table131618333637[[#This Row],[Level]]*1.5</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <f>Table131618333637[[#This Row],[Level]]*100</f>
+        <v>2000</v>
+      </c>
+      <c r="C10">
+        <f>Table131618333637[[#This Row],[Level]]*10</f>
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <f>Table131618333637[[#This Row],[Level]]*4.5</f>
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <f>Table131618333637[[#This Row],[Level]]*3</f>
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <f>Table131618333637[[#This Row],[Level]]*6</f>
+        <v>120</v>
+      </c>
+      <c r="I10">
+        <f>Table131618333637[[#This Row],[Level]]*1.5</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="8" activeTab="14" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="8" activeTab="13" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -2468,10 +2468,10 @@
   <autoFilter ref="A5:I10" xr:uid="{2922C913-6AE8-4B89-BDA6-9F44D59987D8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3D67222C-6501-4A5D-A9FC-528EE591A288}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="7">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="6">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="5">
@@ -5704,8 +5704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6D1546-413F-4D33-8AC9-20828C70BDCB}">
   <dimension ref="A3:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5917,39 +5917,39 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <f>Table1316183336[[#This Row],[Level]]*125</f>
-        <v>4375</v>
+        <v>3125</v>
       </c>
       <c r="C11">
         <f>Table1316183336[[#This Row],[Level]]*10</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D11">
         <f>Table1316183336[[#This Row],[Level]]*4.5</f>
-        <v>157.5</v>
+        <v>112.5</v>
       </c>
       <c r="E11">
         <f>Table1316183336[[#This Row],[Level]]*6</f>
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="F11">
         <f>Table1316183336[[#This Row],[Level]]*1</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <f>Table1316183336[[#This Row],[Level]]*6</f>
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="H11">
         <f>Table1316183336[[#This Row],[Level]]*1.5</f>
-        <v>52.5</v>
+        <v>37.5</v>
       </c>
       <c r="I11">
         <f>Table1316183336[[#This Row],[Level]]*1.125</f>
-        <v>39.375</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6002,7 +6002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76FD8A7-49F8-4714-9911-92DFAEEE64EB}">
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="8" activeTab="13" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="14" activeTab="15" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Goblin" sheetId="2" r:id="rId13"/>
     <sheet name="Slimes" sheetId="16" r:id="rId14"/>
     <sheet name="Corpse Eater" sheetId="17" r:id="rId15"/>
+    <sheet name="Barren Wolf" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="60">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -210,6 +211,15 @@
   <si>
     <t>Corpse Eater</t>
   </si>
+  <si>
+    <t>An Earth type monster, may look similar to normal wolfs but since it’s a monster it is much stronger</t>
+  </si>
+  <si>
+    <t>Barren Wolf</t>
+  </si>
+  <si>
+    <t>Alpha wolf should have mark enemy skill!</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +295,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="198">
+  <dxfs count="207">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1674,7 +1711,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="197">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="206">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1695,7 +1732,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="153">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="162">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1708,28 +1745,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="152">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="161">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="151">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="160">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="150">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="159">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="149">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="158">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="148">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="157">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="147">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="156">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="146">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="155">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="145">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="154">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1750,7 +1787,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="144">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="153">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1763,28 +1800,28 @@
   <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="143">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="152">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="142">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="151">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="141">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="150">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="140">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="149">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="139">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="148">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="138">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="147">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="137">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="146">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="136">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="145">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1805,7 +1842,7 @@
     <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="135">
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="144">
       <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1818,28 +1855,28 @@
   <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="134">
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="143">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="133">
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="142">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="132">
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="141">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="131">
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="140">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="130">
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="139">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="129">
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="138">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="128">
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="137">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="127">
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="136">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1860,7 +1897,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="126">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="135">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1873,28 +1910,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="125">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="134">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="124">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="133">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="123">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="132">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="122">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="131">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="121">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="130">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="120">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="129">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="119">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="128">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="118">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="127">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1907,28 +1944,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="117">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="126">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="116">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="125">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="115">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="124">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="114">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="123">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="113">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="122">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="112">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="121">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="111">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="120">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="110">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="119">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1941,28 +1978,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="109">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="118">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="108">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="117">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="107">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="116">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="106">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="115">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="105">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="114">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="104">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="113">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="103">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="112">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="102">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="111">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1975,28 +2012,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="196">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="205">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="195">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="204">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="194">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="203">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="193">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="202">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="192">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="201">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="191">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="200">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="190">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="199">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="189">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="198">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2017,7 +2054,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="101">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="110">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2026,22 +2063,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="100" tableBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="109" tableBorderDxfId="108">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="97">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="106">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="96">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="105">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2052,28 +2089,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="89">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="98">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="88">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="97">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="87">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="96">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="86">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="95">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="85">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="94">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="84">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="93">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="83">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="92">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="82">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="91">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2082,32 +2119,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="90" tableBorderDxfId="89">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="87">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="77">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="86">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="76">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="85">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="75">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="84">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="74">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="83">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="73">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="82">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="72">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="81">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="71">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="80">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2120,28 +2157,28 @@
   <autoFilter ref="A7:I12" xr:uid="{553298A4-7E43-42CF-9EEB-1F9E7E6BAD27}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AA35C8B-719C-4BA6-9CDF-2963E1C9F233}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="70">
+    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="79">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="69">
+    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="78">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="68">
+    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="77">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="67">
+    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="76">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="66">
+    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="75">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="65">
+    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="74">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="64">
+    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="73">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="63">
+    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="72">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2162,7 +2199,7 @@
     <tableColumn id="7" xr3:uid="{5A405725-30A7-487F-95BF-061F71CA9C61}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{644DEF70-6EBD-403E-904B-6C30E5FBEA48}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{BA93DA54-96B9-48D1-80BB-C266771E13F1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="62">
+    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="71">
       <calculatedColumnFormula>SUM(Table1682134[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2171,26 +2208,26 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="70" tableBorderDxfId="69">
   <autoFilter ref="A15:I16" xr:uid="{D0DF3ED4-9A21-493B-88F4-CE5814AF31C9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="67">
       <calculatedColumnFormula>(Table192235[Level]*75 + 500)*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="66">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*14 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="56">
+    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="65">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="54">
+    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="63">
       <calculatedColumnFormula>Table192235[Level]*1.5+15+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2209,7 +2246,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="50">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="59">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2222,28 +2259,28 @@
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="49">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="58">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="57">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="56">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="55">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="54">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="53">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="43">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="52">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="42">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="51">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2256,28 +2293,28 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="41">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="50">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="49">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="39">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="48">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="38">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="47">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="37">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="46">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="45">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="35">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="44">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="34">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="43">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2290,28 +2327,28 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="188">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="197">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="187">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="196">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="186">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="195">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="185">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="194">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="184">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="193">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="183">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="192">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="182">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="191">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="181">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="190">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2324,28 +2361,28 @@
   <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="33">
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="42">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="41">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="40">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="39">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="38">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="37">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="36">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="26">
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="35">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2358,28 +2395,28 @@
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="25">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="34">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="24">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="33">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="32">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="31">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="30">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="29">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="28">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="27">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2400,7 +2437,7 @@
     <tableColumn id="7" xr3:uid="{09E4151E-54A0-41FF-BA5B-3B1C748DA23D}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{909575E0-EC13-4E35-A35F-2451A5741589}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CDCF32E-D8FC-48D9-A28D-8D9C5F3EB001}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="17">
+    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="26">
       <calculatedColumnFormula>SUM(Table168213429[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2413,28 +2450,28 @@
   <autoFilter ref="A7:I12" xr:uid="{4ED64482-035D-49B9-A477-A1D5AEB4A5A4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{141B0E2E-D4F3-4884-86FD-AAD67C363749}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="25">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*125</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="24">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="23">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="22">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="21">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="20">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="19">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="18">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2455,7 +2492,7 @@
     <tableColumn id="7" xr3:uid="{07EA0638-8880-4944-AC9E-13E3F1B9F651}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AA18E602-126F-4D69-9CC8-C097E8EB9C70}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{5563B0CB-2EA7-4851-8D1F-D77E0F90CBAD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="17">
       <calculatedColumnFormula>SUM(Table16821342932[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2468,29 +2505,84 @@
   <autoFilter ref="A5:I10" xr:uid="{2922C913-6AE8-4B89-BDA6-9F44D59987D8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3D67222C-6501-4A5D-A9FC-528EE591A288}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="16">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="15">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="14">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="13">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="12">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="11">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="10">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="9">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*1.5</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D8FF574E-7CB5-44ED-ACC1-441286183A98}" name="Table1682134293227" displayName="Table1682134293227" ref="A3:J4" totalsRowShown="0">
+  <autoFilter ref="A3:J4" xr:uid="{8A31C229-01C6-437B-9E04-6F843FD0C86C}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{F3569224-AAE7-4DCF-97C9-1036932CDEE2}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{6E383D0B-96C5-451F-A34A-04D1D515E64F}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{388E448C-9DA4-4F05-A4ED-52905AE0B683}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{ACBE6513-AE17-4148-984B-3642C7E81A30}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{232AF18F-B72F-4887-8648-9A98555B95F0}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{8F2BC7A2-DB88-42F9-9985-4935DC400D24}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{C374A90B-690A-432C-974A-C8A7D22E367F}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{05C64890-0DC2-4577-975E-95477DCED789}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{CE6AAEA9-D599-4B9B-BD40-7E602F47088C}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="8">
+      <calculatedColumnFormula>SUM(Table1682134293227[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{74260B06-AD17-472A-BF93-18F4B0E61A60}" name="Table13161833363738" displayName="Table13161833363738" ref="A6:I11" totalsRowShown="0">
+  <autoFilter ref="A6:I11" xr:uid="{D09397F4-7631-4CD3-AF40-3B14C64478EE}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BF4E6A79-8CCF-498E-B3B0-FA782AB06519}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="5">
+      <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*87.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="7">
+      <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="4">
+      <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="1">
+      <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*4.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="2">
+      <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="0">
+      <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="6">
+      <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="3">
+      <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2510,7 +2602,7 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="180">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="189">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2523,28 +2615,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="179">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="188">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="178">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="187">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="177">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="186">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="176">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="185">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="175">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="184">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="174">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="183">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="173">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="182">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="172">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="181">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2565,7 +2657,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="171">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="180">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2578,28 +2670,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="170">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="179">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="169">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="178">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="168">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="177">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="167">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="176">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="166">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="175">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="165">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="174">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="164">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="173">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="163">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="172">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2620,7 +2712,7 @@
     <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="162">
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="171">
       <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2633,28 +2725,28 @@
   <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="161">
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="170">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="160">
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="169">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="159">
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="168">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="158">
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="167">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="157">
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="166">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="156">
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="165">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="155">
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="164">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="154">
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="163">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2962,7 +3054,7 @@
   <dimension ref="A2:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3520,7 +3612,7 @@
   <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3888,8 +3980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED846686-A238-4174-849F-9F6770BD1F9B}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:T3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,7 +4327,7 @@
   <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5704,8 +5796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6D1546-413F-4D33-8AC9-20828C70BDCB}">
   <dimension ref="A3:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5753,16 +5845,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -5772,7 +5864,7 @@
       </c>
       <c r="J4">
         <f>SUM(Table168213429[[#This Row],[HP]:[LUK]])</f>
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6003,7 +6095,7 @@
   <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6051,26 +6143,26 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3">
         <f>SUM(Table16821342932[[#This Row],[HP]:[LUK]])</f>
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6285,6 +6377,314 @@
       <c r="I10">
         <f>Table131618333637[[#This Row],[Level]]*1.5</f>
         <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F7754B-A2F6-4572-9750-3C214A463E7D}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>SUM(Table1682134293227[[#This Row],[HP]:[LUK]])</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>Table13161833363738[[#This Row],[Level]]*87.5</f>
+        <v>87.5</v>
+      </c>
+      <c r="C7">
+        <f>Table13161833363738[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f>Table13161833363738[[#This Row],[Level]]*6</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>Table13161833363738[[#This Row],[Level]]*4.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="F7">
+        <f>Table13161833363738[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>Table13161833363738[[#This Row],[Level]]*3</f>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f>Table13161833363738[[#This Row],[Level]]*6</f>
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f>Table13161833363738[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <f>Table13161833363738[[#This Row],[Level]]*87.5</f>
+        <v>1312.5</v>
+      </c>
+      <c r="C8">
+        <f>Table13161833363738[[#This Row],[Level]]*10</f>
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <f>Table13161833363738[[#This Row],[Level]]*6</f>
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <f>Table13161833363738[[#This Row],[Level]]*4.5</f>
+        <v>67.5</v>
+      </c>
+      <c r="F8">
+        <f>Table13161833363738[[#This Row],[Level]]*1</f>
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <f>Table13161833363738[[#This Row],[Level]]*3</f>
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <f>Table13161833363738[[#This Row],[Level]]*6</f>
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <f>Table13161833363738[[#This Row],[Level]]*1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <f>Table13161833363738[[#This Row],[Level]]*87.5</f>
+        <v>2187.5</v>
+      </c>
+      <c r="C9">
+        <f>Table13161833363738[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D9">
+        <f>Table13161833363738[[#This Row],[Level]]*6</f>
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <f>Table13161833363738[[#This Row],[Level]]*4.5</f>
+        <v>112.5</v>
+      </c>
+      <c r="F9">
+        <f>Table13161833363738[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <f>Table13161833363738[[#This Row],[Level]]*3</f>
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <f>Table13161833363738[[#This Row],[Level]]*6</f>
+        <v>150</v>
+      </c>
+      <c r="I9">
+        <f>Table13161833363738[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <f>Table13161833363738[[#This Row],[Level]]*87.5</f>
+        <v>3062.5</v>
+      </c>
+      <c r="C10">
+        <f>Table13161833363738[[#This Row],[Level]]*10</f>
+        <v>350</v>
+      </c>
+      <c r="D10">
+        <f>Table13161833363738[[#This Row],[Level]]*6</f>
+        <v>210</v>
+      </c>
+      <c r="E10">
+        <f>Table13161833363738[[#This Row],[Level]]*4.5</f>
+        <v>157.5</v>
+      </c>
+      <c r="F10">
+        <f>Table13161833363738[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <f>Table13161833363738[[#This Row],[Level]]*3</f>
+        <v>105</v>
+      </c>
+      <c r="H10">
+        <f>Table13161833363738[[#This Row],[Level]]*6</f>
+        <v>210</v>
+      </c>
+      <c r="I10">
+        <f>Table13161833363738[[#This Row],[Level]]*1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <f>Table13161833363738[[#This Row],[Level]]*87.5</f>
+        <v>1750</v>
+      </c>
+      <c r="C11">
+        <f>Table13161833363738[[#This Row],[Level]]*10</f>
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <f>Table13161833363738[[#This Row],[Level]]*6</f>
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <f>Table13161833363738[[#This Row],[Level]]*4.5</f>
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <f>Table13161833363738[[#This Row],[Level]]*1</f>
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <f>Table13161833363738[[#This Row],[Level]]*3</f>
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <f>Table13161833363738[[#This Row],[Level]]*6</f>
+        <v>120</v>
+      </c>
+      <c r="I11">
+        <f>Table13161833363738[[#This Row],[Level]]*1</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -212,13 +212,13 @@
     <t>Corpse Eater</t>
   </si>
   <si>
-    <t>An Earth type monster, may look similar to normal wolfs but since it’s a monster it is much stronger</t>
-  </si>
-  <si>
     <t>Barren Wolf</t>
   </si>
   <si>
     <t>Alpha wolf should have mark enemy skill!</t>
+  </si>
+  <si>
+    <t>An Earth type monster, may look similar to normal wolfs but since it’s a monster it is much stronger. Base Level 2</t>
   </si>
 </sst>
 </file>
@@ -2560,28 +2560,28 @@
   <autoFilter ref="A6:I11" xr:uid="{D09397F4-7631-4CD3-AF40-3B14C64478EE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BF4E6A79-8CCF-498E-B3B0-FA782AB06519}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="7">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*87.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="6">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="5">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="4">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="3">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="2">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="1">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="0">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6393,19 +6393,19 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6442,7 +6442,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>8</v>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="14" activeTab="15" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="16" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Slimes" sheetId="16" r:id="rId14"/>
     <sheet name="Corpse Eater" sheetId="17" r:id="rId15"/>
     <sheet name="Barren Wolf" sheetId="18" r:id="rId16"/>
+    <sheet name="BanditsAndMercenaries" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="64">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -220,6 +221,18 @@
   <si>
     <t>An Earth type monster, may look similar to normal wolfs but since it’s a monster it is much stronger. Base Level 2</t>
   </si>
+  <si>
+    <t>Lv 20 with Iron equipment, single class, single path?</t>
+  </si>
+  <si>
+    <t>Bandit Warrior, Medium Iron Armor, Two handed weapon -&gt; 40, 19/5</t>
+  </si>
+  <si>
+    <t>Bandit Rogue, light phys armor, dual equipped daggers -&gt; 40, 10/8</t>
+  </si>
+  <si>
+    <t>Bandit Mage, light magic armor, staff -&gt; 40, 4/14</t>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +308,79 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="207">
+  <dxfs count="231">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1711,7 +1796,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="206">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="230">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1732,7 +1817,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="162">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="186">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1745,28 +1830,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="161">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="185">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="160">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="184">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="159">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="183">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="158">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="182">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="157">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="181">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="156">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="180">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="155">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="179">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="154">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="178">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1787,7 +1872,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="153">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="177">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1800,28 +1885,28 @@
   <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="152">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="176">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="151">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="175">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="150">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="174">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="149">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="173">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="148">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="172">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="147">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="171">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="146">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="170">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="145">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="169">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1842,7 +1927,7 @@
     <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="144">
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="168">
       <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1855,28 +1940,28 @@
   <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="143">
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="167">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="142">
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="166">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="141">
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="165">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="140">
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="164">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="139">
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="163">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="138">
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="162">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="137">
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="161">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="136">
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="160">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1897,7 +1982,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="135">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="159">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1910,28 +1995,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="134">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="158">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="133">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="157">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="132">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="156">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="131">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="155">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="130">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="154">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="129">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="153">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="128">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="152">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="127">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="151">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1944,28 +2029,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="126">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="150">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="125">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="149">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="124">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="148">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="123">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="147">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="122">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="146">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="121">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="145">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="120">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="144">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="119">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="143">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1978,28 +2063,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="118">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="142">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="117">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="141">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="116">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="140">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="115">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="139">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="114">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="138">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="113">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="137">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="112">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="136">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="111">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="135">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2012,28 +2097,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="205">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="229">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="204">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="228">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="203">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="227">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="202">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="226">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="201">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="225">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="200">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="224">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="199">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="223">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="198">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="222">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2054,7 +2139,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="110">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="134">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2063,22 +2148,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="109" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="133" tableBorderDxfId="132">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="106">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="130">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="105">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="129">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="127"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="125"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="124"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2089,28 +2174,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="98">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="122">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="97">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="121">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="96">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="120">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="95">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="119">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="94">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="118">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="93">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="117">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="92">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="116">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="91">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="115">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2119,32 +2204,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="90" tableBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="114" tableBorderDxfId="113">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="87">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="111">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="86">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="110">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="85">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="109">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="84">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="108">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="83">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="107">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="82">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="106">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="81">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="105">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="80">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="104">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2157,28 +2242,28 @@
   <autoFilter ref="A7:I12" xr:uid="{553298A4-7E43-42CF-9EEB-1F9E7E6BAD27}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AA35C8B-719C-4BA6-9CDF-2963E1C9F233}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="79">
+    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="103">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="78">
+    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="102">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="77">
+    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="101">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="76">
+    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="100">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="75">
+    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="99">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="74">
+    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="98">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="73">
+    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="97">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="72">
+    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="96">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2199,7 +2284,7 @@
     <tableColumn id="7" xr3:uid="{5A405725-30A7-487F-95BF-061F71CA9C61}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{644DEF70-6EBD-403E-904B-6C30E5FBEA48}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{BA93DA54-96B9-48D1-80BB-C266771E13F1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="71">
+    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="95">
       <calculatedColumnFormula>SUM(Table1682134[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2208,26 +2293,26 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="70" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="94" tableBorderDxfId="93">
   <autoFilter ref="A15:I16" xr:uid="{D0DF3ED4-9A21-493B-88F4-CE5814AF31C9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="67">
+    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="91">
       <calculatedColumnFormula>(Table192235[Level]*75 + 500)*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="66">
+    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="90">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*14 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="65">
+    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="89">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="63">
+    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="87">
       <calculatedColumnFormula>Table192235[Level]*1.5+15+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2246,7 +2331,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="59">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="83">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2259,28 +2344,28 @@
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="58">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="82">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="81">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="56">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="80">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="55">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="79">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="54">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="78">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="53">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="77">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="52">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="76">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="51">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="75">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2293,28 +2378,28 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="74">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="49">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="73">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="48">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="72">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="71">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="46">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="70">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="45">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="69">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="44">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="68">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="43">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="67">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2327,28 +2412,28 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="197">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="221">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="196">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="220">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="195">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="219">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="194">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="218">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="193">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="217">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="192">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="216">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="191">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="215">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="190">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="214">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2361,28 +2446,28 @@
   <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="42">
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="66">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="41">
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="65">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="40">
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="64">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="39">
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="63">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="38">
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="62">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="37">
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="61">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="36">
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="60">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="35">
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="59">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2395,28 +2480,28 @@
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="58">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="33">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="57">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="56">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="55">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="54">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="53">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="28">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="52">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="27">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="51">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2437,7 +2522,7 @@
     <tableColumn id="7" xr3:uid="{09E4151E-54A0-41FF-BA5B-3B1C748DA23D}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{909575E0-EC13-4E35-A35F-2451A5741589}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CDCF32E-D8FC-48D9-A28D-8D9C5F3EB001}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="26">
+    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="50">
       <calculatedColumnFormula>SUM(Table168213429[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2450,28 +2535,28 @@
   <autoFilter ref="A7:I12" xr:uid="{4ED64482-035D-49B9-A477-A1D5AEB4A5A4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{141B0E2E-D4F3-4884-86FD-AAD67C363749}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="25">
+    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="49">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*125</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="24">
+    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="48">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="47">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="46">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="45">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="44">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="43">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="42">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2492,7 +2577,7 @@
     <tableColumn id="7" xr3:uid="{07EA0638-8880-4944-AC9E-13E3F1B9F651}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AA18E602-126F-4D69-9CC8-C097E8EB9C70}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{5563B0CB-2EA7-4851-8D1F-D77E0F90CBAD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="17">
+    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="41">
       <calculatedColumnFormula>SUM(Table16821342932[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2505,28 +2590,28 @@
   <autoFilter ref="A5:I10" xr:uid="{2922C913-6AE8-4B89-BDA6-9F44D59987D8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3D67222C-6501-4A5D-A9FC-528EE591A288}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="40">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="39">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="38">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="37">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="36">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="35">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="34">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="33">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2547,7 +2632,7 @@
     <tableColumn id="7" xr3:uid="{C374A90B-690A-432C-974A-C8A7D22E367F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{05C64890-0DC2-4577-975E-95477DCED789}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{CE6AAEA9-D599-4B9B-BD40-7E602F47088C}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="32">
       <calculatedColumnFormula>SUM(Table1682134293227[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2560,29 +2645,97 @@
   <autoFilter ref="A6:I11" xr:uid="{D09397F4-7631-4CD3-AF40-3B14C64478EE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BF4E6A79-8CCF-498E-B3B0-FA782AB06519}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="31">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*87.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="30">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="29">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="28">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="27">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="26">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="25">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="24">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{DC830F9D-6D0E-4024-B70E-0F7651ABC56D}" name="Table131639" displayName="Table131639" ref="A4:I7" totalsRowShown="0">
+  <autoFilter ref="A4:I7" xr:uid="{DD778A26-93EC-4B14-A9D1-160AE03B48D3}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F0A3DB96-38E4-4CD0-BAF6-C8BB768B1256}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="23">
+      <calculatedColumnFormula>Table131639[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="22">
+      <calculatedColumnFormula>Table131639[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="21">
+      <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="20">
+      <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="19">
+      <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="18">
+      <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15 + 5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="17">
+      <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="16">
+      <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{3EDE85AD-4960-41AB-A603-4ABE8AAA49F8}" name="Table13182227" displayName="Table13182227" ref="A12:I15" totalsRowShown="0">
+  <autoFilter ref="A12:I15" xr:uid="{2A794F38-5DB8-40A3-A8E2-90B5A0A4A192}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C5A2CF3A-0965-428C-AD05-883EDB0D400F}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="15">
+      <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="14">
+      <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="13">
+      <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="10">
+      <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="12">
+      <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="9">
+      <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="8">
+      <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="11">
+      <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2602,8 +2755,42 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="189">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="213">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{B712F8FC-9826-474C-B326-FF2E66C27FA3}" name="Table13162044" displayName="Table13162044" ref="A20:I23" totalsRowShown="0">
+  <autoFilter ref="A20:I23" xr:uid="{6015D08B-C4A1-43B9-B8BF-6F441CC08DCA}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{D4205A68-390A-4750-8556-3B4847E58D16}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="7">
+      <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="6">
+      <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*15+100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="5">
+      <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="1">
+      <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="2">
+      <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="0">
+      <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="4">
+      <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="3">
+      <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2615,28 +2802,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="188">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="212">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="187">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="211">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="186">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="210">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="185">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="209">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="184">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="208">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="183">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="207">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="182">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="206">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="181">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="205">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2657,7 +2844,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="180">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="204">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2670,28 +2857,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="179">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="203">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="178">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="202">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="177">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="201">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="176">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="200">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="175">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="199">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="174">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="198">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="173">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="197">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="172">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="196">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2712,7 +2899,7 @@
     <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="171">
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="195">
       <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2725,28 +2912,28 @@
   <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="170">
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="194">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="169">
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="193">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="168">
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="192">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="167">
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="191">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="166">
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="190">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="165">
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="189">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="164">
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="188">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="163">
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="187">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6392,7 +6579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F7754B-A2F6-4572-9750-3C214A463E7D}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -6696,12 +6883,472 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC26FB-B5E4-44F5-B062-22E344453193}">
+  <dimension ref="A2:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>Table131639[[#This Row],[Level]]*75 + 500</f>
+        <v>575</v>
+      </c>
+      <c r="C5">
+        <f>Table131639[[#This Row],[Level]]*10+20</f>
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <f>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</f>
+        <v>56.375</v>
+      </c>
+      <c r="E5">
+        <f>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>35.375</v>
+      </c>
+      <c r="F5">
+        <f>Table131639[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <f>Table131639[[#This Row],[Level]]*1 + 15 + 5</f>
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I5">
+        <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>Table131639[[#This Row],[Level]]*75 + 500</f>
+        <v>1250</v>
+      </c>
+      <c r="C6">
+        <f>Table131639[[#This Row],[Level]]*10+20</f>
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <f>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</f>
+        <v>68.75</v>
+      </c>
+      <c r="E6">
+        <f>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>47.75</v>
+      </c>
+      <c r="F6">
+        <f>Table131639[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f>Table131639[[#This Row],[Level]]*1 + 15 + 5</f>
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I6">
+        <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <f>Table131639[[#This Row],[Level]]*75 + 500</f>
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <f>Table131639[[#This Row],[Level]]*10+20</f>
+        <v>220</v>
+      </c>
+      <c r="D7">
+        <f>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</f>
+        <v>82.5</v>
+      </c>
+      <c r="E7">
+        <f>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>61.5</v>
+      </c>
+      <c r="F7">
+        <f>Table131639[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <f>Table131639[[#This Row],[Level]]*1 + 15 + 5</f>
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>Table13182227[[#This Row],[Level]]*62.5+ 300</f>
+        <v>362.5</v>
+      </c>
+      <c r="C13">
+        <f>Table13182227[[#This Row],[Level]]*12.5+60</f>
+        <v>72.5</v>
+      </c>
+      <c r="D13">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="E13">
+        <f>Table13182227[[#This Row],[Level]]*1 + 15 + 10</f>
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="G13">
+        <f>Table13182227[[#This Row],[Level]]*1 + 15 + 8</f>
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <f>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>56.5</v>
+      </c>
+      <c r="I13">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <f>Table13182227[[#This Row],[Level]]*62.5+ 300</f>
+        <v>1237.5</v>
+      </c>
+      <c r="C14">
+        <f>Table13182227[[#This Row],[Level]]*12.5+60</f>
+        <v>247.5</v>
+      </c>
+      <c r="D14">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="E14">
+        <f>Table13182227[[#This Row],[Level]]*1 + 15 + 10</f>
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="G14">
+        <f>Table13182227[[#This Row],[Level]]*1 + 15 + 8</f>
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <f>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>77.5</v>
+      </c>
+      <c r="I14">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <f>Table13182227[[#This Row],[Level]]*62.5+ 300</f>
+        <v>1550</v>
+      </c>
+      <c r="C15">
+        <f>Table13182227[[#This Row],[Level]]*12.5+60</f>
+        <v>310</v>
+      </c>
+      <c r="D15">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <f>Table13182227[[#This Row],[Level]]*1 + 15 + 10</f>
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <f>Table13182227[[#This Row],[Level]]*1 + 15 + 8</f>
+        <v>43</v>
+      </c>
+      <c r="H15">
+        <f>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>85</v>
+      </c>
+      <c r="I15">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f>Table13162044[[#This Row],[Level]]*50 + 100</f>
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <f>Table13162044[[#This Row],[Level]]*15+100</f>
+        <v>115</v>
+      </c>
+      <c r="D21">
+        <f>Table13162044[[#This Row],[Level]]*1+ 15</f>
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <f>Table13162044[[#This Row],[Level]]*1 + 15 + 4</f>
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <f>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</f>
+        <v>56.375</v>
+      </c>
+      <c r="G21">
+        <f>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</f>
+        <v>30.375</v>
+      </c>
+      <c r="H21">
+        <f>Table13162044[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="I21">
+        <f>Table13162044[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f>Table13162044[[#This Row],[Level]]*50 + 100</f>
+        <v>600</v>
+      </c>
+      <c r="C22">
+        <f>Table13162044[[#This Row],[Level]]*15+100</f>
+        <v>250</v>
+      </c>
+      <c r="D22">
+        <f>Table13162044[[#This Row],[Level]]*1+ 15</f>
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <f>Table13162044[[#This Row],[Level]]*1 + 15 + 4</f>
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <f>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</f>
+        <v>68.75</v>
+      </c>
+      <c r="G22">
+        <f>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</f>
+        <v>42.75</v>
+      </c>
+      <c r="H22">
+        <f>Table13162044[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="I22">
+        <f>Table13162044[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f>Table13162044[[#This Row],[Level]]*50 + 100</f>
+        <v>1100</v>
+      </c>
+      <c r="C23">
+        <f>Table13162044[[#This Row],[Level]]*15+100</f>
+        <v>400</v>
+      </c>
+      <c r="D23">
+        <f>Table13162044[[#This Row],[Level]]*1+ 15</f>
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <f>Table13162044[[#This Row],[Level]]*1 + 15 + 4</f>
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <f>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</f>
+        <v>82.5</v>
+      </c>
+      <c r="G23">
+        <f>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</f>
+        <v>56.5</v>
+      </c>
+      <c r="H23">
+        <f>Table13162044[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <f>Table13162044[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DFDAFD-5CD5-4F03-8B08-1FCB08CB3DEC}">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6992,39 +7639,39 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <f>Table13161123[[#This Row],[Level]]*63+300</f>
-        <v>1245</v>
+        <v>1560</v>
       </c>
       <c r="C14" s="1">
         <f>Table13161123[[#This Row],[Level]]*10</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D14" s="1">
         <f>Table13161123[[#This Row],[Level]]*1.5+ 15+40</f>
-        <v>77.5</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1">
         <f>Table13161123[[#This Row],[Level]]*1.25 + 15+21</f>
-        <v>54.75</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1">
         <f>Table13161123[[#This Row],[Level]]*1</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1">
         <f>Table13161123[[#This Row],[Level]]*1.25+15 + 7</f>
-        <v>40.75</v>
+        <v>47</v>
       </c>
       <c r="H14" s="1">
         <f>Table13161123[[#This Row],[Level]]*1.25 + 15</f>
-        <v>33.75</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1">
         <f>Table13161123[[#This Row],[Level]]*1</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -2722,19 +2722,19 @@
     <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="13">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="12">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="11">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="10">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="9">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="8">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2777,19 +2777,19 @@
     <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="5">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="4">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="3">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="2">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="1">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="0">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6887,8 +6887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC26FB-B5E4-44F5-B062-22E344453193}">
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="16" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="12" activeTab="17" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Corpse Eater" sheetId="17" r:id="rId15"/>
     <sheet name="Barren Wolf" sheetId="18" r:id="rId16"/>
     <sheet name="BanditsAndMercenaries" sheetId="19" r:id="rId17"/>
+    <sheet name="Behemoth" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="68">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -233,6 +234,18 @@
   <si>
     <t>Bandit Mage, light magic armor, staff -&gt; 40, 4/14</t>
   </si>
+  <si>
+    <t>Base Level 20</t>
+  </si>
+  <si>
+    <t>A powerful species of monsters that are known for their tough hides and massive body</t>
+  </si>
+  <si>
+    <t>Behemoth</t>
+  </si>
+  <si>
+    <t>Lightning Behemoth</t>
+  </si>
 </sst>
 </file>
 
@@ -308,7 +321,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="231">
+  <dxfs count="240">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1796,7 +1836,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="230">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="239">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1817,7 +1857,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="186">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="195">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1830,28 +1870,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="185">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="194">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="184">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="193">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="183">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="192">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="182">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="191">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="181">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="190">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="180">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="189">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="179">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="188">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="178">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="187">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1872,7 +1912,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="177">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="186">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1885,28 +1925,28 @@
   <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="176">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="185">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="175">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="184">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="174">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="183">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="173">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="182">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="172">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="181">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="171">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="180">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="170">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="179">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="169">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="178">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1927,7 +1967,7 @@
     <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="168">
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="177">
       <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1940,28 +1980,28 @@
   <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="167">
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="176">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="166">
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="175">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="165">
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="174">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="164">
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="173">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="163">
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="172">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="162">
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="171">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="161">
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="170">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="160">
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="169">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1982,7 +2022,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="159">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="168">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1995,28 +2035,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="158">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="167">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="157">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="166">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="156">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="165">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="155">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="164">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="154">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="163">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="153">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="162">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="152">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="161">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="151">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="160">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2029,28 +2069,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="150">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="159">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="149">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="158">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="148">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="157">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="147">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="156">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="146">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="155">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="145">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="154">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="144">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="153">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="143">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="152">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2063,28 +2103,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="142">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="151">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="141">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="150">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="140">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="149">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="139">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="148">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="138">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="147">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="137">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="146">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="136">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="145">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="135">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="144">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2097,28 +2137,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="229">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="238">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="228">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="237">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="227">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="236">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="226">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="235">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="225">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="234">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="224">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="233">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="223">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="232">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="222">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="231">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2139,7 +2179,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="134">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="143">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2148,22 +2188,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="133" tableBorderDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="142" tableBorderDxfId="141">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="130">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="139">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="129">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="138">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="127"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="126"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="125"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="124"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="135"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="133"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2174,28 +2214,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="122">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="131">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="121">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="130">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="120">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="129">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="119">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="128">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="118">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="127">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="117">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="126">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="116">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="125">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="115">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="124">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2204,32 +2244,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="114" tableBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="123" tableBorderDxfId="122">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="111">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="120">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="110">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="119">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="109">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="118">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="108">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="117">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="107">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="116">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="106">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="115">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="105">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="114">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="104">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="113">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2242,28 +2282,28 @@
   <autoFilter ref="A7:I12" xr:uid="{553298A4-7E43-42CF-9EEB-1F9E7E6BAD27}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AA35C8B-719C-4BA6-9CDF-2963E1C9F233}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="103">
+    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="112">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="102">
+    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="111">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="101">
+    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="110">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="100">
+    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="109">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="99">
+    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="108">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="98">
+    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="107">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="97">
+    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="106">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="96">
+    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="105">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2284,7 +2324,7 @@
     <tableColumn id="7" xr3:uid="{5A405725-30A7-487F-95BF-061F71CA9C61}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{644DEF70-6EBD-403E-904B-6C30E5FBEA48}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{BA93DA54-96B9-48D1-80BB-C266771E13F1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="95">
+    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="104">
       <calculatedColumnFormula>SUM(Table1682134[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2293,26 +2333,26 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="94" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="103" tableBorderDxfId="102">
   <autoFilter ref="A15:I16" xr:uid="{D0DF3ED4-9A21-493B-88F4-CE5814AF31C9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="91">
+    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="100">
       <calculatedColumnFormula>(Table192235[Level]*75 + 500)*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="99">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*14 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="98">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="87">
+    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="96">
       <calculatedColumnFormula>Table192235[Level]*1.5+15+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="95"/>
+    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="94"/>
+    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2331,7 +2371,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="83">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="92">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2344,28 +2384,28 @@
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="82">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="91">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="81">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="90">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="80">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="89">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="79">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="88">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="78">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="87">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="77">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="86">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="76">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="85">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="75">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="84">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2378,28 +2418,28 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="74">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="83">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="73">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="82">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="72">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="81">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="71">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="80">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="70">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="79">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="69">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="78">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="68">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="77">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="67">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="76">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2412,28 +2452,28 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="221">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="230">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="220">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="229">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="219">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="228">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="218">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="227">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="217">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="226">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="216">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="225">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="215">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="224">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="214">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="223">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2446,28 +2486,28 @@
   <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="66">
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="75">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="65">
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="74">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="64">
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="73">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="63">
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="72">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="62">
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="71">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="61">
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="70">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="60">
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="69">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="59">
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="68">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2480,28 +2520,28 @@
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="58">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="67">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="66">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="56">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="65">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="55">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="64">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="54">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="63">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="53">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="62">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="52">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="61">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="51">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="60">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2522,7 +2562,7 @@
     <tableColumn id="7" xr3:uid="{09E4151E-54A0-41FF-BA5B-3B1C748DA23D}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{909575E0-EC13-4E35-A35F-2451A5741589}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CDCF32E-D8FC-48D9-A28D-8D9C5F3EB001}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="50">
+    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="59">
       <calculatedColumnFormula>SUM(Table168213429[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2535,28 +2575,28 @@
   <autoFilter ref="A7:I12" xr:uid="{4ED64482-035D-49B9-A477-A1D5AEB4A5A4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{141B0E2E-D4F3-4884-86FD-AAD67C363749}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="49">
+    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="58">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*125</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="57">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="56">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="55">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="54">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="53">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="43">
+    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="52">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="42">
+    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="51">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2577,7 +2617,7 @@
     <tableColumn id="7" xr3:uid="{07EA0638-8880-4944-AC9E-13E3F1B9F651}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AA18E602-126F-4D69-9CC8-C097E8EB9C70}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{5563B0CB-2EA7-4851-8D1F-D77E0F90CBAD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="41">
+    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="50">
       <calculatedColumnFormula>SUM(Table16821342932[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2590,28 +2630,28 @@
   <autoFilter ref="A5:I10" xr:uid="{2922C913-6AE8-4B89-BDA6-9F44D59987D8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3D67222C-6501-4A5D-A9FC-528EE591A288}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="40">
+    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="49">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="48">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="47">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="46">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="45">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="35">
+    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="44">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="43">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="42">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2632,7 +2672,7 @@
     <tableColumn id="7" xr3:uid="{C374A90B-690A-432C-974A-C8A7D22E367F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{05C64890-0DC2-4577-975E-95477DCED789}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{CE6AAEA9-D599-4B9B-BD40-7E602F47088C}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="32">
+    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="41">
       <calculatedColumnFormula>SUM(Table1682134293227[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2645,28 +2685,28 @@
   <autoFilter ref="A6:I11" xr:uid="{D09397F4-7631-4CD3-AF40-3B14C64478EE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BF4E6A79-8CCF-498E-B3B0-FA782AB06519}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="31">
+    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="40">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*87.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="30">
+    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="39">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="29">
+    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="38">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="28">
+    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="37">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="27">
+    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="36">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="26">
+    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="35">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="25">
+    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="34">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="24">
+    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="33">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2679,28 +2719,28 @@
   <autoFilter ref="A4:I7" xr:uid="{DD778A26-93EC-4B14-A9D1-160AE03B48D3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F0A3DB96-38E4-4CD0-BAF6-C8BB768B1256}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="23">
+    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="32">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="31">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="30">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="29">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="28">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="27">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="26">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="25">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2713,28 +2753,28 @@
   <autoFilter ref="A12:I15" xr:uid="{2A794F38-5DB8-40A3-A8E2-90B5A0A4A192}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C5A2CF3A-0965-428C-AD05-883EDB0D400F}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="24">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="23">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="22">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="21">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="20">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="19">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="18">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="17">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2755,7 +2795,7 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="213">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="222">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2768,29 +2808,84 @@
   <autoFilter ref="A20:I23" xr:uid="{6015D08B-C4A1-43B9-B8BF-6F441CC08DCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D4205A68-390A-4750-8556-3B4847E58D16}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="16">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="15">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="14">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="13">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="12">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="11">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="10">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="9">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{63EFECE9-294D-4BD5-B983-D7DF0138B45B}" name="Table168213429322745" displayName="Table168213429322745" ref="A4:J6" totalsRowShown="0">
+  <autoFilter ref="A4:J6" xr:uid="{9FA97447-7595-4CE0-9387-AEB91FE50244}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{7D24E108-F205-4844-9096-726AB5440E0C}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{FA8BEA8D-186A-42C6-BB97-7D3D41FC69F3}" name="HP"/>
+    <tableColumn id="3" xr3:uid="{2554DEE3-F2AC-41AE-8D09-AFD14513157A}" name="MP"/>
+    <tableColumn id="4" xr3:uid="{C05874E6-A131-4290-9A55-06434A7A8544}" name="ATK"/>
+    <tableColumn id="5" xr3:uid="{A997C2DA-1C55-4E24-8A16-DFA507252C00}" name="DEF"/>
+    <tableColumn id="6" xr3:uid="{09887E1C-061C-4D52-9F76-E5F031297C8A}" name="MAT"/>
+    <tableColumn id="7" xr3:uid="{6B239F5E-F897-4532-B3C2-8B926BDED5BF}" name="MDF"/>
+    <tableColumn id="8" xr3:uid="{CB8FDC45-B604-4FEB-9A7B-367828FC7568}" name="AGI"/>
+    <tableColumn id="9" xr3:uid="{6C00B6B1-0959-4058-96EE-2711BA8C66BD}" name="LUK"/>
+    <tableColumn id="10" xr3:uid="{1803A62E-480C-481E-8063-2EB8C650EA1D}" name="Total" dataDxfId="8">
+      <calculatedColumnFormula>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{6B246BF5-6CE4-4B50-8843-8DACC434192B}" name="Table1316183336373847" displayName="Table1316183336373847" ref="A8:I13" totalsRowShown="0">
+  <autoFilter ref="A8:I13" xr:uid="{F3DE48F5-A98B-4A15-8805-1948F568C45F}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2E01F6BC-B2F6-42D6-A20F-FDB9BA2D677A}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{21915B10-9976-4EFE-936F-170B253E711B}" name="HP" dataDxfId="5">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*168.75</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{052B9451-309F-4C84-8FC4-08AD4866120D}" name="MP" dataDxfId="7">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="4">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="3">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="6">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="2">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="1">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="0">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*2.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2802,28 +2897,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="212">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="221">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="211">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="220">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="210">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="219">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="209">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="218">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="208">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="217">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="207">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="216">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="206">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="215">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="205">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="214">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2844,7 +2939,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="204">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="213">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2857,28 +2952,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="203">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="212">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="202">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="211">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="201">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="210">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="200">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="209">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="199">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="208">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="198">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="207">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="197">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="206">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="196">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="205">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2899,7 +2994,7 @@
     <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="195">
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="204">
       <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2912,28 +3007,28 @@
   <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="194">
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="203">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="193">
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="202">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="192">
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="201">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="191">
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="200">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="190">
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="199">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="189">
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="198">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="188">
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="197">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="187">
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="196">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5983,8 +6078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6D1546-413F-4D33-8AC9-20828C70BDCB}">
   <dimension ref="A3:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6579,8 +6674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F7754B-A2F6-4572-9750-3C214A463E7D}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6887,8 +6982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC26FB-B5E4-44F5-B062-22E344453193}">
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7339,6 +7434,326 @@
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832521D1-8A9A-424A-96D4-48DD11A591EE}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1">
+        <f>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>Table1316183336373847[[#This Row],[Level]]*168.75</f>
+        <v>168.75</v>
+      </c>
+      <c r="C9">
+        <f>Table1316183336373847[[#This Row],[Level]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="E9">
+        <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
+        <v>4.75</v>
+      </c>
+      <c r="F9">
+        <f>Table1316183336373847[[#This Row],[Level]]*1</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
+        <v>4.75</v>
+      </c>
+      <c r="H9">
+        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="I9">
+        <f>Table1316183336373847[[#This Row],[Level]]*2.125</f>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <f>Table1316183336373847[[#This Row],[Level]]*168.75</f>
+        <v>2531.25</v>
+      </c>
+      <c r="C10">
+        <f>Table1316183336373847[[#This Row],[Level]]*10</f>
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
+        <v>52.5</v>
+      </c>
+      <c r="E10">
+        <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
+        <v>71.25</v>
+      </c>
+      <c r="F10">
+        <f>Table1316183336373847[[#This Row],[Level]]*1</f>
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
+        <v>71.25</v>
+      </c>
+      <c r="H10">
+        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
+        <v>52.5</v>
+      </c>
+      <c r="I10">
+        <f>Table1316183336373847[[#This Row],[Level]]*2.125</f>
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <f>Table1316183336373847[[#This Row],[Level]]*168.75</f>
+        <v>4218.75</v>
+      </c>
+      <c r="C11">
+        <f>Table1316183336373847[[#This Row],[Level]]*10</f>
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
+        <v>87.5</v>
+      </c>
+      <c r="E11">
+        <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
+        <v>118.75</v>
+      </c>
+      <c r="F11">
+        <f>Table1316183336373847[[#This Row],[Level]]*1</f>
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
+        <v>118.75</v>
+      </c>
+      <c r="H11">
+        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
+        <v>87.5</v>
+      </c>
+      <c r="I11">
+        <f>Table1316183336373847[[#This Row],[Level]]*2.125</f>
+        <v>53.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <f>Table1316183336373847[[#This Row],[Level]]*168.75</f>
+        <v>5062.5</v>
+      </c>
+      <c r="C12">
+        <f>Table1316183336373847[[#This Row],[Level]]*10</f>
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
+        <v>105</v>
+      </c>
+      <c r="E12">
+        <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
+        <v>142.5</v>
+      </c>
+      <c r="F12">
+        <f>Table1316183336373847[[#This Row],[Level]]*1</f>
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
+        <v>142.5</v>
+      </c>
+      <c r="H12">
+        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
+        <v>105</v>
+      </c>
+      <c r="I12">
+        <f>Table1316183336373847[[#This Row],[Level]]*2.125</f>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <f>Table1316183336373847[[#This Row],[Level]]*168.75</f>
+        <v>3375</v>
+      </c>
+      <c r="C13">
+        <f>Table1316183336373847[[#This Row],[Level]]*10</f>
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <f>Table1316183336373847[[#This Row],[Level]]*1</f>
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
+        <v>95</v>
+      </c>
+      <c r="H13">
+        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <f>Table1316183336373847[[#This Row],[Level]]*2.125</f>
+        <v>42.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9036,7 +9451,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="12" activeTab="17" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="12" activeTab="16" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="70">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -246,6 +246,12 @@
   <si>
     <t>Lightning Behemoth</t>
   </si>
+  <si>
+    <t>Mercenary Priest, hammer -&gt; 40, 19/5</t>
+  </si>
+  <si>
+    <t>Mercenary Mage. Same equips</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +327,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="240">
+  <dxfs count="248">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1836,7 +1866,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="239">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="247">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1857,7 +1887,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="195">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="203">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1870,28 +1900,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="194">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="202">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="193">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="201">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="192">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="200">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="191">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="199">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="190">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="198">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="189">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="197">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="188">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="196">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="187">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="195">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1912,7 +1942,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="186">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="194">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1925,28 +1955,28 @@
   <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="185">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="193">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="184">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="192">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="183">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="191">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="182">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="190">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="181">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="189">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="180">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="188">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="179">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="187">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="178">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="186">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1967,7 +1997,7 @@
     <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="177">
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="185">
       <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1980,28 +2010,28 @@
   <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="176">
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="184">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="175">
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="183">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="174">
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="182">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="173">
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="181">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="172">
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="180">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="171">
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="179">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="170">
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="178">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="169">
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="177">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2022,7 +2052,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="168">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="176">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2035,28 +2065,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="167">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="175">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="166">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="174">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="165">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="173">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="164">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="172">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="163">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="171">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="162">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="170">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="161">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="169">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="160">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="168">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2069,28 +2099,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="159">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="167">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="158">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="166">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="157">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="165">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="156">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="164">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="155">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="163">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="154">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="162">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="153">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="161">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="152">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="160">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2103,28 +2133,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="151">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="159">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="150">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="158">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="149">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="157">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="148">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="156">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="147">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="155">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="146">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="154">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="145">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="153">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="144">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="152">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2137,28 +2167,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="238">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="246">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="237">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="245">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="236">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="244">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="235">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="243">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="234">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="242">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="233">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="241">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="232">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="240">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="231">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="239">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2179,7 +2209,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="143">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="151">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2188,22 +2218,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="142" tableBorderDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="150" tableBorderDxfId="149">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="139">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="147">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="138">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="146">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="136"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="135"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="134"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="133"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="143"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="142"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="141"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2214,28 +2244,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="131">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="139">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="130">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="138">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="129">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="137">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="128">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="136">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="127">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="135">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="126">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="134">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="125">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="133">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="124">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="132">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2244,32 +2274,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="123" tableBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="131" tableBorderDxfId="130">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="120">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="128">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="119">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="127">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="118">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="126">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="117">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="125">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="116">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="124">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="115">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="123">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="114">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="122">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="113">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="121">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2282,28 +2312,28 @@
   <autoFilter ref="A7:I12" xr:uid="{553298A4-7E43-42CF-9EEB-1F9E7E6BAD27}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AA35C8B-719C-4BA6-9CDF-2963E1C9F233}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="112">
+    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="120">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="111">
+    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="119">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="110">
+    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="118">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="109">
+    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="117">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="108">
+    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="116">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="107">
+    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="115">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="106">
+    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="114">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="105">
+    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="113">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2324,7 +2354,7 @@
     <tableColumn id="7" xr3:uid="{5A405725-30A7-487F-95BF-061F71CA9C61}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{644DEF70-6EBD-403E-904B-6C30E5FBEA48}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{BA93DA54-96B9-48D1-80BB-C266771E13F1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="104">
+    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="112">
       <calculatedColumnFormula>SUM(Table1682134[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2333,26 +2363,26 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="103" tableBorderDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="111" tableBorderDxfId="110">
   <autoFilter ref="A15:I16" xr:uid="{D0DF3ED4-9A21-493B-88F4-CE5814AF31C9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="100">
+    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="108">
       <calculatedColumnFormula>(Table192235[Level]*75 + 500)*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="99">
+    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="107">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*14 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="98">
+    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="106">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="96">
+    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="104">
       <calculatedColumnFormula>Table192235[Level]*1.5+15+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="95"/>
-    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2371,7 +2401,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="92">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="100">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2384,28 +2414,28 @@
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="91">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="99">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="98">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="97">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="96">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="87">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="95">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="86">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="94">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="85">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="93">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="84">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="92">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2418,28 +2448,28 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="83">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="91">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="82">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="90">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="81">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="89">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="80">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="88">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="79">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="87">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="78">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="86">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="77">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="85">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="76">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="84">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2452,28 +2482,28 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="230">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="238">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="229">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="237">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="228">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="236">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="227">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="235">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="226">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="234">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="225">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="233">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="224">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="232">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="223">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="231">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2486,28 +2516,28 @@
   <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="75">
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="83">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="74">
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="82">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="73">
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="81">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="72">
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="80">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="71">
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="79">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="70">
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="78">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="69">
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="77">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="68">
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="76">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2520,28 +2550,28 @@
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="67">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="75">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="66">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="74">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="65">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="73">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="64">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="72">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="63">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="71">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="62">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="70">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="61">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="69">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="60">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="68">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2562,7 +2592,7 @@
     <tableColumn id="7" xr3:uid="{09E4151E-54A0-41FF-BA5B-3B1C748DA23D}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{909575E0-EC13-4E35-A35F-2451A5741589}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CDCF32E-D8FC-48D9-A28D-8D9C5F3EB001}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="59">
+    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="67">
       <calculatedColumnFormula>SUM(Table168213429[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2575,28 +2605,28 @@
   <autoFilter ref="A7:I12" xr:uid="{4ED64482-035D-49B9-A477-A1D5AEB4A5A4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{141B0E2E-D4F3-4884-86FD-AAD67C363749}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="58">
+    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="66">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*125</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="65">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="56">
+    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="64">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="55">
+    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="63">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="54">
+    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="62">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="53">
+    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="61">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="52">
+    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="60">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="51">
+    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="59">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2617,7 +2647,7 @@
     <tableColumn id="7" xr3:uid="{07EA0638-8880-4944-AC9E-13E3F1B9F651}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AA18E602-126F-4D69-9CC8-C097E8EB9C70}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{5563B0CB-2EA7-4851-8D1F-D77E0F90CBAD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="50">
+    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="58">
       <calculatedColumnFormula>SUM(Table16821342932[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2630,28 +2660,28 @@
   <autoFilter ref="A5:I10" xr:uid="{2922C913-6AE8-4B89-BDA6-9F44D59987D8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3D67222C-6501-4A5D-A9FC-528EE591A288}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="49">
+    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="57">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="56">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="55">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="54">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="53">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="52">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="43">
+    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="51">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="42">
+    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="50">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2672,7 +2702,7 @@
     <tableColumn id="7" xr3:uid="{C374A90B-690A-432C-974A-C8A7D22E367F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{05C64890-0DC2-4577-975E-95477DCED789}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{CE6AAEA9-D599-4B9B-BD40-7E602F47088C}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="41">
+    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="49">
       <calculatedColumnFormula>SUM(Table1682134293227[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2685,28 +2715,28 @@
   <autoFilter ref="A6:I11" xr:uid="{D09397F4-7631-4CD3-AF40-3B14C64478EE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BF4E6A79-8CCF-498E-B3B0-FA782AB06519}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="40">
+    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="48">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*87.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="47">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="46">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="45">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="44">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="35">
+    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="43">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="42">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="41">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2715,32 +2745,32 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{DC830F9D-6D0E-4024-B70E-0F7651ABC56D}" name="Table131639" displayName="Table131639" ref="A4:I7" totalsRowShown="0">
-  <autoFilter ref="A4:I7" xr:uid="{DD778A26-93EC-4B14-A9D1-160AE03B48D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{DC830F9D-6D0E-4024-B70E-0F7651ABC56D}" name="Table131639" displayName="Table131639" ref="A4:I9" totalsRowShown="0">
+  <autoFilter ref="A4:I9" xr:uid="{DD778A26-93EC-4B14-A9D1-160AE03B48D3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F0A3DB96-38E4-4CD0-BAF6-C8BB768B1256}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="40">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="39">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="38">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="37">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="36">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="35">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="34">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="33">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2749,32 +2779,32 @@
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{3EDE85AD-4960-41AB-A603-4ABE8AAA49F8}" name="Table13182227" displayName="Table13182227" ref="A12:I15" totalsRowShown="0">
-  <autoFilter ref="A12:I15" xr:uid="{2A794F38-5DB8-40A3-A8E2-90B5A0A4A192}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{3EDE85AD-4960-41AB-A603-4ABE8AAA49F8}" name="Table13182227" displayName="Table13182227" ref="A12:I16" totalsRowShown="0">
+  <autoFilter ref="A12:I16" xr:uid="{2A794F38-5DB8-40A3-A8E2-90B5A0A4A192}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C5A2CF3A-0965-428C-AD05-883EDB0D400F}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="32">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="31">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="30">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="29">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="28">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="27">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="26">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="25">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2795,7 +2825,7 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="222">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="230">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2804,32 +2834,32 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{B712F8FC-9826-474C-B326-FF2E66C27FA3}" name="Table13162044" displayName="Table13162044" ref="A20:I23" totalsRowShown="0">
-  <autoFilter ref="A20:I23" xr:uid="{6015D08B-C4A1-43B9-B8BF-6F441CC08DCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{B712F8FC-9826-474C-B326-FF2E66C27FA3}" name="Table13162044" displayName="Table13162044" ref="A20:I24" totalsRowShown="0">
+  <autoFilter ref="A20:I24" xr:uid="{6015D08B-C4A1-43B9-B8BF-6F441CC08DCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D4205A68-390A-4750-8556-3B4847E58D16}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="24">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="23">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="22">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="21">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="20">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="19">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="18">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="17">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2838,6 +2868,40 @@
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{8A1F9CE0-57B7-46D3-A438-8752A6EBC657}" name="Table131822" displayName="Table131822" ref="A27:I30" totalsRowShown="0">
+  <autoFilter ref="A27:I30" xr:uid="{4506A984-1EE8-4D0B-9AFB-6DE5576F3317}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{97BB3945-930E-41A9-B479-678FD9D8EE85}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{2197951B-D7A2-413F-8152-C8BB282E3498}" name="HP" dataDxfId="7">
+      <calculatedColumnFormula>Table131822[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{54D89380-BDA0-4B18-8B8B-482E9AA62AD3}" name="MP" dataDxfId="6">
+      <calculatedColumnFormula>Table131822[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DCD1A325-B7AE-4283-89E4-85446F157A12}" name="ATK" dataDxfId="5">
+      <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1CD051D4-B531-4706-95A8-BBF452C5188D}" name="DEF" dataDxfId="0">
+      <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.25 + 15 + 19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E17A43F1-7669-40E6-BD8C-8623B203A60F}" name="MAT" dataDxfId="4">
+      <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{04F7D6BA-3673-4BE0-97CA-65C8DD4612E3}" name="MDF" dataDxfId="1">
+      <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.25 + 15 + 5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7AA9AD24-2AFF-4204-AAEF-0CC3265C40FA}" name="AGI" dataDxfId="3">
+      <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{ABFCE932-20B6-4AEE-A261-B747D2EC6FA8}" name="LUK" dataDxfId="2">
+      <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{63EFECE9-294D-4BD5-B983-D7DF0138B45B}" name="Table168213429322745" displayName="Table168213429322745" ref="A4:J6" totalsRowShown="0">
   <autoFilter ref="A4:J6" xr:uid="{9FA97447-7595-4CE0-9387-AEB91FE50244}"/>
   <tableColumns count="10">
@@ -2850,7 +2914,7 @@
     <tableColumn id="7" xr3:uid="{6B239F5E-F897-4532-B3C2-8B926BDED5BF}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB8FDC45-B604-4FEB-9A7B-367828FC7568}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6C00B6B1-0959-4058-96EE-2711BA8C66BD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{1803A62E-480C-481E-8063-2EB8C650EA1D}" name="Total" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{1803A62E-480C-481E-8063-2EB8C650EA1D}" name="Total" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2858,33 +2922,33 @@
 </table>
 </file>
 
-<file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{6B246BF5-6CE4-4B50-8843-8DACC434192B}" name="Table1316183336373847" displayName="Table1316183336373847" ref="A8:I13" totalsRowShown="0">
   <autoFilter ref="A8:I13" xr:uid="{F3DE48F5-A98B-4A15-8805-1948F568C45F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2E01F6BC-B2F6-42D6-A20F-FDB9BA2D677A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{21915B10-9976-4EFE-936F-170B253E711B}" name="HP" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{21915B10-9976-4EFE-936F-170B253E711B}" name="HP" dataDxfId="15">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*168.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{052B9451-309F-4C84-8FC4-08AD4866120D}" name="MP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{052B9451-309F-4C84-8FC4-08AD4866120D}" name="MP" dataDxfId="14">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="13">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="12">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="11">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="10">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="9">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="8">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*2.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2897,28 +2961,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="221">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="229">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="220">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="228">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="219">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="227">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="218">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="226">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="217">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="225">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="216">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="224">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="215">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="223">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="214">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="222">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2939,7 +3003,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="213">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="221">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2952,28 +3016,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="212">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="220">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="211">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="219">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="210">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="218">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="209">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="217">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="208">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="216">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="207">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="215">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="206">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="214">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="205">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="213">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2994,7 +3058,7 @@
     <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="204">
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="212">
       <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3007,28 +3071,28 @@
   <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="203">
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="211">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="202">
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="210">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="201">
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="209">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="200">
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="208">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="199">
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="207">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="198">
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="206">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="197">
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="205">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="196">
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="204">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6980,10 +7044,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC26FB-B5E4-44F5-B062-22E344453193}">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7138,6 +7202,80 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <f>Table131639[[#This Row],[Level]]*75 + 500</f>
+        <v>2150</v>
+      </c>
+      <c r="C8" s="1">
+        <f>Table131639[[#This Row],[Level]]*10+20</f>
+        <v>240</v>
+      </c>
+      <c r="D8" s="1">
+        <f>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</f>
+        <v>85.25</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>64.25</v>
+      </c>
+      <c r="F8" s="1">
+        <f>Table131639[[#This Row],[Level]]*1 + 15</f>
+        <v>37</v>
+      </c>
+      <c r="G8" s="1">
+        <f>Table131639[[#This Row],[Level]]*1 + 15 + 5</f>
+        <v>42</v>
+      </c>
+      <c r="H8" s="1">
+        <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
+        <v>42.5</v>
+      </c>
+      <c r="I8" s="1">
+        <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Table131639[[#This Row],[Level]]*75 + 500</f>
+        <v>2375</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Table131639[[#This Row],[Level]]*10+20</f>
+        <v>270</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</f>
+        <v>89.375</v>
+      </c>
+      <c r="E9" s="1">
+        <f>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</f>
+        <v>68.375</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Table131639[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Table131639[[#This Row],[Level]]*1 + 15 + 5</f>
+        <v>45</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I9" s="1">
+        <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
@@ -7283,9 +7421,51 @@
         <v>40</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <f>Table13182227[[#This Row],[Level]]*62.5+ 300</f>
+        <v>1862.5</v>
+      </c>
+      <c r="C16" s="1">
+        <f>Table13182227[[#This Row],[Level]]*12.5+60</f>
+        <v>372.5</v>
+      </c>
+      <c r="D16" s="1">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="E16" s="1">
+        <f>Table13182227[[#This Row],[Level]]*1 + 15 + 10</f>
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="G16" s="1">
+        <f>Table13182227[[#This Row],[Level]]*1 + 15 + 8</f>
+        <v>48</v>
+      </c>
+      <c r="H16" s="1">
+        <f>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>92.5</v>
+      </c>
+      <c r="I16" s="1">
+        <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -7428,12 +7608,195 @@
         <v>40</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <f>Table13162044[[#This Row],[Level]]*50 + 100</f>
+        <v>1350</v>
+      </c>
+      <c r="C24" s="1">
+        <f>Table13162044[[#This Row],[Level]]*15+100</f>
+        <v>475</v>
+      </c>
+      <c r="D24" s="1">
+        <f>Table13162044[[#This Row],[Level]]*1+ 15</f>
+        <v>40</v>
+      </c>
+      <c r="E24" s="1">
+        <f>Table13162044[[#This Row],[Level]]*1 + 15 + 4</f>
+        <v>44</v>
+      </c>
+      <c r="F24" s="1">
+        <f>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</f>
+        <v>89.375</v>
+      </c>
+      <c r="G24" s="1">
+        <f>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</f>
+        <v>63.375</v>
+      </c>
+      <c r="H24" s="1">
+        <f>Table13162044[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="I24" s="1">
+        <f>Table13162044[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f>Table131822[[#This Row],[Level]]*62.5+ 300</f>
+        <v>362.5</v>
+      </c>
+      <c r="C28">
+        <f>Table131822[[#This Row],[Level]]*12.5+60</f>
+        <v>72.5</v>
+      </c>
+      <c r="D28">
+        <f>Table131822[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+      <c r="E28">
+        <f>Table131822[[#This Row],[Level]]*1.25 + 15 + 19</f>
+        <v>35.25</v>
+      </c>
+      <c r="F28">
+        <f>Table131822[[#This Row],[Level]]*1.125 + 15</f>
+        <v>16.125</v>
+      </c>
+      <c r="G28">
+        <f>Table131822[[#This Row],[Level]]*1.25 + 15 + 5</f>
+        <v>21.25</v>
+      </c>
+      <c r="H28">
+        <f>Table131822[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <f>Table131822[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <f>Table131822[[#This Row],[Level]]*62.5+ 300</f>
+        <v>1550</v>
+      </c>
+      <c r="C29">
+        <f>Table131822[[#This Row],[Level]]*12.5+60</f>
+        <v>310</v>
+      </c>
+      <c r="D29">
+        <f>Table131822[[#This Row],[Level]]*1.125 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="E29">
+        <f>Table131822[[#This Row],[Level]]*1.25 + 15 + 19</f>
+        <v>59</v>
+      </c>
+      <c r="F29">
+        <f>Table131822[[#This Row],[Level]]*1.125 + 15</f>
+        <v>37.5</v>
+      </c>
+      <c r="G29">
+        <f>Table131822[[#This Row],[Level]]*1.25 + 15 + 5</f>
+        <v>45</v>
+      </c>
+      <c r="H29">
+        <f>Table131822[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <f>Table131822[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <f>Table131822[[#This Row],[Level]]*62.5+ 300</f>
+        <v>1862.5</v>
+      </c>
+      <c r="C30">
+        <f>Table131822[[#This Row],[Level]]*12.5+60</f>
+        <v>372.5</v>
+      </c>
+      <c r="D30">
+        <f>Table131822[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+      <c r="E30">
+        <f>Table131822[[#This Row],[Level]]*1.25 + 15 + 19</f>
+        <v>65.25</v>
+      </c>
+      <c r="F30">
+        <f>Table131822[[#This Row],[Level]]*1.125 + 15</f>
+        <v>43.125</v>
+      </c>
+      <c r="G30">
+        <f>Table131822[[#This Row],[Level]]*1.25 + 15 + 5</f>
+        <v>51.25</v>
+      </c>
+      <c r="H30">
+        <f>Table131822[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <f>Table131822[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>92.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7442,7 +7805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832521D1-8A9A-424A-96D4-48DD11A591EE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="12" activeTab="16" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="12" activeTab="17" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,8 @@
     <sheet name="Corpse Eater" sheetId="17" r:id="rId15"/>
     <sheet name="Barren Wolf" sheetId="18" r:id="rId16"/>
     <sheet name="BanditsAndMercenaries" sheetId="19" r:id="rId17"/>
-    <sheet name="Behemoth" sheetId="20" r:id="rId18"/>
+    <sheet name="Chelsea" sheetId="21" r:id="rId18"/>
+    <sheet name="Behemoth" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="71">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -252,6 +253,9 @@
   <si>
     <t>Mercenary Mage. Same equips</t>
   </si>
+  <si>
+    <t>Chelsea, light phys armor, dual equipped daggers -&gt; 40, 10/8 + 8 + 8</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +331,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="248">
+  <dxfs count="256">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1866,7 +1894,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="247">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="255">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1887,7 +1915,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="203">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="211">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1900,28 +1928,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="202">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="210">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="201">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="209">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="200">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="208">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="199">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="207">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="198">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="206">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="197">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="205">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="196">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="204">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="195">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="203">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1942,7 +1970,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="194">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="202">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1955,28 +1983,28 @@
   <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="193">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="201">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="192">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="200">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="191">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="199">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="190">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="198">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="189">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="197">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="188">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="196">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="187">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="195">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="186">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="194">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1997,7 +2025,7 @@
     <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="185">
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="193">
       <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2010,28 +2038,28 @@
   <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="184">
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="192">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="183">
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="191">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="182">
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="190">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="181">
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="189">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="180">
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="188">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="179">
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="187">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="178">
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="186">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="177">
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="185">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2052,7 +2080,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="176">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="184">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2065,28 +2093,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="175">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="183">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="174">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="182">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="173">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="181">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="172">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="180">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="171">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="179">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="170">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="178">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="169">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="177">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="168">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="176">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2099,28 +2127,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="167">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="175">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="166">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="174">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="165">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="173">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="164">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="172">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="163">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="171">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="162">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="170">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="161">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="169">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="160">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="168">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2133,28 +2161,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="159">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="167">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="158">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="166">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="157">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="165">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="156">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="164">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="155">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="163">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="154">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="162">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="153">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="161">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="152">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="160">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2167,28 +2195,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="246">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="254">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="245">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="253">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="244">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="252">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="243">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="251">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="242">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="250">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="241">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="249">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="240">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="248">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="239">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="247">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2209,7 +2237,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="151">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="159">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2218,22 +2246,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="150" tableBorderDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="158" tableBorderDxfId="157">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="147">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="155">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="146">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="154">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="143"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="142"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="141"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="153"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="152"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="151"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="149"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2244,28 +2272,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="139">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="147">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="138">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="146">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="137">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="145">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="136">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="144">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="135">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="143">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="134">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="142">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="133">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="141">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="132">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="140">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2274,32 +2302,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="131" tableBorderDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="139" tableBorderDxfId="138">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="128">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="137"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="136">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="127">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="135">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="126">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="134">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="125">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="133">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="124">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="132">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="123">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="131">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="122">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="130">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="121">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="129">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2312,28 +2340,28 @@
   <autoFilter ref="A7:I12" xr:uid="{553298A4-7E43-42CF-9EEB-1F9E7E6BAD27}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AA35C8B-719C-4BA6-9CDF-2963E1C9F233}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="120">
+    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="128">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="119">
+    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="127">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="118">
+    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="126">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="117">
+    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="125">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="116">
+    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="124">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="115">
+    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="123">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="114">
+    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="122">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="113">
+    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="121">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2354,7 +2382,7 @@
     <tableColumn id="7" xr3:uid="{5A405725-30A7-487F-95BF-061F71CA9C61}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{644DEF70-6EBD-403E-904B-6C30E5FBEA48}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{BA93DA54-96B9-48D1-80BB-C266771E13F1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="112">
+    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="120">
       <calculatedColumnFormula>SUM(Table1682134[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2363,26 +2391,26 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="111" tableBorderDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="119" tableBorderDxfId="118">
   <autoFilter ref="A15:I16" xr:uid="{D0DF3ED4-9A21-493B-88F4-CE5814AF31C9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="108">
+    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="116">
       <calculatedColumnFormula>(Table192235[Level]*75 + 500)*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="107">
+    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="115">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*14 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="106">
+    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="114">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="105"/>
-    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="104">
+    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="112">
       <calculatedColumnFormula>Table192235[Level]*1.5+15+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2401,7 +2429,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="100">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="108">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2414,28 +2442,28 @@
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="99">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="107">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="98">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="106">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="97">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="105">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="96">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="104">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="95">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="103">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="94">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="102">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="93">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="101">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="92">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="100">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2448,28 +2476,28 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="91">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="99">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="98">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="97">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="96">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="87">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="95">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="86">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="94">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="85">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="93">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="84">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="92">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2482,28 +2510,28 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="238">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="246">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="237">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="245">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="236">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="244">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="235">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="243">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="234">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="242">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="233">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="241">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="232">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="240">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="231">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="239">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2516,28 +2544,28 @@
   <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="83">
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="91">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="82">
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="90">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="81">
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="89">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="80">
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="88">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="79">
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="87">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="78">
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="86">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="77">
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="85">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="76">
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="84">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2550,28 +2578,28 @@
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="75">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="83">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="74">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="82">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="73">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="81">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="72">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="80">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="71">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="79">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="70">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="78">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="69">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="77">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="68">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="76">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2592,7 +2620,7 @@
     <tableColumn id="7" xr3:uid="{09E4151E-54A0-41FF-BA5B-3B1C748DA23D}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{909575E0-EC13-4E35-A35F-2451A5741589}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CDCF32E-D8FC-48D9-A28D-8D9C5F3EB001}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="67">
+    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="75">
       <calculatedColumnFormula>SUM(Table168213429[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2605,28 +2633,28 @@
   <autoFilter ref="A7:I12" xr:uid="{4ED64482-035D-49B9-A477-A1D5AEB4A5A4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{141B0E2E-D4F3-4884-86FD-AAD67C363749}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="66">
+    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="74">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*125</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="65">
+    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="73">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="64">
+    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="72">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="63">
+    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="71">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="62">
+    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="70">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="61">
+    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="69">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="60">
+    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="68">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="59">
+    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="67">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2647,7 +2675,7 @@
     <tableColumn id="7" xr3:uid="{07EA0638-8880-4944-AC9E-13E3F1B9F651}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AA18E602-126F-4D69-9CC8-C097E8EB9C70}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{5563B0CB-2EA7-4851-8D1F-D77E0F90CBAD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="58">
+    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="66">
       <calculatedColumnFormula>SUM(Table16821342932[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2660,28 +2688,28 @@
   <autoFilter ref="A5:I10" xr:uid="{2922C913-6AE8-4B89-BDA6-9F44D59987D8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3D67222C-6501-4A5D-A9FC-528EE591A288}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="57">
+    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="65">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="56">
+    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="64">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="55">
+    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="63">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="54">
+    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="62">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="53">
+    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="61">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="52">
+    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="60">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="51">
+    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="59">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="50">
+    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="58">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2702,7 +2730,7 @@
     <tableColumn id="7" xr3:uid="{C374A90B-690A-432C-974A-C8A7D22E367F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{05C64890-0DC2-4577-975E-95477DCED789}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{CE6AAEA9-D599-4B9B-BD40-7E602F47088C}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="49">
+    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="57">
       <calculatedColumnFormula>SUM(Table1682134293227[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2715,28 +2743,28 @@
   <autoFilter ref="A6:I11" xr:uid="{D09397F4-7631-4CD3-AF40-3B14C64478EE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BF4E6A79-8CCF-498E-B3B0-FA782AB06519}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="48">
+    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="56">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*87.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="47">
+    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="55">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="46">
+    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="54">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="45">
+    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="53">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="44">
+    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="52">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="43">
+    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="51">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="42">
+    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="50">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="41">
+    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="49">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2749,28 +2777,28 @@
   <autoFilter ref="A4:I9" xr:uid="{DD778A26-93EC-4B14-A9D1-160AE03B48D3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F0A3DB96-38E4-4CD0-BAF6-C8BB768B1256}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="40">
+    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="48">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="47">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="46">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="45">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="44">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="35">
+    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="43">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="42">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="41">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2783,28 +2811,28 @@
   <autoFilter ref="A12:I16" xr:uid="{2A794F38-5DB8-40A3-A8E2-90B5A0A4A192}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C5A2CF3A-0965-428C-AD05-883EDB0D400F}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="40">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="39">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="38">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="37">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="36">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="35">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="34">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="33">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2825,7 +2853,7 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="230">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="238">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2838,28 +2866,28 @@
   <autoFilter ref="A20:I24" xr:uid="{6015D08B-C4A1-43B9-B8BF-6F441CC08DCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D4205A68-390A-4750-8556-3B4847E58D16}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="32">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="31">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="30">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="29">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="28">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="27">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="26">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="25">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2872,28 +2900,28 @@
   <autoFilter ref="A27:I30" xr:uid="{4506A984-1EE8-4D0B-9AFB-6DE5576F3317}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{97BB3945-930E-41A9-B479-678FD9D8EE85}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{2197951B-D7A2-413F-8152-C8BB282E3498}" name="HP" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{2197951B-D7A2-413F-8152-C8BB282E3498}" name="HP" dataDxfId="24">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{54D89380-BDA0-4B18-8B8B-482E9AA62AD3}" name="MP" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{54D89380-BDA0-4B18-8B8B-482E9AA62AD3}" name="MP" dataDxfId="23">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DCD1A325-B7AE-4283-89E4-85446F157A12}" name="ATK" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{DCD1A325-B7AE-4283-89E4-85446F157A12}" name="ATK" dataDxfId="22">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CD051D4-B531-4706-95A8-BBF452C5188D}" name="DEF" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{1CD051D4-B531-4706-95A8-BBF452C5188D}" name="DEF" dataDxfId="21">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.25 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E17A43F1-7669-40E6-BD8C-8623B203A60F}" name="MAT" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{E17A43F1-7669-40E6-BD8C-8623B203A60F}" name="MAT" dataDxfId="20">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{04F7D6BA-3673-4BE0-97CA-65C8DD4612E3}" name="MDF" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{04F7D6BA-3673-4BE0-97CA-65C8DD4612E3}" name="MDF" dataDxfId="19">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.25 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7AA9AD24-2AFF-4204-AAEF-0CC3265C40FA}" name="AGI" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{7AA9AD24-2AFF-4204-AAEF-0CC3265C40FA}" name="AGI" dataDxfId="18">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABFCE932-20B6-4AEE-A261-B747D2EC6FA8}" name="LUK" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{ABFCE932-20B6-4AEE-A261-B747D2EC6FA8}" name="LUK" dataDxfId="17">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2902,6 +2930,40 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{B11B1E6C-19A5-42E4-847D-0CD22EB4A103}" name="Table1318222743" displayName="Table1318222743" ref="A3:I7" totalsRowShown="0">
+  <autoFilter ref="A3:I7" xr:uid="{7F8360B3-D323-4505-8E52-764F2EEFEF08}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2DA75379-E191-41C6-A461-F7A952576C54}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{0E110670-3AC7-427B-B6F4-6865DC721C3B}" name="HP" dataDxfId="16">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{DD071379-690C-45AA-9EB0-1452F203E78A}" name="MP" dataDxfId="15">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{16C4CC92-9435-4196-8A09-D27E77854475}" name="ATK" dataDxfId="14">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{ACFF3F1F-0DEB-4962-A30C-E7A1BD1814C4}" name="DEF" dataDxfId="13">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{AF9BE2E5-89EE-468C-B0ED-D05B0FFE3880}" name="MAT" dataDxfId="12">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{BF26333D-F5E1-471D-8EB4-69106E629333}" name="MDF" dataDxfId="11">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{419D6271-6B9C-434E-BF38-4DE7848F9419}" name="AGI" dataDxfId="10">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{CB85A19D-24B4-428F-A77F-481DA3FAACF8}" name="LUK" dataDxfId="9">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{63EFECE9-294D-4BD5-B983-D7DF0138B45B}" name="Table168213429322745" displayName="Table168213429322745" ref="A4:J6" totalsRowShown="0">
   <autoFilter ref="A4:J6" xr:uid="{9FA97447-7595-4CE0-9387-AEB91FE50244}"/>
   <tableColumns count="10">
@@ -2914,7 +2976,7 @@
     <tableColumn id="7" xr3:uid="{6B239F5E-F897-4532-B3C2-8B926BDED5BF}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB8FDC45-B604-4FEB-9A7B-367828FC7568}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6C00B6B1-0959-4058-96EE-2711BA8C66BD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{1803A62E-480C-481E-8063-2EB8C650EA1D}" name="Total" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{1803A62E-480C-481E-8063-2EB8C650EA1D}" name="Total" dataDxfId="8">
       <calculatedColumnFormula>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2922,33 +2984,33 @@
 </table>
 </file>
 
-<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{6B246BF5-6CE4-4B50-8843-8DACC434192B}" name="Table1316183336373847" displayName="Table1316183336373847" ref="A8:I13" totalsRowShown="0">
   <autoFilter ref="A8:I13" xr:uid="{F3DE48F5-A98B-4A15-8805-1948F568C45F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2E01F6BC-B2F6-42D6-A20F-FDB9BA2D677A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{21915B10-9976-4EFE-936F-170B253E711B}" name="HP" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{21915B10-9976-4EFE-936F-170B253E711B}" name="HP" dataDxfId="7">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*168.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{052B9451-309F-4C84-8FC4-08AD4866120D}" name="MP" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{052B9451-309F-4C84-8FC4-08AD4866120D}" name="MP" dataDxfId="6">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="5">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="4">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="3">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="2">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="1">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="0">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*2.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2961,28 +3023,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="229">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="237">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="228">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="236">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="227">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="235">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="226">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="234">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="225">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="233">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="224">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="232">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="223">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="231">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="222">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="230">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3003,7 +3065,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="221">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="229">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3016,28 +3078,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="220">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="228">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="219">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="227">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="218">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="226">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="217">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="225">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="216">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="224">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="215">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="223">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="214">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="222">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="213">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="221">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3058,7 +3120,7 @@
     <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="212">
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="220">
       <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3071,28 +3133,28 @@
   <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="211">
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="219">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="210">
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="218">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="209">
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="217">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="208">
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="216">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="207">
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="215">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="206">
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="214">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="205">
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="213">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="204">
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="212">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7046,8 +7108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC26FB-B5E4-44F5-B062-22E344453193}">
   <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7802,6 +7864,206 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20BDF8A-A837-40AC-945B-5DCD3F792613}">
+  <dimension ref="A2:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>Table1318222743[[#This Row],[Level]]*62.5+ 300</f>
+        <v>362.5</v>
+      </c>
+      <c r="C4">
+        <f>Table1318222743[[#This Row],[Level]]*12.5+60</f>
+        <v>72.5</v>
+      </c>
+      <c r="D4">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="E4">
+        <f>Table1318222743[[#This Row],[Level]]*1 + 15 + 10</f>
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="G4">
+        <f>Table1318222743[[#This Row],[Level]]*1 + 15 + 8</f>
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <f>Table1318222743[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>56.5</v>
+      </c>
+      <c r="I4">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>Table1318222743[[#This Row],[Level]]*62.5+ 300</f>
+        <v>1237.5</v>
+      </c>
+      <c r="C5">
+        <f>Table1318222743[[#This Row],[Level]]*12.5+60</f>
+        <v>247.5</v>
+      </c>
+      <c r="D5">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="E5">
+        <f>Table1318222743[[#This Row],[Level]]*1 + 15 + 10</f>
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+      <c r="G5">
+        <f>Table1318222743[[#This Row],[Level]]*1 + 15 + 8</f>
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <f>Table1318222743[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>77.5</v>
+      </c>
+      <c r="I5">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <f>Table1318222743[[#This Row],[Level]]*62.5+ 300</f>
+        <v>1675</v>
+      </c>
+      <c r="C6">
+        <f>Table1318222743[[#This Row],[Level]]*12.5+60</f>
+        <v>335</v>
+      </c>
+      <c r="D6">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>42.5</v>
+      </c>
+      <c r="E6">
+        <f>Table1318222743[[#This Row],[Level]]*1 + 15 + 10</f>
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>42.5</v>
+      </c>
+      <c r="G6">
+        <f>Table1318222743[[#This Row],[Level]]*1 + 15 + 8</f>
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <f>Table1318222743[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <f>Table1318222743[[#This Row],[Level]]*62.5+ 300</f>
+        <v>1862.5</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Table1318222743[[#This Row],[Level]]*12.5+60</f>
+        <v>372.5</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Table1318222743[[#This Row],[Level]]*1 + 15 + 10</f>
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Table1318222743[[#This Row],[Level]]*1 + 15 + 8</f>
+        <v>48</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Table1318222743[[#This Row],[Level]]*1.5 + 15 + 40</f>
+        <v>92.5</v>
+      </c>
+      <c r="I7" s="1">
+        <f>Table1318222743[[#This Row],[Level]]*1.25 + 15</f>
+        <v>46.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832521D1-8A9A-424A-96D4-48DD11A591EE}">
   <dimension ref="A1:J13"/>
   <sheetViews>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="12" activeTab="17" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="14" activeTab="16" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="73">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -256,12 +256,18 @@
   <si>
     <t>Chelsea, light phys armor, dual equipped daggers -&gt; 40, 10/8 + 8 + 8</t>
   </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Mercenary Golem, -&gt; 40 Attack, 20 Def, 40 MDF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,16 +275,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -317,21 +343,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="256">
+  <dxfs count="264">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1894,7 +1987,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="255">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="263">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1915,7 +2008,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="211">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="219">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1928,28 +2021,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="210">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="218">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="209">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="217">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="208">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="216">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="207">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="215">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="206">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="214">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="205">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="213">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="204">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="212">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="203">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="211">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1970,7 +2063,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="202">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="210">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1983,28 +2076,28 @@
   <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="201">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="209">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="200">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="208">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="199">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="207">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="198">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="206">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="197">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="205">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="196">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="204">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="195">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="203">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="194">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="202">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2025,7 +2118,7 @@
     <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="193">
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="201">
       <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2038,28 +2131,28 @@
   <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="192">
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="200">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="191">
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="199">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="190">
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="198">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="189">
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="197">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="188">
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="196">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="187">
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="195">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="186">
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="194">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="185">
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="193">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2080,7 +2173,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="184">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="192">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2093,28 +2186,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="183">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="191">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="182">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="190">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="181">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="189">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="180">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="188">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="179">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="187">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="178">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="186">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="177">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="185">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="176">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="184">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2127,28 +2220,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="175">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="183">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="174">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="182">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="173">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="181">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="172">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="180">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="171">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="179">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="170">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="178">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="169">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="177">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="168">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="176">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2161,28 +2254,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="167">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="175">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="166">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="174">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="165">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="173">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="164">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="172">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="163">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="171">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="162">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="170">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="161">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="169">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="160">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="168">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2195,28 +2288,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="254">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="262">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="253">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="261">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="252">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="260">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="251">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="259">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="250">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="258">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="249">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="257">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="248">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="256">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="247">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="255">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2237,7 +2330,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="159">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="167">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2246,22 +2339,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="158" tableBorderDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="166" tableBorderDxfId="165">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="155">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="163">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="154">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="162">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="153"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="152"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="151"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="150"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="149"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="148"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="161"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="160"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="159"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="158"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="157"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2272,28 +2365,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="147">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="155">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="146">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="154">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="145">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="153">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="144">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="152">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="143">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="151">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="142">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="150">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="141">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="149">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="140">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="148">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2302,32 +2395,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="139" tableBorderDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="147" tableBorderDxfId="146">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="136">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="144">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="135">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="143">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="134">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="142">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="133">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="141">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="132">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="140">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="131">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="139">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="130">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="138">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="129">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="137">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2340,28 +2433,28 @@
   <autoFilter ref="A7:I12" xr:uid="{553298A4-7E43-42CF-9EEB-1F9E7E6BAD27}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AA35C8B-719C-4BA6-9CDF-2963E1C9F233}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="128">
+    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="136">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="127">
+    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="135">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="126">
+    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="134">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="125">
+    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="133">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="124">
+    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="132">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="123">
+    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="131">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="122">
+    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="130">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="121">
+    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="129">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2382,7 +2475,7 @@
     <tableColumn id="7" xr3:uid="{5A405725-30A7-487F-95BF-061F71CA9C61}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{644DEF70-6EBD-403E-904B-6C30E5FBEA48}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{BA93DA54-96B9-48D1-80BB-C266771E13F1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="120">
+    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="128">
       <calculatedColumnFormula>SUM(Table1682134[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2391,26 +2484,26 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="119" tableBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="127" tableBorderDxfId="126">
   <autoFilter ref="A15:I16" xr:uid="{D0DF3ED4-9A21-493B-88F4-CE5814AF31C9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="124">
       <calculatedColumnFormula>(Table192235[Level]*75 + 500)*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="115">
+    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="123">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*14 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="114">
+    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="122">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="112">
+    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="120">
       <calculatedColumnFormula>Table192235[Level]*1.5+15+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="109"/>
+    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="119"/>
+    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="118"/>
+    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2429,7 +2522,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="108">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="116">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2442,28 +2535,28 @@
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="107">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="115">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="106">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="114">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="105">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="113">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="104">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="112">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="103">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="111">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="102">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="110">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="101">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="109">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="100">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="108">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2476,28 +2569,28 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="99">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="107">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="98">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="106">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="97">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="105">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="96">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="104">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="95">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="103">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="94">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="102">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="93">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="101">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="92">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="100">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2510,28 +2603,28 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="246">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="254">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="245">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="253">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="244">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="252">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="243">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="251">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="242">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="250">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="241">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="249">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="240">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="248">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="239">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="247">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2544,28 +2637,28 @@
   <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="91">
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="99">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="98">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="97">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="96">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="87">
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="95">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="86">
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="94">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="85">
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="93">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="84">
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="92">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2578,28 +2671,28 @@
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="83">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="91">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="82">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="90">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="81">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="89">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="80">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="88">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="79">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="87">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="78">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="86">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="77">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="85">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="76">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="84">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2620,7 +2713,7 @@
     <tableColumn id="7" xr3:uid="{09E4151E-54A0-41FF-BA5B-3B1C748DA23D}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{909575E0-EC13-4E35-A35F-2451A5741589}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CDCF32E-D8FC-48D9-A28D-8D9C5F3EB001}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="75">
+    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="83">
       <calculatedColumnFormula>SUM(Table168213429[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2633,28 +2726,28 @@
   <autoFilter ref="A7:I12" xr:uid="{4ED64482-035D-49B9-A477-A1D5AEB4A5A4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{141B0E2E-D4F3-4884-86FD-AAD67C363749}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="74">
+    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="82">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*125</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="73">
+    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="81">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="72">
+    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="80">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="71">
+    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="79">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="70">
+    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="78">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="69">
+    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="77">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="68">
+    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="76">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="67">
+    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="75">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2675,7 +2768,7 @@
     <tableColumn id="7" xr3:uid="{07EA0638-8880-4944-AC9E-13E3F1B9F651}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AA18E602-126F-4D69-9CC8-C097E8EB9C70}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{5563B0CB-2EA7-4851-8D1F-D77E0F90CBAD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="66">
+    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="74">
       <calculatedColumnFormula>SUM(Table16821342932[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2688,28 +2781,28 @@
   <autoFilter ref="A5:I10" xr:uid="{2922C913-6AE8-4B89-BDA6-9F44D59987D8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3D67222C-6501-4A5D-A9FC-528EE591A288}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="65">
+    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="73">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="72">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="63">
+    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="71">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="62">
+    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="70">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="61">
+    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="69">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="60">
+    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="68">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="59">
+    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="67">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="58">
+    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="66">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2730,7 +2823,7 @@
     <tableColumn id="7" xr3:uid="{C374A90B-690A-432C-974A-C8A7D22E367F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{05C64890-0DC2-4577-975E-95477DCED789}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{CE6AAEA9-D599-4B9B-BD40-7E602F47088C}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="57">
+    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="65">
       <calculatedColumnFormula>SUM(Table1682134293227[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2743,28 +2836,28 @@
   <autoFilter ref="A6:I11" xr:uid="{D09397F4-7631-4CD3-AF40-3B14C64478EE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BF4E6A79-8CCF-498E-B3B0-FA782AB06519}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="56">
+    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="64">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*87.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="55">
+    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="63">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="54">
+    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="62">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="53">
+    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="61">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="52">
+    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="60">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="59">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="50">
+    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="58">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="49">
+    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="57">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2777,28 +2870,28 @@
   <autoFilter ref="A4:I9" xr:uid="{DD778A26-93EC-4B14-A9D1-160AE03B48D3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F0A3DB96-38E4-4CD0-BAF6-C8BB768B1256}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="48">
+    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="56">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="47">
+    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="55">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="46">
+    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="54">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="45">
+    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="53">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="44">
+    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="52">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="43">
+    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="51">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="42">
+    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="50">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="41">
+    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="49">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2811,28 +2904,28 @@
   <autoFilter ref="A12:I16" xr:uid="{2A794F38-5DB8-40A3-A8E2-90B5A0A4A192}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C5A2CF3A-0965-428C-AD05-883EDB0D400F}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="40">
+    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="48">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="47">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="46">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="45">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="44">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="35">
+    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="43">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="42">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="41">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2853,7 +2946,7 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="238">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="246">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2866,28 +2959,28 @@
   <autoFilter ref="A20:I24" xr:uid="{6015D08B-C4A1-43B9-B8BF-6F441CC08DCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D4205A68-390A-4750-8556-3B4847E58D16}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="40">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="39">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="38">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="37">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="36">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="35">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="34">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="33">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2900,28 +2993,28 @@
   <autoFilter ref="A27:I30" xr:uid="{4506A984-1EE8-4D0B-9AFB-6DE5576F3317}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{97BB3945-930E-41A9-B479-678FD9D8EE85}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{2197951B-D7A2-413F-8152-C8BB282E3498}" name="HP" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{2197951B-D7A2-413F-8152-C8BB282E3498}" name="HP" dataDxfId="32">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{54D89380-BDA0-4B18-8B8B-482E9AA62AD3}" name="MP" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{54D89380-BDA0-4B18-8B8B-482E9AA62AD3}" name="MP" dataDxfId="31">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DCD1A325-B7AE-4283-89E4-85446F157A12}" name="ATK" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{DCD1A325-B7AE-4283-89E4-85446F157A12}" name="ATK" dataDxfId="30">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CD051D4-B531-4706-95A8-BBF452C5188D}" name="DEF" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{1CD051D4-B531-4706-95A8-BBF452C5188D}" name="DEF" dataDxfId="29">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.25 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E17A43F1-7669-40E6-BD8C-8623B203A60F}" name="MAT" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{E17A43F1-7669-40E6-BD8C-8623B203A60F}" name="MAT" dataDxfId="28">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{04F7D6BA-3673-4BE0-97CA-65C8DD4612E3}" name="MDF" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{04F7D6BA-3673-4BE0-97CA-65C8DD4612E3}" name="MDF" dataDxfId="27">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.25 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7AA9AD24-2AFF-4204-AAEF-0CC3265C40FA}" name="AGI" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{7AA9AD24-2AFF-4204-AAEF-0CC3265C40FA}" name="AGI" dataDxfId="26">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABFCE932-20B6-4AEE-A261-B747D2EC6FA8}" name="LUK" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{ABFCE932-20B6-4AEE-A261-B747D2EC6FA8}" name="LUK" dataDxfId="25">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2930,33 +3023,33 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{B11B1E6C-19A5-42E4-847D-0CD22EB4A103}" name="Table1318222743" displayName="Table1318222743" ref="A3:I7" totalsRowShown="0">
-  <autoFilter ref="A3:I7" xr:uid="{7F8360B3-D323-4505-8E52-764F2EEFEF08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{B9200053-35AC-4923-AC77-58FBB0806D21}" name="Table13163946" displayName="Table13163946" ref="L4:T9" totalsRowShown="0">
+  <autoFilter ref="L4:T9" xr:uid="{7E10C2C1-D4A2-4595-8F68-D39C5EF91F11}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2DA75379-E191-41C6-A461-F7A952576C54}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{0E110670-3AC7-427B-B6F4-6865DC721C3B}" name="HP" dataDxfId="16">
-      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{DD071379-690C-45AA-9EB0-1452F203E78A}" name="MP" dataDxfId="15">
-      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{16C4CC92-9435-4196-8A09-D27E77854475}" name="ATK" dataDxfId="14">
-      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{ACFF3F1F-0DEB-4962-A30C-E7A1BD1814C4}" name="DEF" dataDxfId="13">
-      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{AF9BE2E5-89EE-468C-B0ED-D05B0FFE3880}" name="MAT" dataDxfId="12">
-      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF26333D-F5E1-471D-8EB4-69106E629333}" name="MDF" dataDxfId="11">
-      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{419D6271-6B9C-434E-BF38-4DE7848F9419}" name="AGI" dataDxfId="10">
-      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{CB85A19D-24B4-428F-A77F-481DA3FAACF8}" name="LUK" dataDxfId="9">
-      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{0DA2010E-5B86-4EB0-A1CB-2F1DA2E20D55}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{18F550C2-BA99-442C-BEF0-F2A727225321}" name="HP" dataDxfId="5">
+      <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*106.25 + 500</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AF6041D8-0897-4671-9A81-6EE8816F6BBE}" name="MP" dataDxfId="7">
+      <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E65D65BD-05C4-4A9B-ABA0-B601294BE295}" name="ATK" dataDxfId="4">
+      <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{778501FE-4E31-4734-A31A-EEEE7EF05B63}" name="DEF" dataDxfId="1">
+      <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{B5B2244A-14A8-46D8-BF8F-67AC8D3241DA}" name="MAT" dataDxfId="6">
+      <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9A962E99-0281-41D8-9287-E65CD6E131FB}" name="MDF" dataDxfId="0">
+      <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1AEB996E-4494-401F-BBA6-260C80317786}" name="AGI" dataDxfId="3">
+      <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9670DFBA-0FF6-4756-ACBC-24B43785B711}" name="LUK" dataDxfId="2">
+      <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2964,6 +3057,40 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{B11B1E6C-19A5-42E4-847D-0CD22EB4A103}" name="Table1318222743" displayName="Table1318222743" ref="A3:I7" totalsRowShown="0">
+  <autoFilter ref="A3:I7" xr:uid="{7F8360B3-D323-4505-8E52-764F2EEFEF08}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2DA75379-E191-41C6-A461-F7A952576C54}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{0E110670-3AC7-427B-B6F4-6865DC721C3B}" name="HP" dataDxfId="24">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{DD071379-690C-45AA-9EB0-1452F203E78A}" name="MP" dataDxfId="23">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{16C4CC92-9435-4196-8A09-D27E77854475}" name="ATK" dataDxfId="22">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{ACFF3F1F-0DEB-4962-A30C-E7A1BD1814C4}" name="DEF" dataDxfId="21">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{AF9BE2E5-89EE-468C-B0ED-D05B0FFE3880}" name="MAT" dataDxfId="20">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{BF26333D-F5E1-471D-8EB4-69106E629333}" name="MDF" dataDxfId="19">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{419D6271-6B9C-434E-BF38-4DE7848F9419}" name="AGI" dataDxfId="18">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{CB85A19D-24B4-428F-A77F-481DA3FAACF8}" name="LUK" dataDxfId="17">
+      <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{63EFECE9-294D-4BD5-B983-D7DF0138B45B}" name="Table168213429322745" displayName="Table168213429322745" ref="A4:J6" totalsRowShown="0">
   <autoFilter ref="A4:J6" xr:uid="{9FA97447-7595-4CE0-9387-AEB91FE50244}"/>
   <tableColumns count="10">
@@ -2976,7 +3103,7 @@
     <tableColumn id="7" xr3:uid="{6B239F5E-F897-4532-B3C2-8B926BDED5BF}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB8FDC45-B604-4FEB-9A7B-367828FC7568}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6C00B6B1-0959-4058-96EE-2711BA8C66BD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{1803A62E-480C-481E-8063-2EB8C650EA1D}" name="Total" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{1803A62E-480C-481E-8063-2EB8C650EA1D}" name="Total" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2984,33 +3111,33 @@
 </table>
 </file>
 
-<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{6B246BF5-6CE4-4B50-8843-8DACC434192B}" name="Table1316183336373847" displayName="Table1316183336373847" ref="A8:I13" totalsRowShown="0">
   <autoFilter ref="A8:I13" xr:uid="{F3DE48F5-A98B-4A15-8805-1948F568C45F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2E01F6BC-B2F6-42D6-A20F-FDB9BA2D677A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{21915B10-9976-4EFE-936F-170B253E711B}" name="HP" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{21915B10-9976-4EFE-936F-170B253E711B}" name="HP" dataDxfId="15">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*168.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{052B9451-309F-4C84-8FC4-08AD4866120D}" name="MP" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{052B9451-309F-4C84-8FC4-08AD4866120D}" name="MP" dataDxfId="14">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="13">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="12">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="11">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="10">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="9">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="8">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*2.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3023,28 +3150,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="237">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="245">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="236">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="244">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="235">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="243">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="234">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="242">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="233">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="241">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="232">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="240">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="231">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="239">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="230">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="238">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3065,7 +3192,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="229">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="237">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3078,28 +3205,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="228">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="236">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="227">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="235">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="226">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="234">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="225">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="233">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="224">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="232">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="223">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="231">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="222">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="230">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="221">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="229">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3120,7 +3247,7 @@
     <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="220">
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="228">
       <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3133,28 +3260,28 @@
   <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="219">
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="227">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="218">
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="226">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="217">
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="225">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="216">
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="224">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="215">
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="223">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="214">
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="222">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="213">
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="221">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="212">
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="220">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7106,25 +7233,28 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC26FB-B5E4-44F5-B062-22E344453193}">
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7152,8 +7282,35 @@
       <c r="I4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7189,8 +7346,43 @@
         <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
         <v>16.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>Table13163946[[#This Row],[Level]]*106.25 + 500</f>
+        <v>606.25</v>
+      </c>
+      <c r="N5">
+        <f>Table13163946[[#This Row],[Level]]*10+20</f>
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <f>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</f>
+        <v>57.125</v>
+      </c>
+      <c r="P5">
+        <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</f>
+        <v>37.125</v>
+      </c>
+      <c r="Q5">
+        <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</f>
+        <v>57.125</v>
+      </c>
+      <c r="S5">
+        <f>Table13163946[[#This Row],[Level]]*1.5 + 15</f>
+        <v>16.5</v>
+      </c>
+      <c r="T5">
+        <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -7226,8 +7418,43 @@
         <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
         <v>27.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <f>Table13163946[[#This Row],[Level]]*106.25 + 500</f>
+        <v>1562.5</v>
+      </c>
+      <c r="N6">
+        <f>Table13163946[[#This Row],[Level]]*10+20</f>
+        <v>120</v>
+      </c>
+      <c r="O6">
+        <f>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</f>
+        <v>76.25</v>
+      </c>
+      <c r="P6">
+        <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</f>
+        <v>56.25</v>
+      </c>
+      <c r="Q6">
+        <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</f>
+        <v>76.25</v>
+      </c>
+      <c r="S6">
+        <f>Table13163946[[#This Row],[Level]]*1.5 + 15</f>
+        <v>30</v>
+      </c>
+      <c r="T6">
+        <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -7263,8 +7490,43 @@
         <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <f>Table13163946[[#This Row],[Level]]*106.25 + 500</f>
+        <v>2625</v>
+      </c>
+      <c r="N7">
+        <f>Table13163946[[#This Row],[Level]]*10+20</f>
+        <v>220</v>
+      </c>
+      <c r="O7">
+        <f>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</f>
+        <v>97.5</v>
+      </c>
+      <c r="P7">
+        <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</f>
+        <v>77.5</v>
+      </c>
+      <c r="Q7">
+        <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="R7">
+        <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</f>
+        <v>97.5</v>
+      </c>
+      <c r="S7">
+        <f>Table13163946[[#This Row],[Level]]*1.5 + 15</f>
+        <v>45</v>
+      </c>
+      <c r="T7">
+        <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22</v>
       </c>
@@ -7300,8 +7562,43 @@
         <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
         <v>42.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1">
+        <f>Table13163946[[#This Row],[Level]]*106.25 + 500</f>
+        <v>2837.5</v>
+      </c>
+      <c r="N8" s="1">
+        <f>Table13163946[[#This Row],[Level]]*10+20</f>
+        <v>240</v>
+      </c>
+      <c r="O8" s="1">
+        <f>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</f>
+        <v>101.75</v>
+      </c>
+      <c r="P8" s="1">
+        <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</f>
+        <v>81.75</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
+        <v>37</v>
+      </c>
+      <c r="R8" s="1">
+        <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</f>
+        <v>101.75</v>
+      </c>
+      <c r="S8" s="1">
+        <f>Table13163946[[#This Row],[Level]]*1.5 + 15</f>
+        <v>48</v>
+      </c>
+      <c r="T8" s="1">
+        <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
@@ -7337,13 +7634,78 @@
         <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
         <v>46.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1">
+        <f>Table13163946[[#This Row],[Level]]*106.25 + 500</f>
+        <v>3156.25</v>
+      </c>
+      <c r="N9" s="1">
+        <f>Table13163946[[#This Row],[Level]]*10+20</f>
+        <v>270</v>
+      </c>
+      <c r="O9" s="1">
+        <f>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</f>
+        <v>108.125</v>
+      </c>
+      <c r="P9" s="1">
+        <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</f>
+        <v>88.125</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="R9" s="1">
+        <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</f>
+        <v>108.125</v>
+      </c>
+      <c r="S9" s="1">
+        <f>Table13163946[[#This Row],[Level]]*1.5 + 15</f>
+        <v>52.5</v>
+      </c>
+      <c r="T9" s="1">
+        <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -7371,8 +7733,39 @@
       <c r="I12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="9">
+        <v>10</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>10</v>
+      </c>
+      <c r="P12" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>10</v>
+      </c>
+      <c r="S12" s="9">
+        <v>5</v>
+      </c>
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12" s="10">
+        <f>SUM(M12:T12)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7409,7 +7802,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -7446,7 +7839,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -7483,7 +7876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
       </c>
@@ -7854,11 +8247,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7867,7 +8261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20BDF8A-A837-40AC-945B-5DCD3F792613}">
   <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -8068,7 +8462,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A4" sqref="A4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="75">
   <si>
     <t>Skeletons are the most basic undead, they have low magical attributes, agility, and luck.</t>
   </si>
@@ -224,12 +224,6 @@
     <t>An Earth type monster, may look similar to normal wolfs but since it’s a monster it is much stronger. Base Level 2</t>
   </si>
   <si>
-    <t>Lv 20 with Iron equipment, single class, single path?</t>
-  </si>
-  <si>
-    <t>Bandit Warrior, Medium Iron Armor, Two handed weapon -&gt; 40, 19/5</t>
-  </si>
-  <si>
     <t>Bandit Rogue, light phys armor, dual equipped daggers -&gt; 40, 10/8</t>
   </si>
   <si>
@@ -261,6 +255,18 @@
   </si>
   <si>
     <t>Mercenary Golem, -&gt; 40 Attack, 20 Def, 40 MDF</t>
+  </si>
+  <si>
+    <t>Lv 20 with Iron equipment, single class, single path? Bandit Warrior, Medium Iron Armor, Two handed weapon -&gt; 40, 19/5</t>
+  </si>
+  <si>
+    <t>Lv 25 with Iron equipment, single class, single path? Bandit Warrior, Medium Iron Armor, Two handed weapon -&gt; 40, 19/5</t>
+  </si>
+  <si>
+    <t>Lv 28 with Iron equipment, Swords master, Brawler</t>
+  </si>
+  <si>
+    <t>Mercenary Boss, Heavy Iron Armor, Two handed weapon, 2 Iron Ring -&gt; 40, 21/7</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="264">
+  <dxfs count="272">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1987,7 +2017,7 @@
     <tableColumn id="7" xr3:uid="{F9852B29-E77D-4E17-A56E-5F0C649FA862}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{9A914BFF-1060-46E4-B8F9-412BD9293C3D}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2F83B650-811D-4FEE-92D5-03D4DC4376E5}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="263">
+    <tableColumn id="10" xr3:uid="{A7ECC22A-E541-4FF1-905A-C7CFAFD30F4C}" name="Total" dataDxfId="271">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2008,7 +2038,7 @@
     <tableColumn id="7" xr3:uid="{3A2FD57C-060A-462E-8BB9-B06F717E9D20}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{ED9393EA-F7F9-4661-8D0B-0D9246DDABF8}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6F56342F-5442-42CD-8B6C-D98B6D6C0C56}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="219">
+    <tableColumn id="10" xr3:uid="{8C3FB752-E74A-4FF8-9BB4-A96D072B21F5}" name="Total" dataDxfId="227">
       <calculatedColumnFormula>SUM(Table16[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2021,28 +2051,28 @@
   <autoFilter ref="A8:I13" xr:uid="{7BE337CC-37BD-4688-B60D-A66F4420668B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71340E4C-6101-4C59-8ED7-689E2AD5A962}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="218">
+    <tableColumn id="2" xr3:uid="{C1A3992E-1B16-49B9-BB43-D049727FD937}" name="HP" dataDxfId="226">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="217">
+    <tableColumn id="3" xr3:uid="{C682D862-74D7-4A71-B58F-60B479692D97}" name="MP" dataDxfId="225">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="216">
+    <tableColumn id="4" xr3:uid="{A92CB1B9-B5DB-4C6F-9840-9A9CF6F3908F}" name="ATK" dataDxfId="224">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="215">
+    <tableColumn id="5" xr3:uid="{524C1F64-C076-4632-9637-C2B7F145A708}" name="DEF" dataDxfId="223">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="214">
+    <tableColumn id="6" xr3:uid="{0885B50D-EAEE-4742-B39A-A6FB8EB1237E}" name="MAT" dataDxfId="222">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="213">
+    <tableColumn id="7" xr3:uid="{61AC7716-759F-498C-8E8C-B5F398D64504}" name="MDF" dataDxfId="221">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="212">
+    <tableColumn id="8" xr3:uid="{C3006388-05CF-47C5-AB9E-F1B6224F179B}" name="AGI" dataDxfId="220">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="211">
+    <tableColumn id="9" xr3:uid="{8DBB4D25-C72A-496C-9204-90CC99BD5D11}" name="LUK" dataDxfId="219">
       <calculatedColumnFormula>Table131610[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2063,7 +2093,7 @@
     <tableColumn id="7" xr3:uid="{4899BF24-9D2A-4CC0-AE35-4F49604AAC5A}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB1CC6BA-1D38-4B74-9BC6-7057FB9773EE}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{C47FADF6-C526-4188-9187-383757CE17C1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="210">
+    <tableColumn id="10" xr3:uid="{88E3283E-60B0-4EF7-BD9E-33A82A31A770}" name="Total" dataDxfId="218">
       <calculatedColumnFormula>SUM(Table168[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2076,28 +2106,28 @@
   <autoFilter ref="A9:I15" xr:uid="{06A56D17-07E5-4650-8EE9-7EA8F94D4020}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2BE27C9-9DAE-49F5-9A70-C6CF7428BF31}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="209">
+    <tableColumn id="2" xr3:uid="{4AF6F42F-E0B8-4A6F-ABB8-DB121148C5F1}" name="HP" dataDxfId="217">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="208">
+    <tableColumn id="3" xr3:uid="{0AFD181E-F6A3-4256-8D2D-5F1DAB2B2427}" name="MP" dataDxfId="216">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="207">
+    <tableColumn id="4" xr3:uid="{57DE769C-A92E-467B-97E6-0164FBEBC66A}" name="ATK" dataDxfId="215">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="206">
+    <tableColumn id="5" xr3:uid="{BF337D43-5142-431D-B5AC-7335DB8B1181}" name="DEF" dataDxfId="214">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="205">
+    <tableColumn id="6" xr3:uid="{DC999929-3C77-4EB9-B113-30A73FEEEF46}" name="MAT" dataDxfId="213">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.375+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="204">
+    <tableColumn id="7" xr3:uid="{19E03B32-9762-40A5-ABB9-71E539F12A4D}" name="MDF" dataDxfId="212">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="203">
+    <tableColumn id="8" xr3:uid="{340B798D-7289-415A-863E-5B75541B1826}" name="AGI" dataDxfId="211">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="202">
+    <tableColumn id="9" xr3:uid="{A95C61CD-FC66-44AB-B31A-915976135796}" name="LUK" dataDxfId="210">
       <calculatedColumnFormula>Table13161013[[#This Row],[Level]]*1.5+15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2118,7 +2148,7 @@
     <tableColumn id="7" xr3:uid="{60AD88FB-4685-412B-B5FD-BF8412C6B8E2}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{6A88D48C-D864-4F16-BEF2-BA88783A3FF3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{D40BD230-6392-4A28-A29D-F13EFE35C95E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="201">
+    <tableColumn id="10" xr3:uid="{A0E09B2B-FD41-413F-8063-62214E990751}" name="Total" dataDxfId="209">
       <calculatedColumnFormula>SUM(Table16826[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2131,28 +2161,28 @@
   <autoFilter ref="A8:I14" xr:uid="{F7062CBA-4FAA-4900-9D3A-5C6613BCB6CE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ADCB4852-D3A0-456B-A8BD-E5F74BDBB762}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="200">
+    <tableColumn id="2" xr3:uid="{ED76047D-1BC2-4C1B-B9B0-58BE0ACDDA48}" name="HP" dataDxfId="208">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="199">
+    <tableColumn id="3" xr3:uid="{EC859C53-0BA5-45D1-868B-F22DC8CE7D25}" name="MP" dataDxfId="207">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="198">
+    <tableColumn id="4" xr3:uid="{DED33AB9-A2BB-4F9E-AA6D-02F8D1D65CD1}" name="ATK" dataDxfId="206">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.375+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="197">
+    <tableColumn id="5" xr3:uid="{329B716D-9CA6-4546-AB13-92D88BE40F5F}" name="DEF" dataDxfId="205">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="196">
+    <tableColumn id="6" xr3:uid="{67F8198A-5FC2-4C6D-9558-68B3141EA756}" name="MAT" dataDxfId="204">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="195">
+    <tableColumn id="7" xr3:uid="{C70F5BF6-63B0-44C1-862D-25E3FB55320F}" name="MDF" dataDxfId="203">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="194">
+    <tableColumn id="8" xr3:uid="{AB20AF53-453C-4266-A46B-40E693C91985}" name="AGI" dataDxfId="202">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="193">
+    <tableColumn id="9" xr3:uid="{7FC46A31-F9F1-432E-B399-0823E198FE0A}" name="LUK" dataDxfId="201">
       <calculatedColumnFormula>Table1316101328[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2173,7 +2203,7 @@
     <tableColumn id="7" xr3:uid="{20C5D094-BAF0-471C-ACF3-C6658991DB5F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{E08E2AF0-56DD-4A69-A536-27139D793022}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{12AD8606-1127-4E5B-BA2C-872780F22F9E}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="192">
+    <tableColumn id="10" xr3:uid="{5E2EF778-63AE-48B7-9F49-0D2AFEBD66A1}" name="Total" dataDxfId="200">
       <calculatedColumnFormula>SUM(Table1682630[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2186,28 +2216,28 @@
   <autoFilter ref="A8:I14" xr:uid="{299912CC-280B-49E1-8859-432D05893259}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F0B657F-C9A5-4A73-AAA3-27D307385193}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="191">
+    <tableColumn id="2" xr3:uid="{526284E7-597F-4726-AB18-230CA03461B1}" name="HP" dataDxfId="199">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*63+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="190">
+    <tableColumn id="3" xr3:uid="{E7BA3C7A-2677-415F-BA47-A4E88679B948}" name="MP" dataDxfId="198">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="189">
+    <tableColumn id="4" xr3:uid="{AE7BE678-2229-44F6-8732-71214FB69DD7}" name="ATK" dataDxfId="197">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+ 15+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="188">
+    <tableColumn id="5" xr3:uid="{4715E3DB-8817-43D5-9074-9FB5F0BEF5B4}" name="DEF" dataDxfId="196">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1 + 15+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="187">
+    <tableColumn id="6" xr3:uid="{9CE76933-D045-418B-A975-378EEA51D856}" name="MAT" dataDxfId="195">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="186">
+    <tableColumn id="7" xr3:uid="{244B9611-6CB0-4946-B5CD-7D42311C7D7E}" name="MDF" dataDxfId="194">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="185">
+    <tableColumn id="8" xr3:uid="{32550C13-49BB-41D2-BA0A-26798830A0FD}" name="AGI" dataDxfId="193">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="184">
+    <tableColumn id="9" xr3:uid="{BB22F289-8AF5-4DD6-877B-F09520710555}" name="LUK" dataDxfId="192">
       <calculatedColumnFormula>Table131610132831[[#This Row],[Level]]*1.5+15+20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2220,28 +2250,28 @@
   <autoFilter ref="A4:I10" xr:uid="{A1EAC62C-C07D-464E-91B1-4A34E6604BA2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{430FD3D4-914C-4309-B2E6-6F01B5CAED94}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="183">
+    <tableColumn id="2" xr3:uid="{28AF0DE0-B21C-412D-B81D-50BDA9E69080}" name="HP" dataDxfId="191">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="182">
+    <tableColumn id="3" xr3:uid="{1DE5110F-EC07-4DF5-A7D5-34F082598910}" name="MP" dataDxfId="190">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="181">
+    <tableColumn id="4" xr3:uid="{F18C8760-61ED-4B62-BAF2-B14B62B7D248}" name="ATK" dataDxfId="189">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="180">
+    <tableColumn id="5" xr3:uid="{C1595AD9-E387-4A22-BCB6-4CBFA719F9D0}" name="DEF" dataDxfId="188">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="179">
+    <tableColumn id="6" xr3:uid="{F489FA67-46F6-43D1-B73B-47D83B34338A}" name="MAT" dataDxfId="187">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="178">
+    <tableColumn id="7" xr3:uid="{3F79394A-4124-4984-9D31-828E25A56C45}" name="MDF" dataDxfId="186">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.5 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="177">
+    <tableColumn id="8" xr3:uid="{C07D4BAA-1701-41F8-AFCA-9DA08523E4CB}" name="AGI" dataDxfId="185">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="176">
+    <tableColumn id="9" xr3:uid="{4A2DA70C-A82A-443D-8342-5AD49EBB4B2C}" name="LUK" dataDxfId="184">
       <calculatedColumnFormula>Table13162015[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2254,28 +2284,28 @@
   <autoFilter ref="A7:I12" xr:uid="{9BE7336F-352A-4FAE-B0E4-61965FC814C7}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B8DA50BB-4379-43D1-879B-CDBE6D82C13A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="175">
+    <tableColumn id="2" xr3:uid="{A8A85284-4B9F-4641-B524-14D05062AA7E}" name="HP" dataDxfId="183">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="174">
+    <tableColumn id="3" xr3:uid="{4AC299E1-6D4E-4976-B070-B7CE6420FFAE}" name="MP" dataDxfId="182">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="173">
+    <tableColumn id="4" xr3:uid="{BAB284EC-09DE-422F-ABFC-8F534405AF61}" name="ATK" dataDxfId="181">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="172">
+    <tableColumn id="5" xr3:uid="{769BCE66-0870-41ED-9C9B-5AD056584176}" name="DEF" dataDxfId="180">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="171">
+    <tableColumn id="6" xr3:uid="{27956CE0-AAC2-4888-96D5-4FA26667ECE7}" name="MAT" dataDxfId="179">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="170">
+    <tableColumn id="7" xr3:uid="{6C0E582B-8B24-49CA-B28B-FF3306829EEC}" name="MDF" dataDxfId="178">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="169">
+    <tableColumn id="8" xr3:uid="{B3895228-D7EB-4A37-A986-C2AC48A359C6}" name="AGI" dataDxfId="177">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="168">
+    <tableColumn id="9" xr3:uid="{9583BDED-512B-459B-98FC-273F1975BCB9}" name="LUK" dataDxfId="176">
       <calculatedColumnFormula>Table131618[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2288,28 +2318,28 @@
   <autoFilter ref="A8:I13" xr:uid="{67385006-CBB9-4472-99D4-7881E042769D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD96F8F7-CCAB-44FA-B525-A5081670706A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="262">
+    <tableColumn id="2" xr3:uid="{3B6C33F1-A23B-494D-9E01-1F3B92B01ACB}" name="HP" dataDxfId="270">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*56.25-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="261">
+    <tableColumn id="3" xr3:uid="{AC26381C-1E8B-4282-BA32-FAB013C92F8A}" name="MP" dataDxfId="269">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="260">
+    <tableColumn id="4" xr3:uid="{77F74EFD-F91C-4967-9511-B8BF5E4B6952}" name="ATK" dataDxfId="268">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="259">
+    <tableColumn id="5" xr3:uid="{C5099C7E-FF2C-413F-B479-06A4BBC781C4}" name="DEF" dataDxfId="267">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="258">
+    <tableColumn id="6" xr3:uid="{55F7F6C7-C6E6-49D1-9C4C-6F3D4A44FC15}" name="MAT" dataDxfId="266">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="257">
+    <tableColumn id="7" xr3:uid="{D37B7B5E-6DF3-40C9-BC2C-99DE88C4F88F}" name="MDF" dataDxfId="265">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="256">
+    <tableColumn id="8" xr3:uid="{4DAA9289-D312-4509-B000-CD43744E2CED}" name="AGI" dataDxfId="264">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="255">
+    <tableColumn id="9" xr3:uid="{D9656154-EFE0-498B-896F-CDEF92F7DC51}" name="LUK" dataDxfId="263">
       <calculatedColumnFormula>Table1316[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2330,7 +2360,7 @@
     <tableColumn id="7" xr3:uid="{AEFF5C29-BE6A-4CF8-A2BB-F6B076077DA9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{4DE9B01E-67F2-4136-ADC3-60389FB67DCC}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{F5A82F03-513C-46D4-9F91-470F0060526B}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="167">
+    <tableColumn id="10" xr3:uid="{AC99843E-773A-414F-BD46-4FF9EE83C7C8}" name="Total" dataDxfId="175">
       <calculatedColumnFormula>SUM(Table16821[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2339,22 +2369,22 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="166" tableBorderDxfId="165">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C0D4CA08-9B25-4DAF-9E5A-DE83069C82B6}" name="Table1922" displayName="Table1922" ref="A15:I16" totalsRowShown="0" dataDxfId="174" tableBorderDxfId="173">
   <autoFilter ref="A15:I16" xr:uid="{434CBBE2-2F8D-4EEB-895C-68FC850EF1FD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="164"/>
-    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="163">
+    <tableColumn id="1" xr3:uid="{08FAD429-66B9-4C8A-8EDB-B8DA8C26C675}" name="Level" dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{CA74597C-BA22-42F0-BB05-90DCD7E1CDDE}" name="HP" dataDxfId="171">
       <calculatedColumnFormula>Table1922[Level]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="162">
+    <tableColumn id="3" xr3:uid="{993D070B-C7B7-45D4-93E5-17EE44EED7D3}" name="MP" dataDxfId="170">
       <calculatedColumnFormula>Table1922[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="161"/>
-    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="160"/>
-    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="159"/>
-    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="158"/>
-    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="157"/>
-    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{C4545271-63AB-4362-AFD0-75163CCB58EF}" name="ATK" dataDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{86A4D6B9-AD17-49DD-8DA2-FFA5E1524EBD}" name="DEF" dataDxfId="168"/>
+    <tableColumn id="6" xr3:uid="{E7353087-15C2-4F04-A487-D3F31754ABD6}" name="MAT" dataDxfId="167"/>
+    <tableColumn id="7" xr3:uid="{ED5F6DB9-0B11-4EFF-A230-1A55AF879970}" name="MDF" dataDxfId="166"/>
+    <tableColumn id="8" xr3:uid="{58B92910-71F9-41E1-9754-359D180D0AAC}" name="AGI" dataDxfId="165"/>
+    <tableColumn id="9" xr3:uid="{75D84CD3-53A0-4336-93D8-A352C50C03CA}" name="LUK" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2365,28 +2395,28 @@
   <autoFilter ref="A3:I9" xr:uid="{A90D1C2A-DBF9-4EEF-ACC2-3DC17C207301}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BD3505AC-AE6D-4947-A74E-A6C2D68658F1}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="155">
+    <tableColumn id="2" xr3:uid="{A1294F9F-EBC1-4296-B011-01C603344440}" name="HP" dataDxfId="163">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="154">
+    <tableColumn id="3" xr3:uid="{59EABEF7-2BEF-47B5-8F65-5CA01989879E}" name="MP" dataDxfId="162">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="153">
+    <tableColumn id="4" xr3:uid="{1126F36B-2E1E-425F-9D79-2C33533A233C}" name="ATK" dataDxfId="161">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="152">
+    <tableColumn id="5" xr3:uid="{4235BC6B-708C-4D42-BF8A-BB1DFF8F3B48}" name="DEF" dataDxfId="160">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="151">
+    <tableColumn id="6" xr3:uid="{5089908A-1F1A-4ABC-83C5-4AB9A3F6939C}" name="MAT" dataDxfId="159">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="150">
+    <tableColumn id="7" xr3:uid="{244F2331-26E8-40D3-9798-7F332C488BA2}" name="MDF" dataDxfId="158">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="149">
+    <tableColumn id="8" xr3:uid="{2AD0FECD-797E-4EEA-B5DD-FEB78C15117F}" name="AGI" dataDxfId="157">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="148">
+    <tableColumn id="9" xr3:uid="{D4231BEE-7DAE-438E-B727-BC57B8F57597}" name="LUK" dataDxfId="156">
       <calculatedColumnFormula>Table131620[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2395,32 +2425,32 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="147" tableBorderDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB5E87D9-7176-4EDF-A213-1F2F1812D046}" name="Table19" displayName="Table19" ref="L3:T4" totalsRowShown="0" dataDxfId="155" tableBorderDxfId="154">
   <autoFilter ref="L3:T4" xr:uid="{5D2C3EA8-1297-4C77-AF32-84E50F8232C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="145"/>
-    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="144">
+    <tableColumn id="1" xr3:uid="{0B061316-6B56-404F-BD50-AEA8EEBE29C7}" name="Level" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{DD7F3A71-5685-4158-906B-EF22B1AE9AF0}" name="HP" dataDxfId="152">
       <calculatedColumnFormula>Table19[Level]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="143">
+    <tableColumn id="3" xr3:uid="{370CE45A-8A0C-43B6-91A5-13ED6B69FE90}" name="MP" dataDxfId="151">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="142">
+    <tableColumn id="4" xr3:uid="{A67BA9CE-5223-45EC-A3F0-5AD854A4F789}" name="ATK" dataDxfId="150">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="141">
+    <tableColumn id="5" xr3:uid="{C7704809-03E7-437C-B85B-D24236A90152}" name="DEF" dataDxfId="149">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1 + 15 + 6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="140">
+    <tableColumn id="6" xr3:uid="{5A5291DB-ED22-43A9-9E32-0F7D8E2DF605}" name="MAT" dataDxfId="148">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="139">
+    <tableColumn id="7" xr3:uid="{F6AEAE89-9D01-4371-80C5-75F4295522CF}" name="MDF" dataDxfId="147">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.5 + 15 + 12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="138">
+    <tableColumn id="8" xr3:uid="{27FAFF51-670F-4383-AE3D-7774533FB52E}" name="AGI" dataDxfId="146">
       <calculatedColumnFormula>Table19[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="137">
+    <tableColumn id="9" xr3:uid="{1BFA026A-DC3F-4B70-9D2A-1628D758B39D}" name="LUK" dataDxfId="145">
       <calculatedColumnFormula>Table19[Level] + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2433,28 +2463,28 @@
   <autoFilter ref="A7:I12" xr:uid="{553298A4-7E43-42CF-9EEB-1F9E7E6BAD27}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AA35C8B-719C-4BA6-9CDF-2963E1C9F233}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="136">
+    <tableColumn id="2" xr3:uid="{C087FAFA-9653-40EC-B4B9-5CB8F9D7255E}" name="HP" dataDxfId="144">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="135">
+    <tableColumn id="3" xr3:uid="{0004B47B-3968-4C5A-BE6C-B822A307D7C5}" name="MP" dataDxfId="143">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="134">
+    <tableColumn id="4" xr3:uid="{67EC8D91-0122-40D7-87D0-A3AB6788CE9D}" name="ATK" dataDxfId="142">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="133">
+    <tableColumn id="5" xr3:uid="{E9988E54-33D6-41EB-B6BE-6E832544E18C}" name="DEF" dataDxfId="141">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="132">
+    <tableColumn id="6" xr3:uid="{16D71A55-372C-4029-A831-ECF2325E46C4}" name="MAT" dataDxfId="140">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="131">
+    <tableColumn id="7" xr3:uid="{1802FB48-B110-4DBF-A8F2-64CD4890E741}" name="MDF" dataDxfId="139">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="130">
+    <tableColumn id="8" xr3:uid="{350CA8CC-761C-4994-9D80-14685787EF3D}" name="AGI" dataDxfId="138">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="129">
+    <tableColumn id="9" xr3:uid="{B578CF58-136A-41B9-800E-D75836A4CDD1}" name="LUK" dataDxfId="137">
       <calculatedColumnFormula>Table13161833[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2475,7 +2505,7 @@
     <tableColumn id="7" xr3:uid="{5A405725-30A7-487F-95BF-061F71CA9C61}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{644DEF70-6EBD-403E-904B-6C30E5FBEA48}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{BA93DA54-96B9-48D1-80BB-C266771E13F1}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="128">
+    <tableColumn id="10" xr3:uid="{3EBB17A5-47EA-458B-83A5-7056BE67D25F}" name="Total" dataDxfId="136">
       <calculatedColumnFormula>SUM(Table1682134[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2484,26 +2514,26 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="127" tableBorderDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{A7C0F3AC-4E86-430D-AE55-8604641B493E}" name="Table192235" displayName="Table192235" ref="A15:I16" totalsRowShown="0" dataDxfId="135" tableBorderDxfId="134">
   <autoFilter ref="A15:I16" xr:uid="{D0DF3ED4-9A21-493B-88F4-CE5814AF31C9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="124">
+    <tableColumn id="1" xr3:uid="{A78A876E-6C8B-4FC8-BFD4-A9BC80EA3FC2}" name="Level" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{4B423FFC-D037-484D-A927-2F66E15D422A}" name="HP" dataDxfId="132">
       <calculatedColumnFormula>(Table192235[Level]*75 + 500)*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="123">
+    <tableColumn id="3" xr3:uid="{B695FEDE-EC59-44D8-AE99-CBF568DE5C93}" name="MP" dataDxfId="131">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*14 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="122">
+    <tableColumn id="4" xr3:uid="{160D5D77-34E8-44F3-B51D-7CC0736DDCB1}" name="ATK" dataDxfId="130">
       <calculatedColumnFormula>Table192235[[#This Row],[Level]]*1.5+ 15 + 50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="120">
+    <tableColumn id="5" xr3:uid="{559DAC37-CD6A-449F-AFF0-355ADE7CED80}" name="DEF" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{EEC344A5-27A5-450E-B795-04D237DD063F}" name="MAT" dataDxfId="128">
       <calculatedColumnFormula>Table192235[Level]*1.5+15+50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="119"/>
-    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="118"/>
-    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="117"/>
+    <tableColumn id="7" xr3:uid="{54363CA4-9EE5-495F-8323-6C0C1261453C}" name="MDF" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{26B56E9D-2FCD-4476-A6CF-8F2EDC965246}" name="AGI" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{95814D66-3343-4190-9BF4-F4E45AB27D95}" name="LUK" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2522,7 +2552,7 @@
     <tableColumn id="7" xr3:uid="{22216E02-260E-4471-8BB1-4E6E1250BAC9}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{DC2670AC-8DF2-47F7-A3F6-EE7896309BC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{749652E2-F6CF-428C-B67C-FD0B1EFCCBBF}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="116">
+    <tableColumn id="10" xr3:uid="{A073A2A7-93B1-4F9E-9D91-2F78C352794F}" name="Total" dataDxfId="124">
       <calculatedColumnFormula>SUM(Table15[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2535,28 +2565,28 @@
   <autoFilter ref="A15:I20" xr:uid="{A1CF627F-8D28-44AD-9A35-411103976FCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F14CC326-DE44-48D8-856F-8DCDCFC89CAD}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="115">
+    <tableColumn id="2" xr3:uid="{92BF3802-59D2-4399-9FE0-AA0C8E30CE98}" name="HP" dataDxfId="123">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*63-100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="114">
+    <tableColumn id="3" xr3:uid="{E9621569-56FF-47E7-9862-FC92FAC1C576}" name="MP" dataDxfId="122">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="113">
+    <tableColumn id="4" xr3:uid="{28BC25CB-DFDA-4486-9929-9CA07015ACEC}" name="ATK" dataDxfId="121">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="112">
+    <tableColumn id="5" xr3:uid="{4F19BC44-4A9A-447E-BCFE-EBCA7F73E27C}" name="DEF" dataDxfId="120">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="111">
+    <tableColumn id="6" xr3:uid="{585C622F-EDFD-478A-B7AC-2300F7EC40B6}" name="MAT" dataDxfId="119">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="110">
+    <tableColumn id="7" xr3:uid="{4D664A3B-F840-4064-982E-516959FFFE80}" name="MDF" dataDxfId="118">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="109">
+    <tableColumn id="8" xr3:uid="{6A83289D-4D2C-4B86-8288-8E0D88EEFF85}" name="AGI" dataDxfId="117">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="108">
+    <tableColumn id="9" xr3:uid="{4C33EB48-74C2-47D6-870F-35D2D49D3558}" name="LUK" dataDxfId="116">
       <calculatedColumnFormula>Table13167[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2569,28 +2599,28 @@
   <autoFilter ref="K11:S17" xr:uid="{EAF9FB6A-F011-40E3-AB2F-E53826722AFB}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DF3E0800-6EE4-4E1B-BA6F-0194351D6E7C}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="107">
+    <tableColumn id="2" xr3:uid="{C6F6C58B-0423-443B-ADB0-8D76D9074DCF}" name="HP" dataDxfId="115">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*56.25+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="106">
+    <tableColumn id="3" xr3:uid="{8EEC9751-28E7-41A4-A78F-6EA9934C1A52}" name="MP" dataDxfId="114">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="105">
+    <tableColumn id="4" xr3:uid="{551DBC8D-C1F9-431E-BE65-6008C6C634D8}" name="ATK" dataDxfId="113">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.375+ 15 + 25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="104">
+    <tableColumn id="5" xr3:uid="{C9773950-14BB-4E0D-A68A-C952715F9420}" name="DEF" dataDxfId="112">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="103">
+    <tableColumn id="6" xr3:uid="{C9030533-FE21-4603-9B7F-56E1EA202112}" name="MAT" dataDxfId="111">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="102">
+    <tableColumn id="7" xr3:uid="{9AEE6B8F-A581-4136-83A2-A40D27A19079}" name="MDF" dataDxfId="110">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.25+ 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="101">
+    <tableColumn id="8" xr3:uid="{30C1EA69-009B-4C45-B758-5A4E2869B8E0}" name="AGI" dataDxfId="109">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.5 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="100">
+    <tableColumn id="9" xr3:uid="{0C309EA8-7C68-414C-9AEF-19A3079055BC}" name="LUK" dataDxfId="108">
       <calculatedColumnFormula>Table131679[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2603,28 +2633,28 @@
   <autoFilter ref="K8:S14" xr:uid="{AB7E938D-7ACC-4BFB-A6B9-682B8B29CEF2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{66EB8EF1-BCF4-44F7-B8A6-3C3B425F8FF5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="254">
+    <tableColumn id="2" xr3:uid="{EADBE3A7-BA36-40E2-AAFD-C66683EE9BBF}" name="HP" dataDxfId="262">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*56.25+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="253">
+    <tableColumn id="3" xr3:uid="{562074CC-9FA5-4DCD-9CD7-0BF99E403D1D}" name="MP" dataDxfId="261">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="252">
+    <tableColumn id="4" xr3:uid="{CA308242-617E-4D28-8842-309A46576513}" name="ATK" dataDxfId="260">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25+ 15+30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="251">
+    <tableColumn id="5" xr3:uid="{8DEFEC48-72A2-4000-BBAC-49E6AAC4CFA7}" name="DEF" dataDxfId="259">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1.25 + 15+33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="250">
+    <tableColumn id="6" xr3:uid="{B08936F6-A9CF-4FDB-88B5-260CD2AB0EC9}" name="MAT" dataDxfId="258">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="249">
+    <tableColumn id="7" xr3:uid="{BFBA5362-FC90-4144-922B-553D2C152D05}" name="MDF" dataDxfId="257">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1+15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="248">
+    <tableColumn id="8" xr3:uid="{AC746062-EE21-4939-ACAD-9BB491959CF0}" name="AGI" dataDxfId="256">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="247">
+    <tableColumn id="9" xr3:uid="{2F766C3C-A331-48B3-8271-4C32811B2BB3}" name="LUK" dataDxfId="255">
       <calculatedColumnFormula>Table131611[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2637,28 +2667,28 @@
   <autoFilter ref="A26:I31" xr:uid="{870F76F2-5EA7-4FD7-B1F9-507D64592088}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C04B742-338A-4366-BF3D-C5BC13023785}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="99">
+    <tableColumn id="2" xr3:uid="{311B5B5D-94D8-4564-862A-CCEB5AFD3A6D}" name="HP" dataDxfId="107">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*63+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="98">
+    <tableColumn id="3" xr3:uid="{BAA0998C-C9BA-4131-BCFC-05790596DB78}" name="MP" dataDxfId="106">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="97">
+    <tableColumn id="4" xr3:uid="{01F6813D-3052-455F-8D17-6AAE233215C4}" name="ATK" dataDxfId="105">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="96">
+    <tableColumn id="5" xr3:uid="{B48E24B7-D7BD-4C2D-A60C-0393FF7535C3}" name="DEF" dataDxfId="104">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.375 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="95">
+    <tableColumn id="6" xr3:uid="{13BA118E-6B00-4F41-9AFE-6F1E4548C218}" name="MAT" dataDxfId="103">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="94">
+    <tableColumn id="7" xr3:uid="{2ED3B673-EB80-40C4-80C0-583E0B6370DB}" name="MDF" dataDxfId="102">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="93">
+    <tableColumn id="8" xr3:uid="{5AD00210-9BCE-4AF3-9075-1C6B934E686C}" name="AGI" dataDxfId="101">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="92">
+    <tableColumn id="9" xr3:uid="{02B9C036-A321-4EBE-90DF-CF68CB6FB35E}" name="LUK" dataDxfId="100">
       <calculatedColumnFormula>Table1316717[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2671,28 +2701,28 @@
   <autoFilter ref="A36:I41" xr:uid="{9BD043AF-0D77-4FF4-B2F9-B4AC3C3F1F82}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7BB908A3-05D7-4357-920B-BF4C6BC20C06}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="91">
+    <tableColumn id="2" xr3:uid="{346E2BC5-B5D5-44A0-84D6-859E1B4DC76D}" name="HP" dataDxfId="99">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*56.5+200</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{48184CEA-2CA3-4CEA-8AE5-71C005FA24C9}" name="MP" dataDxfId="98">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*12.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{3B46ED9A-2E4B-401C-B83E-32CE8A74CB32}" name="ATK" dataDxfId="97">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{E3091C6D-70B6-453C-B493-8D9CC0DD5C37}" name="DEF" dataDxfId="96">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1 + 15+14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="87">
+    <tableColumn id="6" xr3:uid="{C2E89F50-3D99-49B9-8E98-20EFA4CBA8EB}" name="MAT" dataDxfId="95">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="86">
+    <tableColumn id="7" xr3:uid="{51AF53BA-4D3D-4ABA-A3CC-2F9EF73D34CB}" name="MDF" dataDxfId="94">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.5+ 15+13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="85">
+    <tableColumn id="8" xr3:uid="{285CB6EF-4E49-4066-90AB-68B42C1B2989}" name="AGI" dataDxfId="93">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="84">
+    <tableColumn id="9" xr3:uid="{34BE8683-723F-43E8-AE99-E2D525D32717}" name="LUK" dataDxfId="92">
       <calculatedColumnFormula>Table13167173[[#This Row],[Level]]*1.375 + 15+40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2713,7 +2743,7 @@
     <tableColumn id="7" xr3:uid="{09E4151E-54A0-41FF-BA5B-3B1C748DA23D}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{909575E0-EC13-4E35-A35F-2451A5741589}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CDCF32E-D8FC-48D9-A28D-8D9C5F3EB001}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="83">
+    <tableColumn id="10" xr3:uid="{001DA1BB-34DD-4786-BDE4-23C510900A3D}" name="Total" dataDxfId="91">
       <calculatedColumnFormula>SUM(Table168213429[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2726,28 +2756,28 @@
   <autoFilter ref="A7:I12" xr:uid="{4ED64482-035D-49B9-A477-A1D5AEB4A5A4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{141B0E2E-D4F3-4884-86FD-AAD67C363749}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="82">
+    <tableColumn id="2" xr3:uid="{D4B50877-EF56-4EF7-8C6D-9928A6D654F6}" name="HP" dataDxfId="90">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*125</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="81">
+    <tableColumn id="3" xr3:uid="{F4B06187-BE28-4283-9518-F773FE75C2BF}" name="MP" dataDxfId="89">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="80">
+    <tableColumn id="4" xr3:uid="{91A68FC7-5F16-4880-AE82-97341814BB95}" name="ATK" dataDxfId="88">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="79">
+    <tableColumn id="5" xr3:uid="{2BCD0E58-85DE-4C10-BFBC-AF77BC569C92}" name="DEF" dataDxfId="87">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="78">
+    <tableColumn id="6" xr3:uid="{7C48A1FC-CE8F-4CDD-9A3D-308B46D78A48}" name="MAT" dataDxfId="86">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="77">
+    <tableColumn id="7" xr3:uid="{474D8178-EA8C-4322-93C3-B7F6EBA88102}" name="MDF" dataDxfId="85">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="76">
+    <tableColumn id="8" xr3:uid="{257B31D9-5838-45E0-A56E-9B1566E1A34A}" name="AGI" dataDxfId="84">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="75">
+    <tableColumn id="9" xr3:uid="{17960EB4-4250-49DB-9A6B-455B9913B04B}" name="LUK" dataDxfId="83">
       <calculatedColumnFormula>Table1316183336[[#This Row],[Level]]*1.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2768,7 +2798,7 @@
     <tableColumn id="7" xr3:uid="{07EA0638-8880-4944-AC9E-13E3F1B9F651}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AA18E602-126F-4D69-9CC8-C097E8EB9C70}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{5563B0CB-2EA7-4851-8D1F-D77E0F90CBAD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="74">
+    <tableColumn id="10" xr3:uid="{2D960B43-0F76-4936-9508-4D501A79A83C}" name="Total" dataDxfId="82">
       <calculatedColumnFormula>SUM(Table16821342932[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2781,28 +2811,28 @@
   <autoFilter ref="A5:I10" xr:uid="{2922C913-6AE8-4B89-BDA6-9F44D59987D8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3D67222C-6501-4A5D-A9FC-528EE591A288}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="73">
+    <tableColumn id="2" xr3:uid="{EE3E4CCC-C404-4B78-AAB4-3B38166E23BA}" name="HP" dataDxfId="81">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="72">
+    <tableColumn id="3" xr3:uid="{DE5141FB-3B4E-46D4-9E0D-AF1DEE998B4A}" name="MP" dataDxfId="80">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="71">
+    <tableColumn id="4" xr3:uid="{404B3E88-DF62-4AA0-82D6-C21C2BCA762B}" name="ATK" dataDxfId="79">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="70">
+    <tableColumn id="5" xr3:uid="{342B3F39-F7A2-45D8-9CD4-39B5ABC72D2F}" name="DEF" dataDxfId="78">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="69">
+    <tableColumn id="6" xr3:uid="{CD819DB3-9F2E-4428-AAFC-72776ECB8EAF}" name="MAT" dataDxfId="77">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="68">
+    <tableColumn id="7" xr3:uid="{270DF964-8095-43FD-B050-DD4A2A138F32}" name="MDF" dataDxfId="76">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="67">
+    <tableColumn id="8" xr3:uid="{4F4D3B2A-5B86-4AB7-A97E-18E2868266B8}" name="AGI" dataDxfId="75">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="66">
+    <tableColumn id="9" xr3:uid="{0178CE2D-63C5-426A-A081-D62E62FF91AC}" name="LUK" dataDxfId="74">
       <calculatedColumnFormula>Table131618333637[[#This Row],[Level]]*1.5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2823,7 +2853,7 @@
     <tableColumn id="7" xr3:uid="{C374A90B-690A-432C-974A-C8A7D22E367F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{05C64890-0DC2-4577-975E-95477DCED789}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{CE6AAEA9-D599-4B9B-BD40-7E602F47088C}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="65">
+    <tableColumn id="10" xr3:uid="{30017AE7-6C23-415F-A2EA-70EA09C835E6}" name="Total" dataDxfId="73">
       <calculatedColumnFormula>SUM(Table1682134293227[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2836,28 +2866,28 @@
   <autoFilter ref="A6:I11" xr:uid="{D09397F4-7631-4CD3-AF40-3B14C64478EE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BF4E6A79-8CCF-498E-B3B0-FA782AB06519}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="64">
+    <tableColumn id="2" xr3:uid="{37E52E57-C499-4FFB-AC3F-20E63EEA4D3A}" name="HP" dataDxfId="72">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*87.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="63">
+    <tableColumn id="3" xr3:uid="{D29F5CDE-1200-4C77-A4BA-0DE4F7C46627}" name="MP" dataDxfId="71">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="62">
+    <tableColumn id="4" xr3:uid="{9701140A-64F9-4967-9DEE-3460411D91C1}" name="ATK" dataDxfId="70">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="61">
+    <tableColumn id="5" xr3:uid="{F90A425E-E031-4255-8AF9-DAD672F8DD7D}" name="DEF" dataDxfId="69">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*4.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="60">
+    <tableColumn id="6" xr3:uid="{255210A0-6EB8-4CFB-84DD-42C88AEAF7AA}" name="MAT" dataDxfId="68">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="59">
+    <tableColumn id="7" xr3:uid="{91177FDD-F316-4D6B-A547-FC5FA6DAC266}" name="MDF" dataDxfId="67">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="58">
+    <tableColumn id="8" xr3:uid="{ADA902F7-B7D7-4B1B-A144-E5252296AB61}" name="AGI" dataDxfId="66">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="57">
+    <tableColumn id="9" xr3:uid="{78273DA6-F2CA-4999-B4EA-F6C044BC41AB}" name="LUK" dataDxfId="65">
       <calculatedColumnFormula>Table13161833363738[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2870,28 +2900,28 @@
   <autoFilter ref="A4:I9" xr:uid="{DD778A26-93EC-4B14-A9D1-160AE03B48D3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F0A3DB96-38E4-4CD0-BAF6-C8BB768B1256}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="56">
+    <tableColumn id="2" xr3:uid="{07B77441-F84C-41C6-A00C-B69369FBF0F1}" name="HP" dataDxfId="64">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*75 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="55">
+    <tableColumn id="3" xr3:uid="{2DBE06DE-38E0-4433-B590-3850C554BB8E}" name="MP" dataDxfId="63">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="54">
+    <tableColumn id="4" xr3:uid="{DE8CC9D0-45D8-4F85-9317-09844C8D4DD7}" name="ATK" dataDxfId="62">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375+ 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="53">
+    <tableColumn id="5" xr3:uid="{9D33BCF5-CDB6-4BB0-8603-810E71EE1C47}" name="DEF" dataDxfId="61">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="52">
+    <tableColumn id="6" xr3:uid="{1693AB2F-85DB-4286-A43C-82A15CDDA173}" name="MAT" dataDxfId="60">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{DCA68233-62C9-4E66-9306-24AE49EE344C}" name="MDF" dataDxfId="59">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="50">
+    <tableColumn id="8" xr3:uid="{60943D8A-0008-4FFE-AE90-4DDEB0149A21}" name="AGI" dataDxfId="58">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="49">
+    <tableColumn id="9" xr3:uid="{E7EC6C93-3486-414B-87DB-F4D38BB2A0DC}" name="LUK" dataDxfId="57">
       <calculatedColumnFormula>Table131639[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2904,28 +2934,28 @@
   <autoFilter ref="A12:I16" xr:uid="{2A794F38-5DB8-40A3-A8E2-90B5A0A4A192}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C5A2CF3A-0965-428C-AD05-883EDB0D400F}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="48">
+    <tableColumn id="2" xr3:uid="{C8840580-F723-4CA3-A107-42FCC677D424}" name="HP" dataDxfId="56">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="47">
+    <tableColumn id="3" xr3:uid="{5D9241C6-74A5-4C1F-A8F7-69DB1BDA83FE}" name="MP" dataDxfId="55">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="46">
+    <tableColumn id="4" xr3:uid="{D98F9CCD-2FEF-4FB2-B5AD-D2A6B610781B}" name="ATK" dataDxfId="54">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="45">
+    <tableColumn id="5" xr3:uid="{CF1AF448-2207-48D1-8FE3-0A6B5DE3511C}" name="DEF" dataDxfId="53">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="44">
+    <tableColumn id="6" xr3:uid="{A632BAA7-E71C-41F8-B5B0-90891BB5BA9B}" name="MAT" dataDxfId="52">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="43">
+    <tableColumn id="7" xr3:uid="{E76132BC-BC67-4915-8112-E0B292C65C91}" name="MDF" dataDxfId="51">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="42">
+    <tableColumn id="8" xr3:uid="{B25B7E33-B3CF-4D3D-9A14-3CE5B75535E8}" name="AGI" dataDxfId="50">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="41">
+    <tableColumn id="9" xr3:uid="{40820F61-4B4C-4B23-95CF-AD5CDE975F4A}" name="LUK" dataDxfId="49">
       <calculatedColumnFormula>Table13182227[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2946,7 +2976,7 @@
     <tableColumn id="7" xr3:uid="{F833922A-76F9-427C-8462-D94DE51D0477}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{203171A1-C88B-4F81-ADC2-1EE072D645F3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{34003EF6-E9A5-4584-A186-09DFF4EC11C7}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="246">
+    <tableColumn id="10" xr3:uid="{C4602156-F897-42BE-8F3F-411E13EEB095}" name="Total" dataDxfId="254">
       <calculatedColumnFormula>SUM(Table114[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2959,28 +2989,28 @@
   <autoFilter ref="A20:I24" xr:uid="{6015D08B-C4A1-43B9-B8BF-6F441CC08DCA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D4205A68-390A-4750-8556-3B4847E58D16}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="40">
+    <tableColumn id="2" xr3:uid="{D7D1DEBE-6CE0-4976-A401-D4F35A038AA9}" name="HP" dataDxfId="48">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{3CB0ED8A-F14B-4E5F-8474-F3034EA78A85}" name="MP" dataDxfId="47">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*15+100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{F3186E07-87BD-4E53-8F85-AB4798362B0C}" name="ATK" dataDxfId="46">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1+ 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{22ED75D6-B85C-4DF9-BC39-4154BAF3990E}" name="DEF" dataDxfId="45">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{B2DFC87A-2BEE-4B5A-AF53-4E18078ABC1B}" name="MAT" dataDxfId="44">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="35">
+    <tableColumn id="7" xr3:uid="{8FF82542-4129-4E67-AA7B-7CB38D8FB051}" name="MDF" dataDxfId="43">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.375 + 15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{85F4097E-90A5-4A7C-B184-42B110E62300}" name="AGI" dataDxfId="42">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{E1A21F56-D819-4CE3-9122-F47B8A4039A9}" name="LUK" dataDxfId="41">
       <calculatedColumnFormula>Table13162044[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2993,28 +3023,28 @@
   <autoFilter ref="A27:I30" xr:uid="{4506A984-1EE8-4D0B-9AFB-6DE5576F3317}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{97BB3945-930E-41A9-B479-678FD9D8EE85}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{2197951B-D7A2-413F-8152-C8BB282E3498}" name="HP" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{2197951B-D7A2-413F-8152-C8BB282E3498}" name="HP" dataDxfId="40">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{54D89380-BDA0-4B18-8B8B-482E9AA62AD3}" name="MP" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{54D89380-BDA0-4B18-8B8B-482E9AA62AD3}" name="MP" dataDxfId="39">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DCD1A325-B7AE-4283-89E4-85446F157A12}" name="ATK" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{DCD1A325-B7AE-4283-89E4-85446F157A12}" name="ATK" dataDxfId="38">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CD051D4-B531-4706-95A8-BBF452C5188D}" name="DEF" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{1CD051D4-B531-4706-95A8-BBF452C5188D}" name="DEF" dataDxfId="37">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.25 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E17A43F1-7669-40E6-BD8C-8623B203A60F}" name="MAT" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{E17A43F1-7669-40E6-BD8C-8623B203A60F}" name="MAT" dataDxfId="36">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.125 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{04F7D6BA-3673-4BE0-97CA-65C8DD4612E3}" name="MDF" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{04F7D6BA-3673-4BE0-97CA-65C8DD4612E3}" name="MDF" dataDxfId="35">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.25 + 15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7AA9AD24-2AFF-4204-AAEF-0CC3265C40FA}" name="AGI" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{7AA9AD24-2AFF-4204-AAEF-0CC3265C40FA}" name="AGI" dataDxfId="34">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABFCE932-20B6-4AEE-A261-B747D2EC6FA8}" name="LUK" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{ABFCE932-20B6-4AEE-A261-B747D2EC6FA8}" name="LUK" dataDxfId="33">
       <calculatedColumnFormula>Table131822[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3023,32 +3053,32 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{B9200053-35AC-4923-AC77-58FBB0806D21}" name="Table13163946" displayName="Table13163946" ref="L4:T9" totalsRowShown="0">
-  <autoFilter ref="L4:T9" xr:uid="{7E10C2C1-D4A2-4595-8F68-D39C5EF91F11}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{B9200053-35AC-4923-AC77-58FBB0806D21}" name="Table13163946" displayName="Table13163946" ref="P4:X9" totalsRowShown="0">
+  <autoFilter ref="P4:X9" xr:uid="{7E10C2C1-D4A2-4595-8F68-D39C5EF91F11}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0DA2010E-5B86-4EB0-A1CB-2F1DA2E20D55}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{18F550C2-BA99-442C-BEF0-F2A727225321}" name="HP" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{18F550C2-BA99-442C-BEF0-F2A727225321}" name="HP" dataDxfId="32">
       <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*106.25 + 500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF6041D8-0897-4671-9A81-6EE8816F6BBE}" name="MP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{AF6041D8-0897-4671-9A81-6EE8816F6BBE}" name="MP" dataDxfId="31">
       <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E65D65BD-05C4-4A9B-ABA0-B601294BE295}" name="ATK" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{E65D65BD-05C4-4A9B-ABA0-B601294BE295}" name="ATK" dataDxfId="30">
       <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{778501FE-4E31-4734-A31A-EEEE7EF05B63}" name="DEF" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{778501FE-4E31-4734-A31A-EEEE7EF05B63}" name="DEF" dataDxfId="29">
       <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B5B2244A-14A8-46D8-BF8F-67AC8D3241DA}" name="MAT" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{B5B2244A-14A8-46D8-BF8F-67AC8D3241DA}" name="MAT" dataDxfId="28">
       <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A962E99-0281-41D8-9287-E65CD6E131FB}" name="MDF" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{9A962E99-0281-41D8-9287-E65CD6E131FB}" name="MDF" dataDxfId="27">
       <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1AEB996E-4494-401F-BBA6-260C80317786}" name="AGI" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{1AEB996E-4494-401F-BBA6-260C80317786}" name="AGI" dataDxfId="26">
       <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*1.5 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9670DFBA-0FF6-4756-ACBC-24B43785B711}" name="LUK" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{9670DFBA-0FF6-4756-ACBC-24B43785B711}" name="LUK" dataDxfId="25">
       <calculatedColumnFormula>Table13163946[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3057,6 +3087,40 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{C94EF299-00E0-43B9-883C-EE42B8F651D8}" name="Table13163948" displayName="Table13163948" ref="P17:X22" totalsRowShown="0">
+  <autoFilter ref="P17:X22" xr:uid="{34DCA2BD-7E90-4BA9-882D-4A0B5CA055A2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2AC3EA1B-ED8B-468F-B2A6-478A7888C995}" name="Level"/>
+    <tableColumn id="2" xr3:uid="{11C9D480-A783-4641-BBCD-983BB72FDE5E}" name="HP" dataDxfId="0">
+      <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*75 + 500 + 800</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{03905492-344D-488D-BA0A-796528D82C7E}" name="MP" dataDxfId="7">
+      <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*10+20</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F7DA4593-8DF4-45AC-B00B-B64FDCC5B736}" name="ATK" dataDxfId="6">
+      <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1.375+ 15 + 40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{53D3990A-7FA7-46A4-830F-4FB19D3D6B6B}" name="DEF" dataDxfId="2">
+      <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1.375 + 15 + 21</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6DF255D1-55F9-4368-A244-C7F30A95F80B}" name="MAT" dataDxfId="5">
+      <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3FCEFA1B-B764-42CB-BA1A-3C45F9507B46}" name="MDF" dataDxfId="1">
+      <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{3774B5F6-1896-4C00-9EB2-5E37E70AFBEA}" name="AGI" dataDxfId="4">
+      <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{8F366B0D-3C62-4955-826F-672B2C04A72E}" name="LUK" dataDxfId="3">
+      <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{B11B1E6C-19A5-42E4-847D-0CD22EB4A103}" name="Table1318222743" displayName="Table1318222743" ref="A3:I7" totalsRowShown="0">
   <autoFilter ref="A3:I7" xr:uid="{7F8360B3-D323-4505-8E52-764F2EEFEF08}"/>
   <tableColumns count="9">
@@ -3090,7 +3154,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{63EFECE9-294D-4BD5-B983-D7DF0138B45B}" name="Table168213429322745" displayName="Table168213429322745" ref="A4:J6" totalsRowShown="0">
   <autoFilter ref="A4:J6" xr:uid="{9FA97447-7595-4CE0-9387-AEB91FE50244}"/>
   <tableColumns count="10">
@@ -3111,7 +3175,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{6B246BF5-6CE4-4B50-8843-8DACC434192B}" name="Table1316183336373847" displayName="Table1316183336373847" ref="A8:I13" totalsRowShown="0">
   <autoFilter ref="A8:I13" xr:uid="{F3DE48F5-A98B-4A15-8805-1948F568C45F}"/>
   <tableColumns count="9">
@@ -3150,28 +3214,28 @@
   <autoFilter ref="A8:I14" xr:uid="{D3C3F418-ED32-4504-9D73-88545A192967}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{13E0AF4A-AA83-489A-A156-B01D4F48D2F5}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="245">
+    <tableColumn id="2" xr3:uid="{B970139F-8BB5-4CE6-92F8-79E3236AC62B}" name="HP" dataDxfId="253">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*63+300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="244">
+    <tableColumn id="3" xr3:uid="{7BCF83B8-7492-4991-A008-F212725940B9}" name="MP" dataDxfId="252">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="243">
+    <tableColumn id="4" xr3:uid="{33220A80-38D8-4480-ACC7-DF484072C96B}" name="ATK" dataDxfId="251">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.5+ 15+40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="242">
+    <tableColumn id="5" xr3:uid="{36708515-5004-4705-A558-44B59D0CE676}" name="DEF" dataDxfId="250">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15+21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="241">
+    <tableColumn id="6" xr3:uid="{11729EA3-08C4-4E0B-B5EE-5B3C08A31A9C}" name="MAT" dataDxfId="249">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="240">
+    <tableColumn id="7" xr3:uid="{B179D090-E484-4663-937A-480D1164D655}" name="MDF" dataDxfId="248">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25+15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="239">
+    <tableColumn id="8" xr3:uid="{28323AD0-B3BD-401F-A237-92C8B8D70FEA}" name="AGI" dataDxfId="247">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="238">
+    <tableColumn id="9" xr3:uid="{657BED8B-4C8A-42DC-BECD-5EEF9D1B7F37}" name="LUK" dataDxfId="246">
       <calculatedColumnFormula>Table13161123[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3192,7 +3256,7 @@
     <tableColumn id="7" xr3:uid="{D1DFC0D2-A987-4E3F-BA23-52162FB0C0BA}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{AB6209DB-CCCB-4C37-B455-4C7652E0DAC9}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{2CD4CD14-92FD-41A7-9CCD-1329B5A77390}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="237">
+    <tableColumn id="10" xr3:uid="{3B2C0A10-5038-4C21-BAC5-12FB16275D2E}" name="Total" dataDxfId="245">
       <calculatedColumnFormula>SUM(Table11412[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3205,28 +3269,28 @@
   <autoFilter ref="A8:I14" xr:uid="{43F790D1-EA7B-4BAE-8A37-7CAD791E8821}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6E842E1-B25F-4CA1-9107-AC7179420C29}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="236">
+    <tableColumn id="2" xr3:uid="{EFB2F0D5-318D-4A65-BA2B-20ADDE071648}" name="HP" dataDxfId="244">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*50 + 100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="235">
+    <tableColumn id="3" xr3:uid="{0D914B89-2678-453F-BC18-571DCD45E628}" name="MP" dataDxfId="243">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*13.75 + 80</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="234">
+    <tableColumn id="4" xr3:uid="{6FBD2F64-5B1C-4035-BB1A-AFB092DB60C3}" name="ATK" dataDxfId="242">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="233">
+    <tableColumn id="5" xr3:uid="{7E0AF3FC-CC5D-4A6A-A4A2-DE278DEC4062}" name="DEF" dataDxfId="241">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1 + 15 + 4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="232">
+    <tableColumn id="6" xr3:uid="{3AF4D559-893B-4D50-BCB4-A1BD1FAF2F23}" name="MAT" dataDxfId="240">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="231">
+    <tableColumn id="7" xr3:uid="{6E9418A6-75AC-4541-9029-814EC5C06E70}" name="MDF" dataDxfId="239">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.375+15 + 14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="230">
+    <tableColumn id="8" xr3:uid="{CD605BEE-D561-4A2C-8D06-8E9AD70C32AC}" name="AGI" dataDxfId="238">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="229">
+    <tableColumn id="9" xr3:uid="{E26506B2-F488-4AA4-AC87-819A22964609}" name="LUK" dataDxfId="237">
       <calculatedColumnFormula>Table1316112324[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3247,7 +3311,7 @@
     <tableColumn id="7" xr3:uid="{E91A64A8-F750-4893-9958-7C6ABC37405F}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{3832FF0E-95E5-4B1F-B122-1EAFBF719DE3}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{237404A9-EB50-465E-89AF-7167C57AFB99}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="228">
+    <tableColumn id="10" xr3:uid="{927EBD24-571F-408C-A33B-59C753D9D96D}" name="Total" dataDxfId="236">
       <calculatedColumnFormula>SUM(Table1141219[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3260,28 +3324,28 @@
   <autoFilter ref="A7:I13" xr:uid="{2539D8EE-2982-4734-B28B-342036FEDAC6}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FEE8F081-132E-4ED3-8FFD-2CF48368B2CC}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="227">
+    <tableColumn id="2" xr3:uid="{A79BC043-DB1A-48B4-AC21-AD31632979A6}" name="HP" dataDxfId="235">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*63 + 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="226">
+    <tableColumn id="3" xr3:uid="{42935B44-C727-42B0-B48E-0369818BF78A}" name="MP" dataDxfId="234">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*10 + 20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="225">
+    <tableColumn id="4" xr3:uid="{FC4572C7-88EC-4981-A6ED-43397844845B}" name="ATK" dataDxfId="233">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="224">
+    <tableColumn id="5" xr3:uid="{C8D61CEB-FFEC-42C3-9123-5140E65C1A2C}" name="DEF" dataDxfId="232">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375 + 15 + 19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="223">
+    <tableColumn id="6" xr3:uid="{8C971683-28D2-4474-83CA-936F352F1324}" name="MAT" dataDxfId="231">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="222">
+    <tableColumn id="7" xr3:uid="{3371862A-9CF2-47CA-A149-4921E3B33162}" name="MDF" dataDxfId="230">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.375+15 + 5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="221">
+    <tableColumn id="8" xr3:uid="{AC6AC739-B4C9-47A6-9472-439C60B629A0}" name="AGI" dataDxfId="229">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="220">
+    <tableColumn id="9" xr3:uid="{E727A271-B479-47C0-A557-227ABD8EC0AC}" name="LUK" dataDxfId="228">
       <calculatedColumnFormula>Table131611232425[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7233,28 +7297,28 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC26FB-B5E4-44F5-B062-22E344453193}">
-  <dimension ref="A2:U30"/>
+  <dimension ref="A2:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7282,35 +7346,35 @@
       <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>4</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>6</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>7</v>
       </c>
-      <c r="S4" t="s">
+      <c r="W4" t="s">
         <v>8</v>
       </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7346,43 +7410,43 @@
         <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
         <v>16.25</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <f>Table13163946[[#This Row],[Level]]*106.25 + 500</f>
         <v>606.25</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <f>Table13163946[[#This Row],[Level]]*10+20</f>
         <v>30</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <f>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</f>
         <v>57.125</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</f>
         <v>37.125</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
         <v>16</v>
       </c>
-      <c r="R5">
+      <c r="V5">
         <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</f>
         <v>57.125</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <f>Table13163946[[#This Row],[Level]]*1.5 + 15</f>
         <v>16.5</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -7418,43 +7482,43 @@
         <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
         <v>27.5</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>10</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <f>Table13163946[[#This Row],[Level]]*106.25 + 500</f>
         <v>1562.5</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <f>Table13163946[[#This Row],[Level]]*10+20</f>
         <v>120</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <f>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</f>
         <v>76.25</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</f>
         <v>56.25</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
         <v>25</v>
       </c>
-      <c r="R6">
+      <c r="V6">
         <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</f>
         <v>76.25</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <f>Table13163946[[#This Row],[Level]]*1.5 + 15</f>
         <v>30</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -7490,43 +7554,43 @@
         <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
         <v>40</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>20</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <f>Table13163946[[#This Row],[Level]]*106.25 + 500</f>
         <v>2625</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <f>Table13163946[[#This Row],[Level]]*10+20</f>
         <v>220</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <f>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</f>
         <v>97.5</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</f>
         <v>77.5</v>
       </c>
-      <c r="Q7">
+      <c r="U7">
         <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
         <v>35</v>
       </c>
-      <c r="R7">
+      <c r="V7">
         <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</f>
         <v>97.5</v>
       </c>
-      <c r="S7">
+      <c r="W7">
         <f>Table13163946[[#This Row],[Level]]*1.5 + 15</f>
         <v>45</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22</v>
       </c>
@@ -7562,43 +7626,43 @@
         <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
         <v>42.5</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>22</v>
       </c>
-      <c r="M8" s="1">
+      <c r="Q8" s="1">
         <f>Table13163946[[#This Row],[Level]]*106.25 + 500</f>
         <v>2837.5</v>
       </c>
-      <c r="N8" s="1">
+      <c r="R8" s="1">
         <f>Table13163946[[#This Row],[Level]]*10+20</f>
         <v>240</v>
       </c>
-      <c r="O8" s="1">
+      <c r="S8" s="1">
         <f>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</f>
         <v>101.75</v>
       </c>
-      <c r="P8" s="1">
+      <c r="T8" s="1">
         <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</f>
         <v>81.75</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="U8" s="1">
         <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
         <v>37</v>
       </c>
-      <c r="R8" s="1">
+      <c r="V8" s="1">
         <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</f>
         <v>101.75</v>
       </c>
-      <c r="S8" s="1">
+      <c r="W8" s="1">
         <f>Table13163946[[#This Row],[Level]]*1.5 + 15</f>
         <v>48</v>
       </c>
-      <c r="T8" s="1">
+      <c r="X8" s="1">
         <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
@@ -7634,78 +7698,78 @@
         <f>Table131639[[#This Row],[Level]]*1.25 + 15</f>
         <v>46.25</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>25</v>
       </c>
-      <c r="M9" s="1">
+      <c r="Q9" s="1">
         <f>Table13163946[[#This Row],[Level]]*106.25 + 500</f>
         <v>3156.25</v>
       </c>
-      <c r="N9" s="1">
+      <c r="R9" s="1">
         <f>Table13163946[[#This Row],[Level]]*10+20</f>
         <v>270</v>
       </c>
-      <c r="O9" s="1">
+      <c r="S9" s="1">
         <f>Table13163946[[#This Row],[Level]]*2.125+ 15 + 40</f>
         <v>108.125</v>
       </c>
-      <c r="P9" s="1">
+      <c r="T9" s="1">
         <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 20</f>
         <v>88.125</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="U9" s="1">
         <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
         <v>40</v>
       </c>
-      <c r="R9" s="1">
+      <c r="V9" s="1">
         <f>Table13163946[[#This Row],[Level]]*2.125 + 15 + 40</f>
         <v>108.125</v>
       </c>
-      <c r="S9" s="1">
+      <c r="W9" s="1">
         <f>Table13163946[[#This Row],[Level]]*1.5 + 15</f>
         <v>52.5</v>
       </c>
-      <c r="T9" s="1">
+      <c r="X9" s="1">
         <f>Table13163946[[#This Row],[Level]]*1 + 15</f>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="R11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="S11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="T11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="U11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="V11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="W11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="X11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="Y11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -7733,39 +7797,39 @@
       <c r="I12" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="9">
+      <c r="P12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="9">
         <v>10</v>
       </c>
-      <c r="N12" s="9">
+      <c r="R12" s="9">
         <v>1</v>
       </c>
-      <c r="O12" s="9">
+      <c r="S12" s="9">
         <v>10</v>
       </c>
-      <c r="P12" s="9">
+      <c r="T12" s="9">
         <v>10</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="U12" s="9">
         <v>1</v>
       </c>
-      <c r="R12" s="9">
+      <c r="V12" s="9">
         <v>10</v>
       </c>
-      <c r="S12" s="9">
+      <c r="W12" s="9">
         <v>5</v>
       </c>
-      <c r="T12" s="9">
+      <c r="X12" s="9">
         <v>1</v>
       </c>
-      <c r="U12" s="10">
-        <f>SUM(M12:T12)</f>
+      <c r="Y12" s="10">
+        <f>SUM(Q12:X12)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7802,7 +7866,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -7839,7 +7903,7 @@
         <v>33.75</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -7875,8 +7939,11 @@
         <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
       </c>
@@ -7912,18 +7979,120 @@
         <f>Table13182227[[#This Row],[Level]]*1.25 + 15</f>
         <v>46.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f>Table13163948[[#This Row],[Level]]*75 + 500 + 800</f>
+        <v>1375</v>
+      </c>
+      <c r="R18">
+        <f>Table13163948[[#This Row],[Level]]*10+20</f>
+        <v>30</v>
+      </c>
+      <c r="S18">
+        <f>Table13163948[[#This Row],[Level]]*1.375+ 15 + 40</f>
+        <v>56.375</v>
+      </c>
+      <c r="T18">
+        <f>Table13163948[[#This Row],[Level]]*1.375 + 15 + 21</f>
+        <v>37.375</v>
+      </c>
+      <c r="U18">
+        <f>Table13163948[[#This Row],[Level]]*1 + 15</f>
+        <v>16</v>
+      </c>
+      <c r="V18">
+        <f>Table13163948[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>23</v>
+      </c>
+      <c r="W18">
+        <f>Table13163948[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+      <c r="X18">
+        <f>Table13163948[[#This Row],[Level]]*1.25 + 15</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <f>Table13163948[[#This Row],[Level]]*75 + 500 + 800</f>
+        <v>2050</v>
+      </c>
+      <c r="R19">
+        <f>Table13163948[[#This Row],[Level]]*10+20</f>
+        <v>120</v>
+      </c>
+      <c r="S19">
+        <f>Table13163948[[#This Row],[Level]]*1.375+ 15 + 40</f>
+        <v>68.75</v>
+      </c>
+      <c r="T19">
+        <f>Table13163948[[#This Row],[Level]]*1.375 + 15 + 21</f>
+        <v>49.75</v>
+      </c>
+      <c r="U19">
+        <f>Table13163948[[#This Row],[Level]]*1 + 15</f>
+        <v>25</v>
+      </c>
+      <c r="V19">
+        <f>Table13163948[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>32</v>
+      </c>
+      <c r="W19">
+        <f>Table13163948[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+      <c r="X19">
+        <f>Table13163948[[#This Row],[Level]]*1.25 + 15</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -7951,8 +8120,43 @@
       <c r="I20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <f>Table13163948[[#This Row],[Level]]*75 + 500 + 800</f>
+        <v>2800</v>
+      </c>
+      <c r="R20">
+        <f>Table13163948[[#This Row],[Level]]*10+20</f>
+        <v>220</v>
+      </c>
+      <c r="S20">
+        <f>Table13163948[[#This Row],[Level]]*1.375+ 15 + 40</f>
+        <v>82.5</v>
+      </c>
+      <c r="T20">
+        <f>Table13163948[[#This Row],[Level]]*1.375 + 15 + 21</f>
+        <v>63.5</v>
+      </c>
+      <c r="U20">
+        <f>Table13163948[[#This Row],[Level]]*1 + 15</f>
+        <v>35</v>
+      </c>
+      <c r="V20">
+        <f>Table13163948[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>42</v>
+      </c>
+      <c r="W20">
+        <f>Table13163948[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+      <c r="X20">
+        <f>Table13163948[[#This Row],[Level]]*1.25 + 15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7988,8 +8192,43 @@
         <f>Table13162044[[#This Row],[Level]]*1.25 + 15</f>
         <v>16.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>Table13163948[[#This Row],[Level]]*75 + 500 + 800</f>
+        <v>2950</v>
+      </c>
+      <c r="R21" s="1">
+        <f>Table13163948[[#This Row],[Level]]*10+20</f>
+        <v>240</v>
+      </c>
+      <c r="S21" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1.375+ 15 + 40</f>
+        <v>85.25</v>
+      </c>
+      <c r="T21" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1.375 + 15 + 21</f>
+        <v>66.25</v>
+      </c>
+      <c r="U21" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1 + 15</f>
+        <v>37</v>
+      </c>
+      <c r="V21" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>44</v>
+      </c>
+      <c r="W21" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1.25 + 15</f>
+        <v>42.5</v>
+      </c>
+      <c r="X21" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1.25 + 15</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -8025,8 +8264,43 @@
         <f>Table13162044[[#This Row],[Level]]*1.25 + 15</f>
         <v>27.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>Table13163948[[#This Row],[Level]]*75 + 500 + 800</f>
+        <v>3400</v>
+      </c>
+      <c r="R22" s="1">
+        <f>Table13163948[[#This Row],[Level]]*10+20</f>
+        <v>300</v>
+      </c>
+      <c r="S22" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1.375+ 15 + 40</f>
+        <v>93.5</v>
+      </c>
+      <c r="T22" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1.375 + 15 + 21</f>
+        <v>74.5</v>
+      </c>
+      <c r="U22" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1 + 15</f>
+        <v>43</v>
+      </c>
+      <c r="V22" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1 + 15 + 7</f>
+        <v>50</v>
+      </c>
+      <c r="W22" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1.25 + 15</f>
+        <v>50</v>
+      </c>
+      <c r="X22" s="1">
+        <f>Table13163948[[#This Row],[Level]]*1.25 + 15</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -8063,7 +8337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -8100,12 +8374,12 @@
         <v>46.25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -8134,7 +8408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -8171,7 +8445,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -8208,7 +8482,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -8247,12 +8521,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8269,7 +8544,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8472,12 +8747,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -8514,7 +8789,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -8547,7 +8822,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="1">
         <f>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</f>

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="14" activeTab="16" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="14" activeTab="18" xr2:uid="{D5030FAB-5119-49EA-A44B-FED5D2E13C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Skeleton Soldier" sheetId="1" r:id="rId1"/>
@@ -3091,28 +3091,28 @@
   <autoFilter ref="P17:X22" xr:uid="{34DCA2BD-7E90-4BA9-882D-4A0B5CA055A2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AC3EA1B-ED8B-468F-B2A6-478A7888C995}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{11C9D480-A783-4641-BBCD-983BB72FDE5E}" name="HP" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{11C9D480-A783-4641-BBCD-983BB72FDE5E}" name="HP" dataDxfId="24">
       <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*75 + 500 + 800</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{03905492-344D-488D-BA0A-796528D82C7E}" name="MP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{03905492-344D-488D-BA0A-796528D82C7E}" name="MP" dataDxfId="23">
       <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*10+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F7DA4593-8DF4-45AC-B00B-B64FDCC5B736}" name="ATK" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{F7DA4593-8DF4-45AC-B00B-B64FDCC5B736}" name="ATK" dataDxfId="22">
       <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1.375+ 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{53D3990A-7FA7-46A4-830F-4FB19D3D6B6B}" name="DEF" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{53D3990A-7FA7-46A4-830F-4FB19D3D6B6B}" name="DEF" dataDxfId="21">
       <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1.375 + 15 + 21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6DF255D1-55F9-4368-A244-C7F30A95F80B}" name="MAT" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{6DF255D1-55F9-4368-A244-C7F30A95F80B}" name="MAT" dataDxfId="20">
       <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3FCEFA1B-B764-42CB-BA1A-3C45F9507B46}" name="MDF" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{3FCEFA1B-B764-42CB-BA1A-3C45F9507B46}" name="MDF" dataDxfId="19">
       <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1 + 15 + 7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3774B5F6-1896-4C00-9EB2-5E37E70AFBEA}" name="AGI" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{3774B5F6-1896-4C00-9EB2-5E37E70AFBEA}" name="AGI" dataDxfId="18">
       <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8F366B0D-3C62-4955-826F-672B2C04A72E}" name="LUK" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{8F366B0D-3C62-4955-826F-672B2C04A72E}" name="LUK" dataDxfId="17">
       <calculatedColumnFormula>Table13163948[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3125,28 +3125,28 @@
   <autoFilter ref="A3:I7" xr:uid="{7F8360B3-D323-4505-8E52-764F2EEFEF08}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2DA75379-E191-41C6-A461-F7A952576C54}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{0E110670-3AC7-427B-B6F4-6865DC721C3B}" name="HP" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{0E110670-3AC7-427B-B6F4-6865DC721C3B}" name="HP" dataDxfId="16">
       <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*62.5+ 300</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DD071379-690C-45AA-9EB0-1452F203E78A}" name="MP" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{DD071379-690C-45AA-9EB0-1452F203E78A}" name="MP" dataDxfId="15">
       <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*12.5+60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16C4CC92-9435-4196-8A09-D27E77854475}" name="ATK" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{16C4CC92-9435-4196-8A09-D27E77854475}" name="ATK" dataDxfId="14">
       <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ACFF3F1F-0DEB-4962-A30C-E7A1BD1814C4}" name="DEF" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{ACFF3F1F-0DEB-4962-A30C-E7A1BD1814C4}" name="DEF" dataDxfId="13">
       <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1 + 15 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AF9BE2E5-89EE-468C-B0ED-D05B0FFE3880}" name="MAT" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{AF9BE2E5-89EE-468C-B0ED-D05B0FFE3880}" name="MAT" dataDxfId="12">
       <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF26333D-F5E1-471D-8EB4-69106E629333}" name="MDF" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{BF26333D-F5E1-471D-8EB4-69106E629333}" name="MDF" dataDxfId="11">
       <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1 + 15 + 8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{419D6271-6B9C-434E-BF38-4DE7848F9419}" name="AGI" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{419D6271-6B9C-434E-BF38-4DE7848F9419}" name="AGI" dataDxfId="10">
       <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.5 + 15 + 40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CB85A19D-24B4-428F-A77F-481DA3FAACF8}" name="LUK" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{CB85A19D-24B4-428F-A77F-481DA3FAACF8}" name="LUK" dataDxfId="9">
       <calculatedColumnFormula>Table1318222743[[#This Row],[Level]]*1.25 + 15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3167,7 +3167,7 @@
     <tableColumn id="7" xr3:uid="{6B239F5E-F897-4532-B3C2-8B926BDED5BF}" name="MDF"/>
     <tableColumn id="8" xr3:uid="{CB8FDC45-B604-4FEB-9A7B-367828FC7568}" name="AGI"/>
     <tableColumn id="9" xr3:uid="{6C00B6B1-0959-4058-96EE-2711BA8C66BD}" name="LUK"/>
-    <tableColumn id="10" xr3:uid="{1803A62E-480C-481E-8063-2EB8C650EA1D}" name="Total" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{1803A62E-480C-481E-8063-2EB8C650EA1D}" name="Total" dataDxfId="8">
       <calculatedColumnFormula>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3180,28 +3180,28 @@
   <autoFilter ref="A8:I13" xr:uid="{F3DE48F5-A98B-4A15-8805-1948F568C45F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2E01F6BC-B2F6-42D6-A20F-FDB9BA2D677A}" name="Level"/>
-    <tableColumn id="2" xr3:uid="{21915B10-9976-4EFE-936F-170B253E711B}" name="HP" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{21915B10-9976-4EFE-936F-170B253E711B}" name="HP" dataDxfId="7">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*168.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{052B9451-309F-4C84-8FC4-08AD4866120D}" name="MP" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{052B9451-309F-4C84-8FC4-08AD4866120D}" name="MP" dataDxfId="6">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="5">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="4">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="3">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="2">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="1">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="0">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*2.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7299,7 +7299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC26FB-B5E4-44F5-B062-22E344453193}">
   <dimension ref="A2:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+    <sheetView topLeftCell="F6" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
@@ -8736,8 +8736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832521D1-8A9A-424A-96D4-48DD11A591EE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8824,9 +8824,33 @@
       <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="1">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
         <f>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</f>
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">

--- a/enemies.xlsx
+++ b/enemies.xlsx
@@ -3186,22 +3186,22 @@
     <tableColumn id="3" xr3:uid="{052B9451-309F-4C84-8FC4-08AD4866120D}" name="MP" dataDxfId="6">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{B73769F3-1F79-45AE-998C-FF1A9A557091}" name="ATK" dataDxfId="0">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="5">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="4">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="3">
+      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="2">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B5E81D1B-B382-4DF5-92BA-F92F12A23A07}" name="DEF" dataDxfId="4">
-      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{A815FA03-2618-4DC9-9734-50DCE6DA615F}" name="MAT" dataDxfId="3">
-      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8263081-7D11-47BB-9AEC-CE559647F35D}" name="MDF" dataDxfId="2">
-      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*4.75</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{C838F145-4059-4C8C-8152-B8F66431FFE1}" name="AGI" dataDxfId="1">
-      <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*3.5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{431AC55C-A81C-4BB0-B544-6631F8331D55}" name="LUK" dataDxfId="1">
       <calculatedColumnFormula>Table1316183336373847[[#This Row],[Level]]*2.125</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8737,7 +8737,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8798,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="J5">
         <f>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</f>
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8831,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="J6">
         <f>SUM(Table168213429322745[[#This Row],[HP]:[LUK]])</f>
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -8895,8 +8895,8 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
-        <v>3.5</v>
+        <f>Table1316183336373847[[#This Row],[Level]]*4.5</f>
+        <v>4.5</v>
       </c>
       <c r="E9">
         <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
@@ -8932,8 +8932,8 @@
         <v>150</v>
       </c>
       <c r="D10">
-        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
-        <v>52.5</v>
+        <f>Table1316183336373847[[#This Row],[Level]]*4.5</f>
+        <v>67.5</v>
       </c>
       <c r="E10">
         <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
@@ -8969,8 +8969,8 @@
         <v>250</v>
       </c>
       <c r="D11">
-        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
-        <v>87.5</v>
+        <f>Table1316183336373847[[#This Row],[Level]]*4.5</f>
+        <v>112.5</v>
       </c>
       <c r="E11">
         <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
@@ -9006,8 +9006,8 @@
         <v>300</v>
       </c>
       <c r="D12">
-        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
-        <v>105</v>
+        <f>Table1316183336373847[[#This Row],[Level]]*4.5</f>
+        <v>135</v>
       </c>
       <c r="E12">
         <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
@@ -9043,8 +9043,8 @@
         <v>200</v>
       </c>
       <c r="D13">
-        <f>Table1316183336373847[[#This Row],[Level]]*3.5</f>
-        <v>70</v>
+        <f>Table1316183336373847[[#This Row],[Level]]*4.5</f>
+        <v>90</v>
       </c>
       <c r="E13">
         <f>Table1316183336373847[[#This Row],[Level]]*4.75</f>
